--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flavi\Documents\GitHub\ChoppBot\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>SD</t>
   </si>
@@ -38,9 +46,6 @@
   </si>
   <si>
     <t>RELAY</t>
-  </si>
-  <si>
-    <t>CS</t>
   </si>
   <si>
     <t>AMA</t>
@@ -75,25 +80,34 @@
   <si>
     <t>Xsda</t>
   </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>CS/ss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -133,88 +147,385 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="3.86"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="3.86"/>
-    <col customWidth="1" min="8" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="3.86"/>
-    <col customWidth="1" min="11" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="3.86"/>
-    <col customWidth="1" min="14" max="15" width="8.71"/>
-    <col customWidth="1" min="16" max="16" width="3.86"/>
-    <col customWidth="1" min="17" max="18" width="8.71"/>
-    <col customWidth="1" min="19" max="19" width="3.86"/>
-    <col customWidth="1" min="20" max="22" width="8.71"/>
-    <col customWidth="1" min="23" max="23" width="3.86"/>
-    <col customWidth="1" min="24" max="25" width="8.71"/>
-    <col customWidth="1" min="26" max="26" width="3.86"/>
-    <col customWidth="1" min="27" max="28" width="8.71"/>
+    <col min="1" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" customWidth="1"/>
+    <col min="24" max="25" width="8.7109375" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
       <c r="J1" s="1"/>
@@ -224,7 +535,7 @@
       <c r="W1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -261,79 +572,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42.0</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>43.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1"/>
       <c r="G4" s="1"/>
@@ -341,39 +652,39 @@
       <c r="M4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12.0</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="G5" s="1"/>
@@ -382,32 +693,32 @@
       <c r="P5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13.0</v>
+        <v>52</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" s="1"/>
@@ -416,24 +727,24 @@
       <c r="P6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
@@ -443,18 +754,18 @@
       <c r="P7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
       <c r="J8" s="1"/>
@@ -464,7 +775,7 @@
       <c r="W8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="G9" s="1"/>
       <c r="J9" s="1"/>
@@ -474,7 +785,7 @@
       <c r="W9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
       <c r="J10" s="1"/>
@@ -484,7 +795,7 @@
       <c r="W10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
       <c r="J11" s="1"/>
@@ -494,7 +805,7 @@
       <c r="W11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
       <c r="J12" s="1"/>
@@ -504,7 +815,7 @@
       <c r="W12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="G13" s="1"/>
       <c r="J13" s="1"/>
@@ -514,7 +825,7 @@
       <c r="W13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="G14" s="1"/>
       <c r="J14" s="1"/>
@@ -524,7 +835,7 @@
       <c r="W14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="G15" s="1"/>
       <c r="J15" s="1"/>
@@ -534,7 +845,7 @@
       <c r="W15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="G16" s="1"/>
       <c r="J16" s="1"/>
@@ -544,7 +855,7 @@
       <c r="W16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="G17" s="1"/>
       <c r="J17" s="1"/>
@@ -554,7 +865,7 @@
       <c r="W17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="G18" s="1"/>
       <c r="J18" s="1"/>
@@ -564,7 +875,7 @@
       <c r="W18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19" s="1"/>
       <c r="J19" s="1"/>
@@ -574,7 +885,7 @@
       <c r="W19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20" s="1"/>
       <c r="J20" s="1"/>
@@ -584,7 +895,7 @@
       <c r="W20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21" s="1"/>
       <c r="J21" s="1"/>
@@ -594,7 +905,7 @@
       <c r="W21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22" s="1"/>
       <c r="J22" s="1"/>
@@ -604,7 +915,7 @@
       <c r="W22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23" s="1"/>
       <c r="J23" s="1"/>
@@ -614,7 +925,7 @@
       <c r="W23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24" s="1"/>
       <c r="J24" s="1"/>
@@ -624,7 +935,7 @@
       <c r="W24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
       <c r="J25" s="1"/>
@@ -634,7 +945,7 @@
       <c r="W25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26" s="1"/>
       <c r="J26" s="1"/>
@@ -644,7 +955,7 @@
       <c r="W26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27" s="1"/>
       <c r="J27" s="1"/>
@@ -654,7 +965,7 @@
       <c r="W27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28" s="1"/>
       <c r="J28" s="1"/>
@@ -664,7 +975,7 @@
       <c r="W28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29" s="1"/>
       <c r="J29" s="1"/>
@@ -674,7 +985,7 @@
       <c r="W29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30" s="1"/>
       <c r="J30" s="1"/>
@@ -684,7 +995,7 @@
       <c r="W30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31" s="1"/>
       <c r="J31" s="1"/>
@@ -694,7 +1005,7 @@
       <c r="W31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32" s="1"/>
       <c r="J32" s="1"/>
@@ -704,7 +1015,7 @@
       <c r="W32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
       <c r="J33" s="1"/>
@@ -714,7 +1025,7 @@
       <c r="W33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="G34" s="1"/>
       <c r="J34" s="1"/>
@@ -724,7 +1035,7 @@
       <c r="W34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="G35" s="1"/>
       <c r="J35" s="1"/>
@@ -734,7 +1045,7 @@
       <c r="W35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="G36" s="1"/>
       <c r="J36" s="1"/>
@@ -744,7 +1055,7 @@
       <c r="W36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="G37" s="1"/>
       <c r="J37" s="1"/>
@@ -754,7 +1065,7 @@
       <c r="W37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="G38" s="1"/>
       <c r="J38" s="1"/>
@@ -764,7 +1075,7 @@
       <c r="W38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="G39" s="1"/>
       <c r="J39" s="1"/>
@@ -774,7 +1085,7 @@
       <c r="W39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="G40" s="1"/>
       <c r="J40" s="1"/>
@@ -784,7 +1095,7 @@
       <c r="W40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="G41" s="1"/>
       <c r="J41" s="1"/>
@@ -794,7 +1105,7 @@
       <c r="W41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
       <c r="J42" s="1"/>
@@ -804,7 +1115,7 @@
       <c r="W42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="G43" s="1"/>
       <c r="J43" s="1"/>
@@ -814,7 +1125,7 @@
       <c r="W43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="G44" s="1"/>
       <c r="J44" s="1"/>
@@ -824,7 +1135,7 @@
       <c r="W44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="G45" s="1"/>
       <c r="J45" s="1"/>
@@ -834,7 +1145,7 @@
       <c r="W45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="G46" s="1"/>
       <c r="J46" s="1"/>
@@ -844,7 +1155,7 @@
       <c r="W46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="G47" s="1"/>
       <c r="J47" s="1"/>
@@ -854,7 +1165,7 @@
       <c r="W47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
       <c r="J48" s="1"/>
@@ -864,7 +1175,7 @@
       <c r="W48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="G49" s="1"/>
       <c r="J49" s="1"/>
@@ -874,7 +1185,7 @@
       <c r="W49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="G50" s="1"/>
       <c r="J50" s="1"/>
@@ -884,7 +1195,7 @@
       <c r="W50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="G51" s="1"/>
       <c r="J51" s="1"/>
@@ -894,7 +1205,7 @@
       <c r="W51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="G52" s="1"/>
       <c r="J52" s="1"/>
@@ -904,7 +1215,7 @@
       <c r="W52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="G53" s="1"/>
       <c r="J53" s="1"/>
@@ -914,7 +1225,7 @@
       <c r="W53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="G54" s="1"/>
       <c r="J54" s="1"/>
@@ -924,7 +1235,7 @@
       <c r="W54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="G55" s="1"/>
       <c r="J55" s="1"/>
@@ -934,7 +1245,7 @@
       <c r="W55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="G56" s="1"/>
       <c r="J56" s="1"/>
@@ -944,7 +1255,7 @@
       <c r="W56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="G57" s="1"/>
       <c r="J57" s="1"/>
@@ -954,7 +1265,7 @@
       <c r="W57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="G58" s="1"/>
       <c r="J58" s="1"/>
@@ -964,7 +1275,7 @@
       <c r="W58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="G59" s="1"/>
       <c r="J59" s="1"/>
@@ -974,7 +1285,7 @@
       <c r="W59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="G60" s="1"/>
       <c r="J60" s="1"/>
@@ -984,7 +1295,7 @@
       <c r="W60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="G61" s="1"/>
       <c r="J61" s="1"/>
@@ -994,7 +1305,7 @@
       <c r="W61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="G62" s="1"/>
       <c r="J62" s="1"/>
@@ -1004,7 +1315,7 @@
       <c r="W62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="G63" s="1"/>
       <c r="J63" s="1"/>
@@ -1014,7 +1325,7 @@
       <c r="W63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="G64" s="1"/>
       <c r="J64" s="1"/>
@@ -1024,7 +1335,7 @@
       <c r="W64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="G65" s="1"/>
       <c r="J65" s="1"/>
@@ -1034,7 +1345,7 @@
       <c r="W65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="G66" s="1"/>
       <c r="J66" s="1"/>
@@ -1044,7 +1355,7 @@
       <c r="W66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="G67" s="1"/>
       <c r="J67" s="1"/>
@@ -1054,7 +1365,7 @@
       <c r="W67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="G68" s="1"/>
       <c r="J68" s="1"/>
@@ -1064,7 +1375,7 @@
       <c r="W68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="G69" s="1"/>
       <c r="J69" s="1"/>
@@ -1074,7 +1385,7 @@
       <c r="W69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="G70" s="1"/>
       <c r="J70" s="1"/>
@@ -1084,7 +1395,7 @@
       <c r="W70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="G71" s="1"/>
       <c r="J71" s="1"/>
@@ -1094,7 +1405,7 @@
       <c r="W71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="G72" s="1"/>
       <c r="J72" s="1"/>
@@ -1104,7 +1415,7 @@
       <c r="W72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="G73" s="1"/>
       <c r="J73" s="1"/>
@@ -1114,7 +1425,7 @@
       <c r="W73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="G74" s="1"/>
       <c r="J74" s="1"/>
@@ -1124,7 +1435,7 @@
       <c r="W74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="G75" s="1"/>
       <c r="J75" s="1"/>
@@ -1134,7 +1445,7 @@
       <c r="W75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
       <c r="G76" s="1"/>
       <c r="J76" s="1"/>
@@ -1144,7 +1455,7 @@
       <c r="W76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="G77" s="1"/>
       <c r="J77" s="1"/>
@@ -1154,7 +1465,7 @@
       <c r="W77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="G78" s="1"/>
       <c r="J78" s="1"/>
@@ -1164,7 +1475,7 @@
       <c r="W78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="G79" s="1"/>
       <c r="J79" s="1"/>
@@ -1174,7 +1485,7 @@
       <c r="W79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="G80" s="1"/>
       <c r="J80" s="1"/>
@@ -1184,7 +1495,7 @@
       <c r="W80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
       <c r="G81" s="1"/>
       <c r="J81" s="1"/>
@@ -1194,7 +1505,7 @@
       <c r="W81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="G82" s="1"/>
       <c r="J82" s="1"/>
@@ -1204,7 +1515,7 @@
       <c r="W82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
       <c r="G83" s="1"/>
       <c r="J83" s="1"/>
@@ -1214,7 +1525,7 @@
       <c r="W83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
       <c r="G84" s="1"/>
       <c r="J84" s="1"/>
@@ -1224,7 +1535,7 @@
       <c r="W84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
       <c r="G85" s="1"/>
       <c r="J85" s="1"/>
@@ -1234,7 +1545,7 @@
       <c r="W85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
       <c r="G86" s="1"/>
       <c r="J86" s="1"/>
@@ -1244,7 +1555,7 @@
       <c r="W86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="G87" s="1"/>
       <c r="J87" s="1"/>
@@ -1254,7 +1565,7 @@
       <c r="W87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
       <c r="G88" s="1"/>
       <c r="J88" s="1"/>
@@ -1264,7 +1575,7 @@
       <c r="W88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
       <c r="G89" s="1"/>
       <c r="J89" s="1"/>
@@ -1274,7 +1585,7 @@
       <c r="W89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
       <c r="G90" s="1"/>
       <c r="J90" s="1"/>
@@ -1284,7 +1595,7 @@
       <c r="W90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
       <c r="G91" s="1"/>
       <c r="J91" s="1"/>
@@ -1294,7 +1605,7 @@
       <c r="W91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
       <c r="G92" s="1"/>
       <c r="J92" s="1"/>
@@ -1304,7 +1615,7 @@
       <c r="W92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
       <c r="G93" s="1"/>
       <c r="J93" s="1"/>
@@ -1314,7 +1625,7 @@
       <c r="W93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
       <c r="G94" s="1"/>
       <c r="J94" s="1"/>
@@ -1324,7 +1635,7 @@
       <c r="W94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
       <c r="G95" s="1"/>
       <c r="J95" s="1"/>
@@ -1334,7 +1645,7 @@
       <c r="W95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
       <c r="G96" s="1"/>
       <c r="J96" s="1"/>
@@ -1344,7 +1655,7 @@
       <c r="W96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
       <c r="G97" s="1"/>
       <c r="J97" s="1"/>
@@ -1354,7 +1665,7 @@
       <c r="W97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
       <c r="G98" s="1"/>
       <c r="J98" s="1"/>
@@ -1364,7 +1675,7 @@
       <c r="W98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
       <c r="G99" s="1"/>
       <c r="J99" s="1"/>
@@ -1374,7 +1685,7 @@
       <c r="W99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="G100" s="1"/>
       <c r="J100" s="1"/>
@@ -1384,7 +1695,7 @@
       <c r="W100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
       <c r="G101" s="1"/>
       <c r="J101" s="1"/>
@@ -1394,7 +1705,7 @@
       <c r="W101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
       <c r="G102" s="1"/>
       <c r="J102" s="1"/>
@@ -1404,7 +1715,7 @@
       <c r="W102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
       <c r="G103" s="1"/>
       <c r="J103" s="1"/>
@@ -1414,7 +1725,7 @@
       <c r="W103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
       <c r="G104" s="1"/>
       <c r="J104" s="1"/>
@@ -1424,7 +1735,7 @@
       <c r="W104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
       <c r="G105" s="1"/>
       <c r="J105" s="1"/>
@@ -1434,7 +1745,7 @@
       <c r="W105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
       <c r="G106" s="1"/>
       <c r="J106" s="1"/>
@@ -1444,7 +1755,7 @@
       <c r="W106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
       <c r="G107" s="1"/>
       <c r="J107" s="1"/>
@@ -1454,7 +1765,7 @@
       <c r="W107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
       <c r="G108" s="1"/>
       <c r="J108" s="1"/>
@@ -1464,7 +1775,7 @@
       <c r="W108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
       <c r="G109" s="1"/>
       <c r="J109" s="1"/>
@@ -1474,7 +1785,7 @@
       <c r="W109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D110" s="1"/>
       <c r="G110" s="1"/>
       <c r="J110" s="1"/>
@@ -1484,7 +1795,7 @@
       <c r="W110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D111" s="1"/>
       <c r="G111" s="1"/>
       <c r="J111" s="1"/>
@@ -1494,7 +1805,7 @@
       <c r="W111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D112" s="1"/>
       <c r="G112" s="1"/>
       <c r="J112" s="1"/>
@@ -1504,7 +1815,7 @@
       <c r="W112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D113" s="1"/>
       <c r="G113" s="1"/>
       <c r="J113" s="1"/>
@@ -1514,7 +1825,7 @@
       <c r="W113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
       <c r="G114" s="1"/>
       <c r="J114" s="1"/>
@@ -1524,7 +1835,7 @@
       <c r="W114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
       <c r="G115" s="1"/>
       <c r="J115" s="1"/>
@@ -1534,7 +1845,7 @@
       <c r="W115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D116" s="1"/>
       <c r="G116" s="1"/>
       <c r="J116" s="1"/>
@@ -1544,7 +1855,7 @@
       <c r="W116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
       <c r="G117" s="1"/>
       <c r="J117" s="1"/>
@@ -1554,7 +1865,7 @@
       <c r="W117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D118" s="1"/>
       <c r="G118" s="1"/>
       <c r="J118" s="1"/>
@@ -1564,7 +1875,7 @@
       <c r="W118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D119" s="1"/>
       <c r="G119" s="1"/>
       <c r="J119" s="1"/>
@@ -1574,7 +1885,7 @@
       <c r="W119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D120" s="1"/>
       <c r="G120" s="1"/>
       <c r="J120" s="1"/>
@@ -1584,7 +1895,7 @@
       <c r="W120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D121" s="1"/>
       <c r="G121" s="1"/>
       <c r="J121" s="1"/>
@@ -1594,7 +1905,7 @@
       <c r="W121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D122" s="1"/>
       <c r="G122" s="1"/>
       <c r="J122" s="1"/>
@@ -1604,7 +1915,7 @@
       <c r="W122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D123" s="1"/>
       <c r="G123" s="1"/>
       <c r="J123" s="1"/>
@@ -1614,7 +1925,7 @@
       <c r="W123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D124" s="1"/>
       <c r="G124" s="1"/>
       <c r="J124" s="1"/>
@@ -1624,7 +1935,7 @@
       <c r="W124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D125" s="1"/>
       <c r="G125" s="1"/>
       <c r="J125" s="1"/>
@@ -1634,7 +1945,7 @@
       <c r="W125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D126" s="1"/>
       <c r="G126" s="1"/>
       <c r="J126" s="1"/>
@@ -1644,7 +1955,7 @@
       <c r="W126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D127" s="1"/>
       <c r="G127" s="1"/>
       <c r="J127" s="1"/>
@@ -1654,7 +1965,7 @@
       <c r="W127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D128" s="1"/>
       <c r="G128" s="1"/>
       <c r="J128" s="1"/>
@@ -1664,7 +1975,7 @@
       <c r="W128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D129" s="1"/>
       <c r="G129" s="1"/>
       <c r="J129" s="1"/>
@@ -1674,7 +1985,7 @@
       <c r="W129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D130" s="1"/>
       <c r="G130" s="1"/>
       <c r="J130" s="1"/>
@@ -1684,7 +1995,7 @@
       <c r="W130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D131" s="1"/>
       <c r="G131" s="1"/>
       <c r="J131" s="1"/>
@@ -1694,7 +2005,7 @@
       <c r="W131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D132" s="1"/>
       <c r="G132" s="1"/>
       <c r="J132" s="1"/>
@@ -1704,7 +2015,7 @@
       <c r="W132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D133" s="1"/>
       <c r="G133" s="1"/>
       <c r="J133" s="1"/>
@@ -1714,7 +2025,7 @@
       <c r="W133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D134" s="1"/>
       <c r="G134" s="1"/>
       <c r="J134" s="1"/>
@@ -1724,7 +2035,7 @@
       <c r="W134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D135" s="1"/>
       <c r="G135" s="1"/>
       <c r="J135" s="1"/>
@@ -1734,7 +2045,7 @@
       <c r="W135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D136" s="1"/>
       <c r="G136" s="1"/>
       <c r="J136" s="1"/>
@@ -1744,7 +2055,7 @@
       <c r="W136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D137" s="1"/>
       <c r="G137" s="1"/>
       <c r="J137" s="1"/>
@@ -1754,7 +2065,7 @@
       <c r="W137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D138" s="1"/>
       <c r="G138" s="1"/>
       <c r="J138" s="1"/>
@@ -1764,7 +2075,7 @@
       <c r="W138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D139" s="1"/>
       <c r="G139" s="1"/>
       <c r="J139" s="1"/>
@@ -1774,7 +2085,7 @@
       <c r="W139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D140" s="1"/>
       <c r="G140" s="1"/>
       <c r="J140" s="1"/>
@@ -1784,7 +2095,7 @@
       <c r="W140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D141" s="1"/>
       <c r="G141" s="1"/>
       <c r="J141" s="1"/>
@@ -1794,7 +2105,7 @@
       <c r="W141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D142" s="1"/>
       <c r="G142" s="1"/>
       <c r="J142" s="1"/>
@@ -1804,7 +2115,7 @@
       <c r="W142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D143" s="1"/>
       <c r="G143" s="1"/>
       <c r="J143" s="1"/>
@@ -1814,7 +2125,7 @@
       <c r="W143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D144" s="1"/>
       <c r="G144" s="1"/>
       <c r="J144" s="1"/>
@@ -1824,7 +2135,7 @@
       <c r="W144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D145" s="1"/>
       <c r="G145" s="1"/>
       <c r="J145" s="1"/>
@@ -1834,7 +2145,7 @@
       <c r="W145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D146" s="1"/>
       <c r="G146" s="1"/>
       <c r="J146" s="1"/>
@@ -1844,7 +2155,7 @@
       <c r="W146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D147" s="1"/>
       <c r="G147" s="1"/>
       <c r="J147" s="1"/>
@@ -1854,7 +2165,7 @@
       <c r="W147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D148" s="1"/>
       <c r="G148" s="1"/>
       <c r="J148" s="1"/>
@@ -1864,7 +2175,7 @@
       <c r="W148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D149" s="1"/>
       <c r="G149" s="1"/>
       <c r="J149" s="1"/>
@@ -1874,7 +2185,7 @@
       <c r="W149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D150" s="1"/>
       <c r="G150" s="1"/>
       <c r="J150" s="1"/>
@@ -1884,7 +2195,7 @@
       <c r="W150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D151" s="1"/>
       <c r="G151" s="1"/>
       <c r="J151" s="1"/>
@@ -1894,7 +2205,7 @@
       <c r="W151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D152" s="1"/>
       <c r="G152" s="1"/>
       <c r="J152" s="1"/>
@@ -1904,7 +2215,7 @@
       <c r="W152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D153" s="1"/>
       <c r="G153" s="1"/>
       <c r="J153" s="1"/>
@@ -1914,7 +2225,7 @@
       <c r="W153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D154" s="1"/>
       <c r="G154" s="1"/>
       <c r="J154" s="1"/>
@@ -1924,7 +2235,7 @@
       <c r="W154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D155" s="1"/>
       <c r="G155" s="1"/>
       <c r="J155" s="1"/>
@@ -1934,7 +2245,7 @@
       <c r="W155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D156" s="1"/>
       <c r="G156" s="1"/>
       <c r="J156" s="1"/>
@@ -1944,7 +2255,7 @@
       <c r="W156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D157" s="1"/>
       <c r="G157" s="1"/>
       <c r="J157" s="1"/>
@@ -1954,7 +2265,7 @@
       <c r="W157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D158" s="1"/>
       <c r="G158" s="1"/>
       <c r="J158" s="1"/>
@@ -1964,7 +2275,7 @@
       <c r="W158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D159" s="1"/>
       <c r="G159" s="1"/>
       <c r="J159" s="1"/>
@@ -1974,7 +2285,7 @@
       <c r="W159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D160" s="1"/>
       <c r="G160" s="1"/>
       <c r="J160" s="1"/>
@@ -1984,7 +2295,7 @@
       <c r="W160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D161" s="1"/>
       <c r="G161" s="1"/>
       <c r="J161" s="1"/>
@@ -1994,7 +2305,7 @@
       <c r="W161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D162" s="1"/>
       <c r="G162" s="1"/>
       <c r="J162" s="1"/>
@@ -2004,7 +2315,7 @@
       <c r="W162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D163" s="1"/>
       <c r="G163" s="1"/>
       <c r="J163" s="1"/>
@@ -2014,7 +2325,7 @@
       <c r="W163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D164" s="1"/>
       <c r="G164" s="1"/>
       <c r="J164" s="1"/>
@@ -2024,7 +2335,7 @@
       <c r="W164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D165" s="1"/>
       <c r="G165" s="1"/>
       <c r="J165" s="1"/>
@@ -2034,7 +2345,7 @@
       <c r="W165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D166" s="1"/>
       <c r="G166" s="1"/>
       <c r="J166" s="1"/>
@@ -2044,7 +2355,7 @@
       <c r="W166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D167" s="1"/>
       <c r="G167" s="1"/>
       <c r="J167" s="1"/>
@@ -2054,7 +2365,7 @@
       <c r="W167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D168" s="1"/>
       <c r="G168" s="1"/>
       <c r="J168" s="1"/>
@@ -2064,7 +2375,7 @@
       <c r="W168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D169" s="1"/>
       <c r="G169" s="1"/>
       <c r="J169" s="1"/>
@@ -2074,7 +2385,7 @@
       <c r="W169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D170" s="1"/>
       <c r="G170" s="1"/>
       <c r="J170" s="1"/>
@@ -2084,7 +2395,7 @@
       <c r="W170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D171" s="1"/>
       <c r="G171" s="1"/>
       <c r="J171" s="1"/>
@@ -2094,7 +2405,7 @@
       <c r="W171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D172" s="1"/>
       <c r="G172" s="1"/>
       <c r="J172" s="1"/>
@@ -2104,7 +2415,7 @@
       <c r="W172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
       <c r="G173" s="1"/>
       <c r="J173" s="1"/>
@@ -2114,7 +2425,7 @@
       <c r="W173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D174" s="1"/>
       <c r="G174" s="1"/>
       <c r="J174" s="1"/>
@@ -2124,7 +2435,7 @@
       <c r="W174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D175" s="1"/>
       <c r="G175" s="1"/>
       <c r="J175" s="1"/>
@@ -2134,7 +2445,7 @@
       <c r="W175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D176" s="1"/>
       <c r="G176" s="1"/>
       <c r="J176" s="1"/>
@@ -2144,7 +2455,7 @@
       <c r="W176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D177" s="1"/>
       <c r="G177" s="1"/>
       <c r="J177" s="1"/>
@@ -2154,7 +2465,7 @@
       <c r="W177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D178" s="1"/>
       <c r="G178" s="1"/>
       <c r="J178" s="1"/>
@@ -2164,7 +2475,7 @@
       <c r="W178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D179" s="1"/>
       <c r="G179" s="1"/>
       <c r="J179" s="1"/>
@@ -2174,7 +2485,7 @@
       <c r="W179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D180" s="1"/>
       <c r="G180" s="1"/>
       <c r="J180" s="1"/>
@@ -2184,7 +2495,7 @@
       <c r="W180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D181" s="1"/>
       <c r="G181" s="1"/>
       <c r="J181" s="1"/>
@@ -2194,7 +2505,7 @@
       <c r="W181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D182" s="1"/>
       <c r="G182" s="1"/>
       <c r="J182" s="1"/>
@@ -2204,7 +2515,7 @@
       <c r="W182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D183" s="1"/>
       <c r="G183" s="1"/>
       <c r="J183" s="1"/>
@@ -2214,7 +2525,7 @@
       <c r="W183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D184" s="1"/>
       <c r="G184" s="1"/>
       <c r="J184" s="1"/>
@@ -2224,7 +2535,7 @@
       <c r="W184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D185" s="1"/>
       <c r="G185" s="1"/>
       <c r="J185" s="1"/>
@@ -2234,7 +2545,7 @@
       <c r="W185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D186" s="1"/>
       <c r="G186" s="1"/>
       <c r="J186" s="1"/>
@@ -2244,7 +2555,7 @@
       <c r="W186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D187" s="1"/>
       <c r="G187" s="1"/>
       <c r="J187" s="1"/>
@@ -2254,7 +2565,7 @@
       <c r="W187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D188" s="1"/>
       <c r="G188" s="1"/>
       <c r="J188" s="1"/>
@@ -2264,7 +2575,7 @@
       <c r="W188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D189" s="1"/>
       <c r="G189" s="1"/>
       <c r="J189" s="1"/>
@@ -2274,7 +2585,7 @@
       <c r="W189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D190" s="1"/>
       <c r="G190" s="1"/>
       <c r="J190" s="1"/>
@@ -2284,7 +2595,7 @@
       <c r="W190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D191" s="1"/>
       <c r="G191" s="1"/>
       <c r="J191" s="1"/>
@@ -2294,7 +2605,7 @@
       <c r="W191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D192" s="1"/>
       <c r="G192" s="1"/>
       <c r="J192" s="1"/>
@@ -2304,7 +2615,7 @@
       <c r="W192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D193" s="1"/>
       <c r="G193" s="1"/>
       <c r="J193" s="1"/>
@@ -2314,7 +2625,7 @@
       <c r="W193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D194" s="1"/>
       <c r="G194" s="1"/>
       <c r="J194" s="1"/>
@@ -2324,7 +2635,7 @@
       <c r="W194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D195" s="1"/>
       <c r="G195" s="1"/>
       <c r="J195" s="1"/>
@@ -2334,7 +2645,7 @@
       <c r="W195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D196" s="1"/>
       <c r="G196" s="1"/>
       <c r="J196" s="1"/>
@@ -2344,7 +2655,7 @@
       <c r="W196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D197" s="1"/>
       <c r="G197" s="1"/>
       <c r="J197" s="1"/>
@@ -2354,7 +2665,7 @@
       <c r="W197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D198" s="1"/>
       <c r="G198" s="1"/>
       <c r="J198" s="1"/>
@@ -2364,7 +2675,7 @@
       <c r="W198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D199" s="1"/>
       <c r="G199" s="1"/>
       <c r="J199" s="1"/>
@@ -2374,7 +2685,7 @@
       <c r="W199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D200" s="1"/>
       <c r="G200" s="1"/>
       <c r="J200" s="1"/>
@@ -2384,7 +2695,7 @@
       <c r="W200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D201" s="1"/>
       <c r="G201" s="1"/>
       <c r="J201" s="1"/>
@@ -2394,7 +2705,7 @@
       <c r="W201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D202" s="1"/>
       <c r="G202" s="1"/>
       <c r="J202" s="1"/>
@@ -2404,7 +2715,7 @@
       <c r="W202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D203" s="1"/>
       <c r="G203" s="1"/>
       <c r="J203" s="1"/>
@@ -2414,7 +2725,7 @@
       <c r="W203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D204" s="1"/>
       <c r="G204" s="1"/>
       <c r="J204" s="1"/>
@@ -2424,7 +2735,7 @@
       <c r="W204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205">
+    <row r="205" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D205" s="1"/>
       <c r="G205" s="1"/>
       <c r="J205" s="1"/>
@@ -2434,7 +2745,7 @@
       <c r="W205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D206" s="1"/>
       <c r="G206" s="1"/>
       <c r="J206" s="1"/>
@@ -2444,7 +2755,7 @@
       <c r="W206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D207" s="1"/>
       <c r="G207" s="1"/>
       <c r="J207" s="1"/>
@@ -2454,7 +2765,7 @@
       <c r="W207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208">
+    <row r="208" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D208" s="1"/>
       <c r="G208" s="1"/>
       <c r="J208" s="1"/>
@@ -2464,7 +2775,7 @@
       <c r="W208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D209" s="1"/>
       <c r="G209" s="1"/>
       <c r="J209" s="1"/>
@@ -2474,7 +2785,7 @@
       <c r="W209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D210" s="1"/>
       <c r="G210" s="1"/>
       <c r="J210" s="1"/>
@@ -2484,7 +2795,7 @@
       <c r="W210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D211" s="1"/>
       <c r="G211" s="1"/>
       <c r="J211" s="1"/>
@@ -2494,7 +2805,7 @@
       <c r="W211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212">
+    <row r="212" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D212" s="1"/>
       <c r="G212" s="1"/>
       <c r="J212" s="1"/>
@@ -2504,7 +2815,7 @@
       <c r="W212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D213" s="1"/>
       <c r="G213" s="1"/>
       <c r="J213" s="1"/>
@@ -2514,7 +2825,7 @@
       <c r="W213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214">
+    <row r="214" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D214" s="1"/>
       <c r="G214" s="1"/>
       <c r="J214" s="1"/>
@@ -2524,7 +2835,7 @@
       <c r="W214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215">
+    <row r="215" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D215" s="1"/>
       <c r="G215" s="1"/>
       <c r="J215" s="1"/>
@@ -2534,7 +2845,7 @@
       <c r="W215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D216" s="1"/>
       <c r="G216" s="1"/>
       <c r="J216" s="1"/>
@@ -2544,7 +2855,7 @@
       <c r="W216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D217" s="1"/>
       <c r="G217" s="1"/>
       <c r="J217" s="1"/>
@@ -2554,7 +2865,7 @@
       <c r="W217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D218" s="1"/>
       <c r="G218" s="1"/>
       <c r="J218" s="1"/>
@@ -2564,7 +2875,7 @@
       <c r="W218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D219" s="1"/>
       <c r="G219" s="1"/>
       <c r="J219" s="1"/>
@@ -2574,7 +2885,7 @@
       <c r="W219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D220" s="1"/>
       <c r="G220" s="1"/>
       <c r="J220" s="1"/>
@@ -2584,7 +2895,7 @@
       <c r="W220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D221" s="1"/>
       <c r="G221" s="1"/>
       <c r="J221" s="1"/>
@@ -2594,7 +2905,7 @@
       <c r="W221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D222" s="1"/>
       <c r="G222" s="1"/>
       <c r="J222" s="1"/>
@@ -2604,7 +2915,7 @@
       <c r="W222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D223" s="1"/>
       <c r="G223" s="1"/>
       <c r="J223" s="1"/>
@@ -2614,7 +2925,7 @@
       <c r="W223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224">
+    <row r="224" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D224" s="1"/>
       <c r="G224" s="1"/>
       <c r="J224" s="1"/>
@@ -2624,7 +2935,7 @@
       <c r="W224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225">
+    <row r="225" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D225" s="1"/>
       <c r="G225" s="1"/>
       <c r="J225" s="1"/>
@@ -2634,7 +2945,7 @@
       <c r="W225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D226" s="1"/>
       <c r="G226" s="1"/>
       <c r="J226" s="1"/>
@@ -2644,7 +2955,7 @@
       <c r="W226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D227" s="1"/>
       <c r="G227" s="1"/>
       <c r="J227" s="1"/>
@@ -2654,7 +2965,7 @@
       <c r="W227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D228" s="1"/>
       <c r="G228" s="1"/>
       <c r="J228" s="1"/>
@@ -2664,7 +2975,7 @@
       <c r="W228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D229" s="1"/>
       <c r="G229" s="1"/>
       <c r="J229" s="1"/>
@@ -2674,7 +2985,7 @@
       <c r="W229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D230" s="1"/>
       <c r="G230" s="1"/>
       <c r="J230" s="1"/>
@@ -2684,7 +2995,7 @@
       <c r="W230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D231" s="1"/>
       <c r="G231" s="1"/>
       <c r="J231" s="1"/>
@@ -2694,7 +3005,7 @@
       <c r="W231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232">
+    <row r="232" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D232" s="1"/>
       <c r="G232" s="1"/>
       <c r="J232" s="1"/>
@@ -2704,7 +3015,7 @@
       <c r="W232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233">
+    <row r="233" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D233" s="1"/>
       <c r="G233" s="1"/>
       <c r="J233" s="1"/>
@@ -2714,7 +3025,7 @@
       <c r="W233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234">
+    <row r="234" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D234" s="1"/>
       <c r="G234" s="1"/>
       <c r="J234" s="1"/>
@@ -2724,7 +3035,7 @@
       <c r="W234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D235" s="1"/>
       <c r="G235" s="1"/>
       <c r="J235" s="1"/>
@@ -2734,7 +3045,7 @@
       <c r="W235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D236" s="1"/>
       <c r="G236" s="1"/>
       <c r="J236" s="1"/>
@@ -2744,7 +3055,7 @@
       <c r="W236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237">
+    <row r="237" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D237" s="1"/>
       <c r="G237" s="1"/>
       <c r="J237" s="1"/>
@@ -2754,7 +3065,7 @@
       <c r="W237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238">
+    <row r="238" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D238" s="1"/>
       <c r="G238" s="1"/>
       <c r="J238" s="1"/>
@@ -2764,7 +3075,7 @@
       <c r="W238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239">
+    <row r="239" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D239" s="1"/>
       <c r="G239" s="1"/>
       <c r="J239" s="1"/>
@@ -2774,7 +3085,7 @@
       <c r="W239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240">
+    <row r="240" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D240" s="1"/>
       <c r="G240" s="1"/>
       <c r="J240" s="1"/>
@@ -2784,7 +3095,7 @@
       <c r="W240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D241" s="1"/>
       <c r="G241" s="1"/>
       <c r="J241" s="1"/>
@@ -2794,7 +3105,7 @@
       <c r="W241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D242" s="1"/>
       <c r="G242" s="1"/>
       <c r="J242" s="1"/>
@@ -2804,7 +3115,7 @@
       <c r="W242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D243" s="1"/>
       <c r="G243" s="1"/>
       <c r="J243" s="1"/>
@@ -2814,7 +3125,7 @@
       <c r="W243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D244" s="1"/>
       <c r="G244" s="1"/>
       <c r="J244" s="1"/>
@@ -2824,7 +3135,7 @@
       <c r="W244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D245" s="1"/>
       <c r="G245" s="1"/>
       <c r="J245" s="1"/>
@@ -2834,7 +3145,7 @@
       <c r="W245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D246" s="1"/>
       <c r="G246" s="1"/>
       <c r="J246" s="1"/>
@@ -2844,7 +3155,7 @@
       <c r="W246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D247" s="1"/>
       <c r="G247" s="1"/>
       <c r="J247" s="1"/>
@@ -2854,7 +3165,7 @@
       <c r="W247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D248" s="1"/>
       <c r="G248" s="1"/>
       <c r="J248" s="1"/>
@@ -2864,7 +3175,7 @@
       <c r="W248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D249" s="1"/>
       <c r="G249" s="1"/>
       <c r="J249" s="1"/>
@@ -2874,7 +3185,7 @@
       <c r="W249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D250" s="1"/>
       <c r="G250" s="1"/>
       <c r="J250" s="1"/>
@@ -2884,7 +3195,7 @@
       <c r="W250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251">
+    <row r="251" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D251" s="1"/>
       <c r="G251" s="1"/>
       <c r="J251" s="1"/>
@@ -2894,7 +3205,7 @@
       <c r="W251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D252" s="1"/>
       <c r="G252" s="1"/>
       <c r="J252" s="1"/>
@@ -2904,7 +3215,7 @@
       <c r="W252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D253" s="1"/>
       <c r="G253" s="1"/>
       <c r="J253" s="1"/>
@@ -2914,7 +3225,7 @@
       <c r="W253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D254" s="1"/>
       <c r="G254" s="1"/>
       <c r="J254" s="1"/>
@@ -2924,7 +3235,7 @@
       <c r="W254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D255" s="1"/>
       <c r="G255" s="1"/>
       <c r="J255" s="1"/>
@@ -2934,7 +3245,7 @@
       <c r="W255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D256" s="1"/>
       <c r="G256" s="1"/>
       <c r="J256" s="1"/>
@@ -2944,7 +3255,7 @@
       <c r="W256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D257" s="1"/>
       <c r="G257" s="1"/>
       <c r="J257" s="1"/>
@@ -2954,7 +3265,7 @@
       <c r="W257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D258" s="1"/>
       <c r="G258" s="1"/>
       <c r="J258" s="1"/>
@@ -2964,7 +3275,7 @@
       <c r="W258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259">
+    <row r="259" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D259" s="1"/>
       <c r="G259" s="1"/>
       <c r="J259" s="1"/>
@@ -2974,7 +3285,7 @@
       <c r="W259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D260" s="1"/>
       <c r="G260" s="1"/>
       <c r="J260" s="1"/>
@@ -2984,7 +3295,7 @@
       <c r="W260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261">
+    <row r="261" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D261" s="1"/>
       <c r="G261" s="1"/>
       <c r="J261" s="1"/>
@@ -2994,7 +3305,7 @@
       <c r="W261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262">
+    <row r="262" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D262" s="1"/>
       <c r="G262" s="1"/>
       <c r="J262" s="1"/>
@@ -3004,7 +3315,7 @@
       <c r="W262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D263" s="1"/>
       <c r="G263" s="1"/>
       <c r="J263" s="1"/>
@@ -3014,7 +3325,7 @@
       <c r="W263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D264" s="1"/>
       <c r="G264" s="1"/>
       <c r="J264" s="1"/>
@@ -3024,7 +3335,7 @@
       <c r="W264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D265" s="1"/>
       <c r="G265" s="1"/>
       <c r="J265" s="1"/>
@@ -3034,7 +3345,7 @@
       <c r="W265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D266" s="1"/>
       <c r="G266" s="1"/>
       <c r="J266" s="1"/>
@@ -3044,7 +3355,7 @@
       <c r="W266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D267" s="1"/>
       <c r="G267" s="1"/>
       <c r="J267" s="1"/>
@@ -3054,7 +3365,7 @@
       <c r="W267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D268" s="1"/>
       <c r="G268" s="1"/>
       <c r="J268" s="1"/>
@@ -3064,7 +3375,7 @@
       <c r="W268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D269" s="1"/>
       <c r="G269" s="1"/>
       <c r="J269" s="1"/>
@@ -3074,7 +3385,7 @@
       <c r="W269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D270" s="1"/>
       <c r="G270" s="1"/>
       <c r="J270" s="1"/>
@@ -3084,7 +3395,7 @@
       <c r="W270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D271" s="1"/>
       <c r="G271" s="1"/>
       <c r="J271" s="1"/>
@@ -3094,7 +3405,7 @@
       <c r="W271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D272" s="1"/>
       <c r="G272" s="1"/>
       <c r="J272" s="1"/>
@@ -3104,7 +3415,7 @@
       <c r="W272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D273" s="1"/>
       <c r="G273" s="1"/>
       <c r="J273" s="1"/>
@@ -3114,7 +3425,7 @@
       <c r="W273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D274" s="1"/>
       <c r="G274" s="1"/>
       <c r="J274" s="1"/>
@@ -3124,7 +3435,7 @@
       <c r="W274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D275" s="1"/>
       <c r="G275" s="1"/>
       <c r="J275" s="1"/>
@@ -3134,7 +3445,7 @@
       <c r="W275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D276" s="1"/>
       <c r="G276" s="1"/>
       <c r="J276" s="1"/>
@@ -3144,7 +3455,7 @@
       <c r="W276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277">
+    <row r="277" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D277" s="1"/>
       <c r="G277" s="1"/>
       <c r="J277" s="1"/>
@@ -3154,7 +3465,7 @@
       <c r="W277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D278" s="1"/>
       <c r="G278" s="1"/>
       <c r="J278" s="1"/>
@@ -3164,7 +3475,7 @@
       <c r="W278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279">
+    <row r="279" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D279" s="1"/>
       <c r="G279" s="1"/>
       <c r="J279" s="1"/>
@@ -3174,7 +3485,7 @@
       <c r="W279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280">
+    <row r="280" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D280" s="1"/>
       <c r="G280" s="1"/>
       <c r="J280" s="1"/>
@@ -3184,7 +3495,7 @@
       <c r="W280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281">
+    <row r="281" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D281" s="1"/>
       <c r="G281" s="1"/>
       <c r="J281" s="1"/>
@@ -3194,7 +3505,7 @@
       <c r="W281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D282" s="1"/>
       <c r="G282" s="1"/>
       <c r="J282" s="1"/>
@@ -3204,7 +3515,7 @@
       <c r="W282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D283" s="1"/>
       <c r="G283" s="1"/>
       <c r="J283" s="1"/>
@@ -3214,7 +3525,7 @@
       <c r="W283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D284" s="1"/>
       <c r="G284" s="1"/>
       <c r="J284" s="1"/>
@@ -3224,7 +3535,7 @@
       <c r="W284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285">
+    <row r="285" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D285" s="1"/>
       <c r="G285" s="1"/>
       <c r="J285" s="1"/>
@@ -3234,7 +3545,7 @@
       <c r="W285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286">
+    <row r="286" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D286" s="1"/>
       <c r="G286" s="1"/>
       <c r="J286" s="1"/>
@@ -3244,7 +3555,7 @@
       <c r="W286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D287" s="1"/>
       <c r="G287" s="1"/>
       <c r="J287" s="1"/>
@@ -3254,7 +3565,7 @@
       <c r="W287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288">
+    <row r="288" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D288" s="1"/>
       <c r="G288" s="1"/>
       <c r="J288" s="1"/>
@@ -3264,7 +3575,7 @@
       <c r="W288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D289" s="1"/>
       <c r="G289" s="1"/>
       <c r="J289" s="1"/>
@@ -3274,7 +3585,7 @@
       <c r="W289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290">
+    <row r="290" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D290" s="1"/>
       <c r="G290" s="1"/>
       <c r="J290" s="1"/>
@@ -3284,7 +3595,7 @@
       <c r="W290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291">
+    <row r="291" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D291" s="1"/>
       <c r="G291" s="1"/>
       <c r="J291" s="1"/>
@@ -3294,7 +3605,7 @@
       <c r="W291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D292" s="1"/>
       <c r="G292" s="1"/>
       <c r="J292" s="1"/>
@@ -3304,7 +3615,7 @@
       <c r="W292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D293" s="1"/>
       <c r="G293" s="1"/>
       <c r="J293" s="1"/>
@@ -3314,7 +3625,7 @@
       <c r="W293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294">
+    <row r="294" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D294" s="1"/>
       <c r="G294" s="1"/>
       <c r="J294" s="1"/>
@@ -3324,7 +3635,7 @@
       <c r="W294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D295" s="1"/>
       <c r="G295" s="1"/>
       <c r="J295" s="1"/>
@@ -3334,7 +3645,7 @@
       <c r="W295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296">
+    <row r="296" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D296" s="1"/>
       <c r="G296" s="1"/>
       <c r="J296" s="1"/>
@@ -3344,7 +3655,7 @@
       <c r="W296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297">
+    <row r="297" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D297" s="1"/>
       <c r="G297" s="1"/>
       <c r="J297" s="1"/>
@@ -3354,7 +3665,7 @@
       <c r="W297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298">
+    <row r="298" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D298" s="1"/>
       <c r="G298" s="1"/>
       <c r="J298" s="1"/>
@@ -3364,7 +3675,7 @@
       <c r="W298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299">
+    <row r="299" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D299" s="1"/>
       <c r="G299" s="1"/>
       <c r="J299" s="1"/>
@@ -3374,7 +3685,7 @@
       <c r="W299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300">
+    <row r="300" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D300" s="1"/>
       <c r="G300" s="1"/>
       <c r="J300" s="1"/>
@@ -3384,7 +3695,7 @@
       <c r="W300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D301" s="1"/>
       <c r="G301" s="1"/>
       <c r="J301" s="1"/>
@@ -3394,7 +3705,7 @@
       <c r="W301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D302" s="1"/>
       <c r="G302" s="1"/>
       <c r="J302" s="1"/>
@@ -3404,7 +3715,7 @@
       <c r="W302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D303" s="1"/>
       <c r="G303" s="1"/>
       <c r="J303" s="1"/>
@@ -3414,7 +3725,7 @@
       <c r="W303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D304" s="1"/>
       <c r="G304" s="1"/>
       <c r="J304" s="1"/>
@@ -3424,7 +3735,7 @@
       <c r="W304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D305" s="1"/>
       <c r="G305" s="1"/>
       <c r="J305" s="1"/>
@@ -3434,7 +3745,7 @@
       <c r="W305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306">
+    <row r="306" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D306" s="1"/>
       <c r="G306" s="1"/>
       <c r="J306" s="1"/>
@@ -3444,7 +3755,7 @@
       <c r="W306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D307" s="1"/>
       <c r="G307" s="1"/>
       <c r="J307" s="1"/>
@@ -3454,7 +3765,7 @@
       <c r="W307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308">
+    <row r="308" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D308" s="1"/>
       <c r="G308" s="1"/>
       <c r="J308" s="1"/>
@@ -3464,7 +3775,7 @@
       <c r="W308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D309" s="1"/>
       <c r="G309" s="1"/>
       <c r="J309" s="1"/>
@@ -3474,7 +3785,7 @@
       <c r="W309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D310" s="1"/>
       <c r="G310" s="1"/>
       <c r="J310" s="1"/>
@@ -3484,7 +3795,7 @@
       <c r="W310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D311" s="1"/>
       <c r="G311" s="1"/>
       <c r="J311" s="1"/>
@@ -3494,7 +3805,7 @@
       <c r="W311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D312" s="1"/>
       <c r="G312" s="1"/>
       <c r="J312" s="1"/>
@@ -3504,7 +3815,7 @@
       <c r="W312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D313" s="1"/>
       <c r="G313" s="1"/>
       <c r="J313" s="1"/>
@@ -3514,7 +3825,7 @@
       <c r="W313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D314" s="1"/>
       <c r="G314" s="1"/>
       <c r="J314" s="1"/>
@@ -3524,7 +3835,7 @@
       <c r="W314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315">
+    <row r="315" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D315" s="1"/>
       <c r="G315" s="1"/>
       <c r="J315" s="1"/>
@@ -3534,7 +3845,7 @@
       <c r="W315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316">
+    <row r="316" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D316" s="1"/>
       <c r="G316" s="1"/>
       <c r="J316" s="1"/>
@@ -3544,7 +3855,7 @@
       <c r="W316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317">
+    <row r="317" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D317" s="1"/>
       <c r="G317" s="1"/>
       <c r="J317" s="1"/>
@@ -3554,7 +3865,7 @@
       <c r="W317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318">
+    <row r="318" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D318" s="1"/>
       <c r="G318" s="1"/>
       <c r="J318" s="1"/>
@@ -3564,7 +3875,7 @@
       <c r="W318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319">
+    <row r="319" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D319" s="1"/>
       <c r="G319" s="1"/>
       <c r="J319" s="1"/>
@@ -3574,7 +3885,7 @@
       <c r="W319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D320" s="1"/>
       <c r="G320" s="1"/>
       <c r="J320" s="1"/>
@@ -3584,7 +3895,7 @@
       <c r="W320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D321" s="1"/>
       <c r="G321" s="1"/>
       <c r="J321" s="1"/>
@@ -3594,7 +3905,7 @@
       <c r="W321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322">
+    <row r="322" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D322" s="1"/>
       <c r="G322" s="1"/>
       <c r="J322" s="1"/>
@@ -3604,7 +3915,7 @@
       <c r="W322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D323" s="1"/>
       <c r="G323" s="1"/>
       <c r="J323" s="1"/>
@@ -3614,7 +3925,7 @@
       <c r="W323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324">
+    <row r="324" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D324" s="1"/>
       <c r="G324" s="1"/>
       <c r="J324" s="1"/>
@@ -3624,7 +3935,7 @@
       <c r="W324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D325" s="1"/>
       <c r="G325" s="1"/>
       <c r="J325" s="1"/>
@@ -3634,7 +3945,7 @@
       <c r="W325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326">
+    <row r="326" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D326" s="1"/>
       <c r="G326" s="1"/>
       <c r="J326" s="1"/>
@@ -3644,7 +3955,7 @@
       <c r="W326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327">
+    <row r="327" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D327" s="1"/>
       <c r="G327" s="1"/>
       <c r="J327" s="1"/>
@@ -3654,7 +3965,7 @@
       <c r="W327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328">
+    <row r="328" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D328" s="1"/>
       <c r="G328" s="1"/>
       <c r="J328" s="1"/>
@@ -3664,7 +3975,7 @@
       <c r="W328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D329" s="1"/>
       <c r="G329" s="1"/>
       <c r="J329" s="1"/>
@@ -3674,7 +3985,7 @@
       <c r="W329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330">
+    <row r="330" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D330" s="1"/>
       <c r="G330" s="1"/>
       <c r="J330" s="1"/>
@@ -3684,7 +3995,7 @@
       <c r="W330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331">
+    <row r="331" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D331" s="1"/>
       <c r="G331" s="1"/>
       <c r="J331" s="1"/>
@@ -3694,7 +4005,7 @@
       <c r="W331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D332" s="1"/>
       <c r="G332" s="1"/>
       <c r="J332" s="1"/>
@@ -3704,7 +4015,7 @@
       <c r="W332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D333" s="1"/>
       <c r="G333" s="1"/>
       <c r="J333" s="1"/>
@@ -3714,7 +4025,7 @@
       <c r="W333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334">
+    <row r="334" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D334" s="1"/>
       <c r="G334" s="1"/>
       <c r="J334" s="1"/>
@@ -3724,7 +4035,7 @@
       <c r="W334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335">
+    <row r="335" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D335" s="1"/>
       <c r="G335" s="1"/>
       <c r="J335" s="1"/>
@@ -3734,7 +4045,7 @@
       <c r="W335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336">
+    <row r="336" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D336" s="1"/>
       <c r="G336" s="1"/>
       <c r="J336" s="1"/>
@@ -3744,7 +4055,7 @@
       <c r="W336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337">
+    <row r="337" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D337" s="1"/>
       <c r="G337" s="1"/>
       <c r="J337" s="1"/>
@@ -3754,7 +4065,7 @@
       <c r="W337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338">
+    <row r="338" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D338" s="1"/>
       <c r="G338" s="1"/>
       <c r="J338" s="1"/>
@@ -3764,7 +4075,7 @@
       <c r="W338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D339" s="1"/>
       <c r="G339" s="1"/>
       <c r="J339" s="1"/>
@@ -3774,7 +4085,7 @@
       <c r="W339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D340" s="1"/>
       <c r="G340" s="1"/>
       <c r="J340" s="1"/>
@@ -3784,7 +4095,7 @@
       <c r="W340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341">
+    <row r="341" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D341" s="1"/>
       <c r="G341" s="1"/>
       <c r="J341" s="1"/>
@@ -3794,7 +4105,7 @@
       <c r="W341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342">
+    <row r="342" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D342" s="1"/>
       <c r="G342" s="1"/>
       <c r="J342" s="1"/>
@@ -3804,7 +4115,7 @@
       <c r="W342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343">
+    <row r="343" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D343" s="1"/>
       <c r="G343" s="1"/>
       <c r="J343" s="1"/>
@@ -3814,7 +4125,7 @@
       <c r="W343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344">
+    <row r="344" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D344" s="1"/>
       <c r="G344" s="1"/>
       <c r="J344" s="1"/>
@@ -3824,7 +4135,7 @@
       <c r="W344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345">
+    <row r="345" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D345" s="1"/>
       <c r="G345" s="1"/>
       <c r="J345" s="1"/>
@@ -3834,7 +4145,7 @@
       <c r="W345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346">
+    <row r="346" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D346" s="1"/>
       <c r="G346" s="1"/>
       <c r="J346" s="1"/>
@@ -3844,7 +4155,7 @@
       <c r="W346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347">
+    <row r="347" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D347" s="1"/>
       <c r="G347" s="1"/>
       <c r="J347" s="1"/>
@@ -3854,7 +4165,7 @@
       <c r="W347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348">
+    <row r="348" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D348" s="1"/>
       <c r="G348" s="1"/>
       <c r="J348" s="1"/>
@@ -3864,7 +4175,7 @@
       <c r="W348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349">
+    <row r="349" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D349" s="1"/>
       <c r="G349" s="1"/>
       <c r="J349" s="1"/>
@@ -3874,7 +4185,7 @@
       <c r="W349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350">
+    <row r="350" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D350" s="1"/>
       <c r="G350" s="1"/>
       <c r="J350" s="1"/>
@@ -3884,7 +4195,7 @@
       <c r="W350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D351" s="1"/>
       <c r="G351" s="1"/>
       <c r="J351" s="1"/>
@@ -3894,7 +4205,7 @@
       <c r="W351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352">
+    <row r="352" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D352" s="1"/>
       <c r="G352" s="1"/>
       <c r="J352" s="1"/>
@@ -3904,7 +4215,7 @@
       <c r="W352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D353" s="1"/>
       <c r="G353" s="1"/>
       <c r="J353" s="1"/>
@@ -3914,7 +4225,7 @@
       <c r="W353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354">
+    <row r="354" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D354" s="1"/>
       <c r="G354" s="1"/>
       <c r="J354" s="1"/>
@@ -3924,7 +4235,7 @@
       <c r="W354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D355" s="1"/>
       <c r="G355" s="1"/>
       <c r="J355" s="1"/>
@@ -3934,7 +4245,7 @@
       <c r="W355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356">
+    <row r="356" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D356" s="1"/>
       <c r="G356" s="1"/>
       <c r="J356" s="1"/>
@@ -3944,7 +4255,7 @@
       <c r="W356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D357" s="1"/>
       <c r="G357" s="1"/>
       <c r="J357" s="1"/>
@@ -3954,7 +4265,7 @@
       <c r="W357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358">
+    <row r="358" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D358" s="1"/>
       <c r="G358" s="1"/>
       <c r="J358" s="1"/>
@@ -3964,7 +4275,7 @@
       <c r="W358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D359" s="1"/>
       <c r="G359" s="1"/>
       <c r="J359" s="1"/>
@@ -3974,7 +4285,7 @@
       <c r="W359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D360" s="1"/>
       <c r="G360" s="1"/>
       <c r="J360" s="1"/>
@@ -3984,7 +4295,7 @@
       <c r="W360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361">
+    <row r="361" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D361" s="1"/>
       <c r="G361" s="1"/>
       <c r="J361" s="1"/>
@@ -3994,7 +4305,7 @@
       <c r="W361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D362" s="1"/>
       <c r="G362" s="1"/>
       <c r="J362" s="1"/>
@@ -4004,7 +4315,7 @@
       <c r="W362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D363" s="1"/>
       <c r="G363" s="1"/>
       <c r="J363" s="1"/>
@@ -4014,7 +4325,7 @@
       <c r="W363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364">
+    <row r="364" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D364" s="1"/>
       <c r="G364" s="1"/>
       <c r="J364" s="1"/>
@@ -4024,7 +4335,7 @@
       <c r="W364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365">
+    <row r="365" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D365" s="1"/>
       <c r="G365" s="1"/>
       <c r="J365" s="1"/>
@@ -4034,7 +4345,7 @@
       <c r="W365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D366" s="1"/>
       <c r="G366" s="1"/>
       <c r="J366" s="1"/>
@@ -4044,7 +4355,7 @@
       <c r="W366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367">
+    <row r="367" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D367" s="1"/>
       <c r="G367" s="1"/>
       <c r="J367" s="1"/>
@@ -4054,7 +4365,7 @@
       <c r="W367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D368" s="1"/>
       <c r="G368" s="1"/>
       <c r="J368" s="1"/>
@@ -4064,7 +4375,7 @@
       <c r="W368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D369" s="1"/>
       <c r="G369" s="1"/>
       <c r="J369" s="1"/>
@@ -4074,7 +4385,7 @@
       <c r="W369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D370" s="1"/>
       <c r="G370" s="1"/>
       <c r="J370" s="1"/>
@@ -4084,7 +4395,7 @@
       <c r="W370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D371" s="1"/>
       <c r="G371" s="1"/>
       <c r="J371" s="1"/>
@@ -4094,7 +4405,7 @@
       <c r="W371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D372" s="1"/>
       <c r="G372" s="1"/>
       <c r="J372" s="1"/>
@@ -4104,7 +4415,7 @@
       <c r="W372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D373" s="1"/>
       <c r="G373" s="1"/>
       <c r="J373" s="1"/>
@@ -4114,7 +4425,7 @@
       <c r="W373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D374" s="1"/>
       <c r="G374" s="1"/>
       <c r="J374" s="1"/>
@@ -4124,7 +4435,7 @@
       <c r="W374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375">
+    <row r="375" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D375" s="1"/>
       <c r="G375" s="1"/>
       <c r="J375" s="1"/>
@@ -4134,7 +4445,7 @@
       <c r="W375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D376" s="1"/>
       <c r="G376" s="1"/>
       <c r="J376" s="1"/>
@@ -4144,7 +4455,7 @@
       <c r="W376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D377" s="1"/>
       <c r="G377" s="1"/>
       <c r="J377" s="1"/>
@@ -4154,7 +4465,7 @@
       <c r="W377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D378" s="1"/>
       <c r="G378" s="1"/>
       <c r="J378" s="1"/>
@@ -4164,7 +4475,7 @@
       <c r="W378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D379" s="1"/>
       <c r="G379" s="1"/>
       <c r="J379" s="1"/>
@@ -4174,7 +4485,7 @@
       <c r="W379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D380" s="1"/>
       <c r="G380" s="1"/>
       <c r="J380" s="1"/>
@@ -4184,7 +4495,7 @@
       <c r="W380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D381" s="1"/>
       <c r="G381" s="1"/>
       <c r="J381" s="1"/>
@@ -4194,7 +4505,7 @@
       <c r="W381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D382" s="1"/>
       <c r="G382" s="1"/>
       <c r="J382" s="1"/>
@@ -4204,7 +4515,7 @@
       <c r="W382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D383" s="1"/>
       <c r="G383" s="1"/>
       <c r="J383" s="1"/>
@@ -4214,7 +4525,7 @@
       <c r="W383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D384" s="1"/>
       <c r="G384" s="1"/>
       <c r="J384" s="1"/>
@@ -4224,7 +4535,7 @@
       <c r="W384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D385" s="1"/>
       <c r="G385" s="1"/>
       <c r="J385" s="1"/>
@@ -4234,7 +4545,7 @@
       <c r="W385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D386" s="1"/>
       <c r="G386" s="1"/>
       <c r="J386" s="1"/>
@@ -4244,7 +4555,7 @@
       <c r="W386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D387" s="1"/>
       <c r="G387" s="1"/>
       <c r="J387" s="1"/>
@@ -4254,7 +4565,7 @@
       <c r="W387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388">
+    <row r="388" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D388" s="1"/>
       <c r="G388" s="1"/>
       <c r="J388" s="1"/>
@@ -4264,7 +4575,7 @@
       <c r="W388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D389" s="1"/>
       <c r="G389" s="1"/>
       <c r="J389" s="1"/>
@@ -4274,7 +4585,7 @@
       <c r="W389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D390" s="1"/>
       <c r="G390" s="1"/>
       <c r="J390" s="1"/>
@@ -4284,7 +4595,7 @@
       <c r="W390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D391" s="1"/>
       <c r="G391" s="1"/>
       <c r="J391" s="1"/>
@@ -4294,7 +4605,7 @@
       <c r="W391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D392" s="1"/>
       <c r="G392" s="1"/>
       <c r="J392" s="1"/>
@@ -4304,7 +4615,7 @@
       <c r="W392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D393" s="1"/>
       <c r="G393" s="1"/>
       <c r="J393" s="1"/>
@@ -4314,7 +4625,7 @@
       <c r="W393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D394" s="1"/>
       <c r="G394" s="1"/>
       <c r="J394" s="1"/>
@@ -4324,7 +4635,7 @@
       <c r="W394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D395" s="1"/>
       <c r="G395" s="1"/>
       <c r="J395" s="1"/>
@@ -4334,7 +4645,7 @@
       <c r="W395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D396" s="1"/>
       <c r="G396" s="1"/>
       <c r="J396" s="1"/>
@@ -4344,7 +4655,7 @@
       <c r="W396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D397" s="1"/>
       <c r="G397" s="1"/>
       <c r="J397" s="1"/>
@@ -4354,7 +4665,7 @@
       <c r="W397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D398" s="1"/>
       <c r="G398" s="1"/>
       <c r="J398" s="1"/>
@@ -4364,7 +4675,7 @@
       <c r="W398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D399" s="1"/>
       <c r="G399" s="1"/>
       <c r="J399" s="1"/>
@@ -4374,7 +4685,7 @@
       <c r="W399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D400" s="1"/>
       <c r="G400" s="1"/>
       <c r="J400" s="1"/>
@@ -4384,7 +4695,7 @@
       <c r="W400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D401" s="1"/>
       <c r="G401" s="1"/>
       <c r="J401" s="1"/>
@@ -4394,7 +4705,7 @@
       <c r="W401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402">
+    <row r="402" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D402" s="1"/>
       <c r="G402" s="1"/>
       <c r="J402" s="1"/>
@@ -4404,7 +4715,7 @@
       <c r="W402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D403" s="1"/>
       <c r="G403" s="1"/>
       <c r="J403" s="1"/>
@@ -4414,7 +4725,7 @@
       <c r="W403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D404" s="1"/>
       <c r="G404" s="1"/>
       <c r="J404" s="1"/>
@@ -4424,7 +4735,7 @@
       <c r="W404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D405" s="1"/>
       <c r="G405" s="1"/>
       <c r="J405" s="1"/>
@@ -4434,7 +4745,7 @@
       <c r="W405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406">
+    <row r="406" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D406" s="1"/>
       <c r="G406" s="1"/>
       <c r="J406" s="1"/>
@@ -4444,7 +4755,7 @@
       <c r="W406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407">
+    <row r="407" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D407" s="1"/>
       <c r="G407" s="1"/>
       <c r="J407" s="1"/>
@@ -4454,7 +4765,7 @@
       <c r="W407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408">
+    <row r="408" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D408" s="1"/>
       <c r="G408" s="1"/>
       <c r="J408" s="1"/>
@@ -4464,7 +4775,7 @@
       <c r="W408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409">
+    <row r="409" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D409" s="1"/>
       <c r="G409" s="1"/>
       <c r="J409" s="1"/>
@@ -4474,7 +4785,7 @@
       <c r="W409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D410" s="1"/>
       <c r="G410" s="1"/>
       <c r="J410" s="1"/>
@@ -4484,7 +4795,7 @@
       <c r="W410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D411" s="1"/>
       <c r="G411" s="1"/>
       <c r="J411" s="1"/>
@@ -4494,7 +4805,7 @@
       <c r="W411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412">
+    <row r="412" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D412" s="1"/>
       <c r="G412" s="1"/>
       <c r="J412" s="1"/>
@@ -4504,7 +4815,7 @@
       <c r="W412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413">
+    <row r="413" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D413" s="1"/>
       <c r="G413" s="1"/>
       <c r="J413" s="1"/>
@@ -4514,7 +4825,7 @@
       <c r="W413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D414" s="1"/>
       <c r="G414" s="1"/>
       <c r="J414" s="1"/>
@@ -4524,7 +4835,7 @@
       <c r="W414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D415" s="1"/>
       <c r="G415" s="1"/>
       <c r="J415" s="1"/>
@@ -4534,7 +4845,7 @@
       <c r="W415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D416" s="1"/>
       <c r="G416" s="1"/>
       <c r="J416" s="1"/>
@@ -4544,7 +4855,7 @@
       <c r="W416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D417" s="1"/>
       <c r="G417" s="1"/>
       <c r="J417" s="1"/>
@@ -4554,7 +4865,7 @@
       <c r="W417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D418" s="1"/>
       <c r="G418" s="1"/>
       <c r="J418" s="1"/>
@@ -4564,7 +4875,7 @@
       <c r="W418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419">
+    <row r="419" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D419" s="1"/>
       <c r="G419" s="1"/>
       <c r="J419" s="1"/>
@@ -4574,7 +4885,7 @@
       <c r="W419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420">
+    <row r="420" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D420" s="1"/>
       <c r="G420" s="1"/>
       <c r="J420" s="1"/>
@@ -4584,7 +4895,7 @@
       <c r="W420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421">
+    <row r="421" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D421" s="1"/>
       <c r="G421" s="1"/>
       <c r="J421" s="1"/>
@@ -4594,7 +4905,7 @@
       <c r="W421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D422" s="1"/>
       <c r="G422" s="1"/>
       <c r="J422" s="1"/>
@@ -4604,7 +4915,7 @@
       <c r="W422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D423" s="1"/>
       <c r="G423" s="1"/>
       <c r="J423" s="1"/>
@@ -4614,7 +4925,7 @@
       <c r="W423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424">
+    <row r="424" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D424" s="1"/>
       <c r="G424" s="1"/>
       <c r="J424" s="1"/>
@@ -4624,7 +4935,7 @@
       <c r="W424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D425" s="1"/>
       <c r="G425" s="1"/>
       <c r="J425" s="1"/>
@@ -4634,7 +4945,7 @@
       <c r="W425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426">
+    <row r="426" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D426" s="1"/>
       <c r="G426" s="1"/>
       <c r="J426" s="1"/>
@@ -4644,7 +4955,7 @@
       <c r="W426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D427" s="1"/>
       <c r="G427" s="1"/>
       <c r="J427" s="1"/>
@@ -4654,7 +4965,7 @@
       <c r="W427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428">
+    <row r="428" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D428" s="1"/>
       <c r="G428" s="1"/>
       <c r="J428" s="1"/>
@@ -4664,7 +4975,7 @@
       <c r="W428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D429" s="1"/>
       <c r="G429" s="1"/>
       <c r="J429" s="1"/>
@@ -4674,7 +4985,7 @@
       <c r="W429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D430" s="1"/>
       <c r="G430" s="1"/>
       <c r="J430" s="1"/>
@@ -4684,7 +4995,7 @@
       <c r="W430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D431" s="1"/>
       <c r="G431" s="1"/>
       <c r="J431" s="1"/>
@@ -4694,7 +5005,7 @@
       <c r="W431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D432" s="1"/>
       <c r="G432" s="1"/>
       <c r="J432" s="1"/>
@@ -4704,7 +5015,7 @@
       <c r="W432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D433" s="1"/>
       <c r="G433" s="1"/>
       <c r="J433" s="1"/>
@@ -4714,7 +5025,7 @@
       <c r="W433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D434" s="1"/>
       <c r="G434" s="1"/>
       <c r="J434" s="1"/>
@@ -4724,7 +5035,7 @@
       <c r="W434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D435" s="1"/>
       <c r="G435" s="1"/>
       <c r="J435" s="1"/>
@@ -4734,7 +5045,7 @@
       <c r="W435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D436" s="1"/>
       <c r="G436" s="1"/>
       <c r="J436" s="1"/>
@@ -4744,7 +5055,7 @@
       <c r="W436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D437" s="1"/>
       <c r="G437" s="1"/>
       <c r="J437" s="1"/>
@@ -4754,7 +5065,7 @@
       <c r="W437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D438" s="1"/>
       <c r="G438" s="1"/>
       <c r="J438" s="1"/>
@@ -4764,7 +5075,7 @@
       <c r="W438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D439" s="1"/>
       <c r="G439" s="1"/>
       <c r="J439" s="1"/>
@@ -4774,7 +5085,7 @@
       <c r="W439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D440" s="1"/>
       <c r="G440" s="1"/>
       <c r="J440" s="1"/>
@@ -4784,7 +5095,7 @@
       <c r="W440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D441" s="1"/>
       <c r="G441" s="1"/>
       <c r="J441" s="1"/>
@@ -4794,7 +5105,7 @@
       <c r="W441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D442" s="1"/>
       <c r="G442" s="1"/>
       <c r="J442" s="1"/>
@@ -4804,7 +5115,7 @@
       <c r="W442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D443" s="1"/>
       <c r="G443" s="1"/>
       <c r="J443" s="1"/>
@@ -4814,7 +5125,7 @@
       <c r="W443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D444" s="1"/>
       <c r="G444" s="1"/>
       <c r="J444" s="1"/>
@@ -4824,7 +5135,7 @@
       <c r="W444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D445" s="1"/>
       <c r="G445" s="1"/>
       <c r="J445" s="1"/>
@@ -4834,7 +5145,7 @@
       <c r="W445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D446" s="1"/>
       <c r="G446" s="1"/>
       <c r="J446" s="1"/>
@@ -4844,7 +5155,7 @@
       <c r="W446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D447" s="1"/>
       <c r="G447" s="1"/>
       <c r="J447" s="1"/>
@@ -4854,7 +5165,7 @@
       <c r="W447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D448" s="1"/>
       <c r="G448" s="1"/>
       <c r="J448" s="1"/>
@@ -4864,7 +5175,7 @@
       <c r="W448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D449" s="1"/>
       <c r="G449" s="1"/>
       <c r="J449" s="1"/>
@@ -4874,7 +5185,7 @@
       <c r="W449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D450" s="1"/>
       <c r="G450" s="1"/>
       <c r="J450" s="1"/>
@@ -4884,7 +5195,7 @@
       <c r="W450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D451" s="1"/>
       <c r="G451" s="1"/>
       <c r="J451" s="1"/>
@@ -4894,7 +5205,7 @@
       <c r="W451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D452" s="1"/>
       <c r="G452" s="1"/>
       <c r="J452" s="1"/>
@@ -4904,7 +5215,7 @@
       <c r="W452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D453" s="1"/>
       <c r="G453" s="1"/>
       <c r="J453" s="1"/>
@@ -4914,7 +5225,7 @@
       <c r="W453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D454" s="1"/>
       <c r="G454" s="1"/>
       <c r="J454" s="1"/>
@@ -4924,7 +5235,7 @@
       <c r="W454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D455" s="1"/>
       <c r="G455" s="1"/>
       <c r="J455" s="1"/>
@@ -4934,7 +5245,7 @@
       <c r="W455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D456" s="1"/>
       <c r="G456" s="1"/>
       <c r="J456" s="1"/>
@@ -4944,7 +5255,7 @@
       <c r="W456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D457" s="1"/>
       <c r="G457" s="1"/>
       <c r="J457" s="1"/>
@@ -4954,7 +5265,7 @@
       <c r="W457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D458" s="1"/>
       <c r="G458" s="1"/>
       <c r="J458" s="1"/>
@@ -4964,7 +5275,7 @@
       <c r="W458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D459" s="1"/>
       <c r="G459" s="1"/>
       <c r="J459" s="1"/>
@@ -4974,7 +5285,7 @@
       <c r="W459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D460" s="1"/>
       <c r="G460" s="1"/>
       <c r="J460" s="1"/>
@@ -4984,7 +5295,7 @@
       <c r="W460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D461" s="1"/>
       <c r="G461" s="1"/>
       <c r="J461" s="1"/>
@@ -4994,7 +5305,7 @@
       <c r="W461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D462" s="1"/>
       <c r="G462" s="1"/>
       <c r="J462" s="1"/>
@@ -5004,7 +5315,7 @@
       <c r="W462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D463" s="1"/>
       <c r="G463" s="1"/>
       <c r="J463" s="1"/>
@@ -5014,7 +5325,7 @@
       <c r="W463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D464" s="1"/>
       <c r="G464" s="1"/>
       <c r="J464" s="1"/>
@@ -5024,7 +5335,7 @@
       <c r="W464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D465" s="1"/>
       <c r="G465" s="1"/>
       <c r="J465" s="1"/>
@@ -5034,7 +5345,7 @@
       <c r="W465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D466" s="1"/>
       <c r="G466" s="1"/>
       <c r="J466" s="1"/>
@@ -5044,7 +5355,7 @@
       <c r="W466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D467" s="1"/>
       <c r="G467" s="1"/>
       <c r="J467" s="1"/>
@@ -5054,7 +5365,7 @@
       <c r="W467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468">
+    <row r="468" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D468" s="1"/>
       <c r="G468" s="1"/>
       <c r="J468" s="1"/>
@@ -5064,7 +5375,7 @@
       <c r="W468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D469" s="1"/>
       <c r="G469" s="1"/>
       <c r="J469" s="1"/>
@@ -5074,7 +5385,7 @@
       <c r="W469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D470" s="1"/>
       <c r="G470" s="1"/>
       <c r="J470" s="1"/>
@@ -5084,7 +5395,7 @@
       <c r="W470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D471" s="1"/>
       <c r="G471" s="1"/>
       <c r="J471" s="1"/>
@@ -5094,7 +5405,7 @@
       <c r="W471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472">
+    <row r="472" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D472" s="1"/>
       <c r="G472" s="1"/>
       <c r="J472" s="1"/>
@@ -5104,7 +5415,7 @@
       <c r="W472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D473" s="1"/>
       <c r="G473" s="1"/>
       <c r="J473" s="1"/>
@@ -5114,7 +5425,7 @@
       <c r="W473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474">
+    <row r="474" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D474" s="1"/>
       <c r="G474" s="1"/>
       <c r="J474" s="1"/>
@@ -5124,7 +5435,7 @@
       <c r="W474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D475" s="1"/>
       <c r="G475" s="1"/>
       <c r="J475" s="1"/>
@@ -5134,7 +5445,7 @@
       <c r="W475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476">
+    <row r="476" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D476" s="1"/>
       <c r="G476" s="1"/>
       <c r="J476" s="1"/>
@@ -5144,7 +5455,7 @@
       <c r="W476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D477" s="1"/>
       <c r="G477" s="1"/>
       <c r="J477" s="1"/>
@@ -5154,7 +5465,7 @@
       <c r="W477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D478" s="1"/>
       <c r="G478" s="1"/>
       <c r="J478" s="1"/>
@@ -5164,7 +5475,7 @@
       <c r="W478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D479" s="1"/>
       <c r="G479" s="1"/>
       <c r="J479" s="1"/>
@@ -5174,7 +5485,7 @@
       <c r="W479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480">
+    <row r="480" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D480" s="1"/>
       <c r="G480" s="1"/>
       <c r="J480" s="1"/>
@@ -5184,7 +5495,7 @@
       <c r="W480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481">
+    <row r="481" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D481" s="1"/>
       <c r="G481" s="1"/>
       <c r="J481" s="1"/>
@@ -5194,7 +5505,7 @@
       <c r="W481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482">
+    <row r="482" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D482" s="1"/>
       <c r="G482" s="1"/>
       <c r="J482" s="1"/>
@@ -5204,7 +5515,7 @@
       <c r="W482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483">
+    <row r="483" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D483" s="1"/>
       <c r="G483" s="1"/>
       <c r="J483" s="1"/>
@@ -5214,7 +5525,7 @@
       <c r="W483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484">
+    <row r="484" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D484" s="1"/>
       <c r="G484" s="1"/>
       <c r="J484" s="1"/>
@@ -5224,7 +5535,7 @@
       <c r="W484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D485" s="1"/>
       <c r="G485" s="1"/>
       <c r="J485" s="1"/>
@@ -5234,7 +5545,7 @@
       <c r="W485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486">
+    <row r="486" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D486" s="1"/>
       <c r="G486" s="1"/>
       <c r="J486" s="1"/>
@@ -5244,7 +5555,7 @@
       <c r="W486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D487" s="1"/>
       <c r="G487" s="1"/>
       <c r="J487" s="1"/>
@@ -5254,7 +5565,7 @@
       <c r="W487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488">
+    <row r="488" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D488" s="1"/>
       <c r="G488" s="1"/>
       <c r="J488" s="1"/>
@@ -5264,7 +5575,7 @@
       <c r="W488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D489" s="1"/>
       <c r="G489" s="1"/>
       <c r="J489" s="1"/>
@@ -5274,7 +5585,7 @@
       <c r="W489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490">
+    <row r="490" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D490" s="1"/>
       <c r="G490" s="1"/>
       <c r="J490" s="1"/>
@@ -5284,7 +5595,7 @@
       <c r="W490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491">
+    <row r="491" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D491" s="1"/>
       <c r="G491" s="1"/>
       <c r="J491" s="1"/>
@@ -5294,7 +5605,7 @@
       <c r="W491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492">
+    <row r="492" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D492" s="1"/>
       <c r="G492" s="1"/>
       <c r="J492" s="1"/>
@@ -5304,7 +5615,7 @@
       <c r="W492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493">
+    <row r="493" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D493" s="1"/>
       <c r="G493" s="1"/>
       <c r="J493" s="1"/>
@@ -5314,7 +5625,7 @@
       <c r="W493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494">
+    <row r="494" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D494" s="1"/>
       <c r="G494" s="1"/>
       <c r="J494" s="1"/>
@@ -5324,7 +5635,7 @@
       <c r="W494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D495" s="1"/>
       <c r="G495" s="1"/>
       <c r="J495" s="1"/>
@@ -5334,7 +5645,7 @@
       <c r="W495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D496" s="1"/>
       <c r="G496" s="1"/>
       <c r="J496" s="1"/>
@@ -5344,7 +5655,7 @@
       <c r="W496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497">
+    <row r="497" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D497" s="1"/>
       <c r="G497" s="1"/>
       <c r="J497" s="1"/>
@@ -5354,7 +5665,7 @@
       <c r="W497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498">
+    <row r="498" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D498" s="1"/>
       <c r="G498" s="1"/>
       <c r="J498" s="1"/>
@@ -5364,7 +5675,7 @@
       <c r="W498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499">
+    <row r="499" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D499" s="1"/>
       <c r="G499" s="1"/>
       <c r="J499" s="1"/>
@@ -5374,7 +5685,7 @@
       <c r="W499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D500" s="1"/>
       <c r="G500" s="1"/>
       <c r="J500" s="1"/>
@@ -5384,7 +5695,7 @@
       <c r="W500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501">
+    <row r="501" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D501" s="1"/>
       <c r="G501" s="1"/>
       <c r="J501" s="1"/>
@@ -5394,7 +5705,7 @@
       <c r="W501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D502" s="1"/>
       <c r="G502" s="1"/>
       <c r="J502" s="1"/>
@@ -5404,7 +5715,7 @@
       <c r="W502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503">
+    <row r="503" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D503" s="1"/>
       <c r="G503" s="1"/>
       <c r="J503" s="1"/>
@@ -5414,7 +5725,7 @@
       <c r="W503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504">
+    <row r="504" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D504" s="1"/>
       <c r="G504" s="1"/>
       <c r="J504" s="1"/>
@@ -5424,7 +5735,7 @@
       <c r="W504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505">
+    <row r="505" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D505" s="1"/>
       <c r="G505" s="1"/>
       <c r="J505" s="1"/>
@@ -5434,7 +5745,7 @@
       <c r="W505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D506" s="1"/>
       <c r="G506" s="1"/>
       <c r="J506" s="1"/>
@@ -5444,7 +5755,7 @@
       <c r="W506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D507" s="1"/>
       <c r="G507" s="1"/>
       <c r="J507" s="1"/>
@@ -5454,7 +5765,7 @@
       <c r="W507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508">
+    <row r="508" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D508" s="1"/>
       <c r="G508" s="1"/>
       <c r="J508" s="1"/>
@@ -5464,7 +5775,7 @@
       <c r="W508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509">
+    <row r="509" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D509" s="1"/>
       <c r="G509" s="1"/>
       <c r="J509" s="1"/>
@@ -5474,7 +5785,7 @@
       <c r="W509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D510" s="1"/>
       <c r="G510" s="1"/>
       <c r="J510" s="1"/>
@@ -5484,7 +5795,7 @@
       <c r="W510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D511" s="1"/>
       <c r="G511" s="1"/>
       <c r="J511" s="1"/>
@@ -5494,7 +5805,7 @@
       <c r="W511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512">
+    <row r="512" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D512" s="1"/>
       <c r="G512" s="1"/>
       <c r="J512" s="1"/>
@@ -5504,7 +5815,7 @@
       <c r="W512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513">
+    <row r="513" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D513" s="1"/>
       <c r="G513" s="1"/>
       <c r="J513" s="1"/>
@@ -5514,7 +5825,7 @@
       <c r="W513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D514" s="1"/>
       <c r="G514" s="1"/>
       <c r="J514" s="1"/>
@@ -5524,7 +5835,7 @@
       <c r="W514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515">
+    <row r="515" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D515" s="1"/>
       <c r="G515" s="1"/>
       <c r="J515" s="1"/>
@@ -5534,7 +5845,7 @@
       <c r="W515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D516" s="1"/>
       <c r="G516" s="1"/>
       <c r="J516" s="1"/>
@@ -5544,7 +5855,7 @@
       <c r="W516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517">
+    <row r="517" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D517" s="1"/>
       <c r="G517" s="1"/>
       <c r="J517" s="1"/>
@@ -5554,7 +5865,7 @@
       <c r="W517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518">
+    <row r="518" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D518" s="1"/>
       <c r="G518" s="1"/>
       <c r="J518" s="1"/>
@@ -5564,7 +5875,7 @@
       <c r="W518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519">
+    <row r="519" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D519" s="1"/>
       <c r="G519" s="1"/>
       <c r="J519" s="1"/>
@@ -5574,7 +5885,7 @@
       <c r="W519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520">
+    <row r="520" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D520" s="1"/>
       <c r="G520" s="1"/>
       <c r="J520" s="1"/>
@@ -5584,7 +5895,7 @@
       <c r="W520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D521" s="1"/>
       <c r="G521" s="1"/>
       <c r="J521" s="1"/>
@@ -5594,7 +5905,7 @@
       <c r="W521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D522" s="1"/>
       <c r="G522" s="1"/>
       <c r="J522" s="1"/>
@@ -5604,7 +5915,7 @@
       <c r="W522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523">
+    <row r="523" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D523" s="1"/>
       <c r="G523" s="1"/>
       <c r="J523" s="1"/>
@@ -5614,7 +5925,7 @@
       <c r="W523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D524" s="1"/>
       <c r="G524" s="1"/>
       <c r="J524" s="1"/>
@@ -5624,7 +5935,7 @@
       <c r="W524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525">
+    <row r="525" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D525" s="1"/>
       <c r="G525" s="1"/>
       <c r="J525" s="1"/>
@@ -5634,7 +5945,7 @@
       <c r="W525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D526" s="1"/>
       <c r="G526" s="1"/>
       <c r="J526" s="1"/>
@@ -5644,7 +5955,7 @@
       <c r="W526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527">
+    <row r="527" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D527" s="1"/>
       <c r="G527" s="1"/>
       <c r="J527" s="1"/>
@@ -5654,7 +5965,7 @@
       <c r="W527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528">
+    <row r="528" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D528" s="1"/>
       <c r="G528" s="1"/>
       <c r="J528" s="1"/>
@@ -5664,7 +5975,7 @@
       <c r="W528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D529" s="1"/>
       <c r="G529" s="1"/>
       <c r="J529" s="1"/>
@@ -5674,7 +5985,7 @@
       <c r="W529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D530" s="1"/>
       <c r="G530" s="1"/>
       <c r="J530" s="1"/>
@@ -5684,7 +5995,7 @@
       <c r="W530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531">
+    <row r="531" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D531" s="1"/>
       <c r="G531" s="1"/>
       <c r="J531" s="1"/>
@@ -5694,7 +6005,7 @@
       <c r="W531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532">
+    <row r="532" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D532" s="1"/>
       <c r="G532" s="1"/>
       <c r="J532" s="1"/>
@@ -5704,7 +6015,7 @@
       <c r="W532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D533" s="1"/>
       <c r="G533" s="1"/>
       <c r="J533" s="1"/>
@@ -5714,7 +6025,7 @@
       <c r="W533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D534" s="1"/>
       <c r="G534" s="1"/>
       <c r="J534" s="1"/>
@@ -5724,7 +6035,7 @@
       <c r="W534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D535" s="1"/>
       <c r="G535" s="1"/>
       <c r="J535" s="1"/>
@@ -5734,7 +6045,7 @@
       <c r="W535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D536" s="1"/>
       <c r="G536" s="1"/>
       <c r="J536" s="1"/>
@@ -5744,7 +6055,7 @@
       <c r="W536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D537" s="1"/>
       <c r="G537" s="1"/>
       <c r="J537" s="1"/>
@@ -5754,7 +6065,7 @@
       <c r="W537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538">
+    <row r="538" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D538" s="1"/>
       <c r="G538" s="1"/>
       <c r="J538" s="1"/>
@@ -5764,7 +6075,7 @@
       <c r="W538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D539" s="1"/>
       <c r="G539" s="1"/>
       <c r="J539" s="1"/>
@@ -5774,7 +6085,7 @@
       <c r="W539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D540" s="1"/>
       <c r="G540" s="1"/>
       <c r="J540" s="1"/>
@@ -5784,7 +6095,7 @@
       <c r="W540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D541" s="1"/>
       <c r="G541" s="1"/>
       <c r="J541" s="1"/>
@@ -5794,7 +6105,7 @@
       <c r="W541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D542" s="1"/>
       <c r="G542" s="1"/>
       <c r="J542" s="1"/>
@@ -5804,7 +6115,7 @@
       <c r="W542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D543" s="1"/>
       <c r="G543" s="1"/>
       <c r="J543" s="1"/>
@@ -5814,7 +6125,7 @@
       <c r="W543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D544" s="1"/>
       <c r="G544" s="1"/>
       <c r="J544" s="1"/>
@@ -5824,7 +6135,7 @@
       <c r="W544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D545" s="1"/>
       <c r="G545" s="1"/>
       <c r="J545" s="1"/>
@@ -5834,7 +6145,7 @@
       <c r="W545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D546" s="1"/>
       <c r="G546" s="1"/>
       <c r="J546" s="1"/>
@@ -5844,7 +6155,7 @@
       <c r="W546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D547" s="1"/>
       <c r="G547" s="1"/>
       <c r="J547" s="1"/>
@@ -5854,7 +6165,7 @@
       <c r="W547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D548" s="1"/>
       <c r="G548" s="1"/>
       <c r="J548" s="1"/>
@@ -5864,7 +6175,7 @@
       <c r="W548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D549" s="1"/>
       <c r="G549" s="1"/>
       <c r="J549" s="1"/>
@@ -5874,7 +6185,7 @@
       <c r="W549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550">
+    <row r="550" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D550" s="1"/>
       <c r="G550" s="1"/>
       <c r="J550" s="1"/>
@@ -5884,7 +6195,7 @@
       <c r="W550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D551" s="1"/>
       <c r="G551" s="1"/>
       <c r="J551" s="1"/>
@@ -5894,7 +6205,7 @@
       <c r="W551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D552" s="1"/>
       <c r="G552" s="1"/>
       <c r="J552" s="1"/>
@@ -5904,7 +6215,7 @@
       <c r="W552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D553" s="1"/>
       <c r="G553" s="1"/>
       <c r="J553" s="1"/>
@@ -5914,7 +6225,7 @@
       <c r="W553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D554" s="1"/>
       <c r="G554" s="1"/>
       <c r="J554" s="1"/>
@@ -5924,7 +6235,7 @@
       <c r="W554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D555" s="1"/>
       <c r="G555" s="1"/>
       <c r="J555" s="1"/>
@@ -5934,7 +6245,7 @@
       <c r="W555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D556" s="1"/>
       <c r="G556" s="1"/>
       <c r="J556" s="1"/>
@@ -5944,7 +6255,7 @@
       <c r="W556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D557" s="1"/>
       <c r="G557" s="1"/>
       <c r="J557" s="1"/>
@@ -5954,7 +6265,7 @@
       <c r="W557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D558" s="1"/>
       <c r="G558" s="1"/>
       <c r="J558" s="1"/>
@@ -5964,7 +6275,7 @@
       <c r="W558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D559" s="1"/>
       <c r="G559" s="1"/>
       <c r="J559" s="1"/>
@@ -5974,7 +6285,7 @@
       <c r="W559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D560" s="1"/>
       <c r="G560" s="1"/>
       <c r="J560" s="1"/>
@@ -5984,7 +6295,7 @@
       <c r="W560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D561" s="1"/>
       <c r="G561" s="1"/>
       <c r="J561" s="1"/>
@@ -5994,7 +6305,7 @@
       <c r="W561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D562" s="1"/>
       <c r="G562" s="1"/>
       <c r="J562" s="1"/>
@@ -6004,7 +6315,7 @@
       <c r="W562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D563" s="1"/>
       <c r="G563" s="1"/>
       <c r="J563" s="1"/>
@@ -6014,7 +6325,7 @@
       <c r="W563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D564" s="1"/>
       <c r="G564" s="1"/>
       <c r="J564" s="1"/>
@@ -6024,7 +6335,7 @@
       <c r="W564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D565" s="1"/>
       <c r="G565" s="1"/>
       <c r="J565" s="1"/>
@@ -6034,7 +6345,7 @@
       <c r="W565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D566" s="1"/>
       <c r="G566" s="1"/>
       <c r="J566" s="1"/>
@@ -6044,7 +6355,7 @@
       <c r="W566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D567" s="1"/>
       <c r="G567" s="1"/>
       <c r="J567" s="1"/>
@@ -6054,7 +6365,7 @@
       <c r="W567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D568" s="1"/>
       <c r="G568" s="1"/>
       <c r="J568" s="1"/>
@@ -6064,7 +6375,7 @@
       <c r="W568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D569" s="1"/>
       <c r="G569" s="1"/>
       <c r="J569" s="1"/>
@@ -6074,7 +6385,7 @@
       <c r="W569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D570" s="1"/>
       <c r="G570" s="1"/>
       <c r="J570" s="1"/>
@@ -6084,7 +6395,7 @@
       <c r="W570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D571" s="1"/>
       <c r="G571" s="1"/>
       <c r="J571" s="1"/>
@@ -6094,7 +6405,7 @@
       <c r="W571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D572" s="1"/>
       <c r="G572" s="1"/>
       <c r="J572" s="1"/>
@@ -6104,7 +6415,7 @@
       <c r="W572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D573" s="1"/>
       <c r="G573" s="1"/>
       <c r="J573" s="1"/>
@@ -6114,7 +6425,7 @@
       <c r="W573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D574" s="1"/>
       <c r="G574" s="1"/>
       <c r="J574" s="1"/>
@@ -6124,7 +6435,7 @@
       <c r="W574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D575" s="1"/>
       <c r="G575" s="1"/>
       <c r="J575" s="1"/>
@@ -6134,7 +6445,7 @@
       <c r="W575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D576" s="1"/>
       <c r="G576" s="1"/>
       <c r="J576" s="1"/>
@@ -6144,7 +6455,7 @@
       <c r="W576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D577" s="1"/>
       <c r="G577" s="1"/>
       <c r="J577" s="1"/>
@@ -6154,7 +6465,7 @@
       <c r="W577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D578" s="1"/>
       <c r="G578" s="1"/>
       <c r="J578" s="1"/>
@@ -6164,7 +6475,7 @@
       <c r="W578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D579" s="1"/>
       <c r="G579" s="1"/>
       <c r="J579" s="1"/>
@@ -6174,7 +6485,7 @@
       <c r="W579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D580" s="1"/>
       <c r="G580" s="1"/>
       <c r="J580" s="1"/>
@@ -6184,7 +6495,7 @@
       <c r="W580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D581" s="1"/>
       <c r="G581" s="1"/>
       <c r="J581" s="1"/>
@@ -6194,7 +6505,7 @@
       <c r="W581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D582" s="1"/>
       <c r="G582" s="1"/>
       <c r="J582" s="1"/>
@@ -6204,7 +6515,7 @@
       <c r="W582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D583" s="1"/>
       <c r="G583" s="1"/>
       <c r="J583" s="1"/>
@@ -6214,7 +6525,7 @@
       <c r="W583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D584" s="1"/>
       <c r="G584" s="1"/>
       <c r="J584" s="1"/>
@@ -6224,7 +6535,7 @@
       <c r="W584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D585" s="1"/>
       <c r="G585" s="1"/>
       <c r="J585" s="1"/>
@@ -6234,7 +6545,7 @@
       <c r="W585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D586" s="1"/>
       <c r="G586" s="1"/>
       <c r="J586" s="1"/>
@@ -6244,7 +6555,7 @@
       <c r="W586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D587" s="1"/>
       <c r="G587" s="1"/>
       <c r="J587" s="1"/>
@@ -6254,7 +6565,7 @@
       <c r="W587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D588" s="1"/>
       <c r="G588" s="1"/>
       <c r="J588" s="1"/>
@@ -6264,7 +6575,7 @@
       <c r="W588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D589" s="1"/>
       <c r="G589" s="1"/>
       <c r="J589" s="1"/>
@@ -6274,7 +6585,7 @@
       <c r="W589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D590" s="1"/>
       <c r="G590" s="1"/>
       <c r="J590" s="1"/>
@@ -6284,7 +6595,7 @@
       <c r="W590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D591" s="1"/>
       <c r="G591" s="1"/>
       <c r="J591" s="1"/>
@@ -6294,7 +6605,7 @@
       <c r="W591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D592" s="1"/>
       <c r="G592" s="1"/>
       <c r="J592" s="1"/>
@@ -6304,7 +6615,7 @@
       <c r="W592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D593" s="1"/>
       <c r="G593" s="1"/>
       <c r="J593" s="1"/>
@@ -6314,7 +6625,7 @@
       <c r="W593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D594" s="1"/>
       <c r="G594" s="1"/>
       <c r="J594" s="1"/>
@@ -6324,7 +6635,7 @@
       <c r="W594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D595" s="1"/>
       <c r="G595" s="1"/>
       <c r="J595" s="1"/>
@@ -6334,7 +6645,7 @@
       <c r="W595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D596" s="1"/>
       <c r="G596" s="1"/>
       <c r="J596" s="1"/>
@@ -6344,7 +6655,7 @@
       <c r="W596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D597" s="1"/>
       <c r="G597" s="1"/>
       <c r="J597" s="1"/>
@@ -6354,7 +6665,7 @@
       <c r="W597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D598" s="1"/>
       <c r="G598" s="1"/>
       <c r="J598" s="1"/>
@@ -6364,7 +6675,7 @@
       <c r="W598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D599" s="1"/>
       <c r="G599" s="1"/>
       <c r="J599" s="1"/>
@@ -6374,7 +6685,7 @@
       <c r="W599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D600" s="1"/>
       <c r="G600" s="1"/>
       <c r="J600" s="1"/>
@@ -6384,7 +6695,7 @@
       <c r="W600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D601" s="1"/>
       <c r="G601" s="1"/>
       <c r="J601" s="1"/>
@@ -6394,7 +6705,7 @@
       <c r="W601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D602" s="1"/>
       <c r="G602" s="1"/>
       <c r="J602" s="1"/>
@@ -6404,7 +6715,7 @@
       <c r="W602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D603" s="1"/>
       <c r="G603" s="1"/>
       <c r="J603" s="1"/>
@@ -6414,7 +6725,7 @@
       <c r="W603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D604" s="1"/>
       <c r="G604" s="1"/>
       <c r="J604" s="1"/>
@@ -6424,7 +6735,7 @@
       <c r="W604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D605" s="1"/>
       <c r="G605" s="1"/>
       <c r="J605" s="1"/>
@@ -6434,7 +6745,7 @@
       <c r="W605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D606" s="1"/>
       <c r="G606" s="1"/>
       <c r="J606" s="1"/>
@@ -6444,7 +6755,7 @@
       <c r="W606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607">
+    <row r="607" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D607" s="1"/>
       <c r="G607" s="1"/>
       <c r="J607" s="1"/>
@@ -6454,7 +6765,7 @@
       <c r="W607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608">
+    <row r="608" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D608" s="1"/>
       <c r="G608" s="1"/>
       <c r="J608" s="1"/>
@@ -6464,7 +6775,7 @@
       <c r="W608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D609" s="1"/>
       <c r="G609" s="1"/>
       <c r="J609" s="1"/>
@@ -6474,7 +6785,7 @@
       <c r="W609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D610" s="1"/>
       <c r="G610" s="1"/>
       <c r="J610" s="1"/>
@@ -6484,7 +6795,7 @@
       <c r="W610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611">
+    <row r="611" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D611" s="1"/>
       <c r="G611" s="1"/>
       <c r="J611" s="1"/>
@@ -6494,7 +6805,7 @@
       <c r="W611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D612" s="1"/>
       <c r="G612" s="1"/>
       <c r="J612" s="1"/>
@@ -6504,7 +6815,7 @@
       <c r="W612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613">
+    <row r="613" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D613" s="1"/>
       <c r="G613" s="1"/>
       <c r="J613" s="1"/>
@@ -6514,7 +6825,7 @@
       <c r="W613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D614" s="1"/>
       <c r="G614" s="1"/>
       <c r="J614" s="1"/>
@@ -6524,7 +6835,7 @@
       <c r="W614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615">
+    <row r="615" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D615" s="1"/>
       <c r="G615" s="1"/>
       <c r="J615" s="1"/>
@@ -6534,7 +6845,7 @@
       <c r="W615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D616" s="1"/>
       <c r="G616" s="1"/>
       <c r="J616" s="1"/>
@@ -6544,7 +6855,7 @@
       <c r="W616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D617" s="1"/>
       <c r="G617" s="1"/>
       <c r="J617" s="1"/>
@@ -6554,7 +6865,7 @@
       <c r="W617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D618" s="1"/>
       <c r="G618" s="1"/>
       <c r="J618" s="1"/>
@@ -6564,7 +6875,7 @@
       <c r="W618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D619" s="1"/>
       <c r="G619" s="1"/>
       <c r="J619" s="1"/>
@@ -6574,7 +6885,7 @@
       <c r="W619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D620" s="1"/>
       <c r="G620" s="1"/>
       <c r="J620" s="1"/>
@@ -6584,7 +6895,7 @@
       <c r="W620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D621" s="1"/>
       <c r="G621" s="1"/>
       <c r="J621" s="1"/>
@@ -6594,7 +6905,7 @@
       <c r="W621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622">
+    <row r="622" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D622" s="1"/>
       <c r="G622" s="1"/>
       <c r="J622" s="1"/>
@@ -6604,7 +6915,7 @@
       <c r="W622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D623" s="1"/>
       <c r="G623" s="1"/>
       <c r="J623" s="1"/>
@@ -6614,7 +6925,7 @@
       <c r="W623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D624" s="1"/>
       <c r="G624" s="1"/>
       <c r="J624" s="1"/>
@@ -6624,7 +6935,7 @@
       <c r="W624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D625" s="1"/>
       <c r="G625" s="1"/>
       <c r="J625" s="1"/>
@@ -6634,7 +6945,7 @@
       <c r="W625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D626" s="1"/>
       <c r="G626" s="1"/>
       <c r="J626" s="1"/>
@@ -6644,7 +6955,7 @@
       <c r="W626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D627" s="1"/>
       <c r="G627" s="1"/>
       <c r="J627" s="1"/>
@@ -6654,7 +6965,7 @@
       <c r="W627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D628" s="1"/>
       <c r="G628" s="1"/>
       <c r="J628" s="1"/>
@@ -6664,7 +6975,7 @@
       <c r="W628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629">
+    <row r="629" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D629" s="1"/>
       <c r="G629" s="1"/>
       <c r="J629" s="1"/>
@@ -6674,7 +6985,7 @@
       <c r="W629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D630" s="1"/>
       <c r="G630" s="1"/>
       <c r="J630" s="1"/>
@@ -6684,7 +6995,7 @@
       <c r="W630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D631" s="1"/>
       <c r="G631" s="1"/>
       <c r="J631" s="1"/>
@@ -6694,7 +7005,7 @@
       <c r="W631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D632" s="1"/>
       <c r="G632" s="1"/>
       <c r="J632" s="1"/>
@@ -6704,7 +7015,7 @@
       <c r="W632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D633" s="1"/>
       <c r="G633" s="1"/>
       <c r="J633" s="1"/>
@@ -6714,7 +7025,7 @@
       <c r="W633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D634" s="1"/>
       <c r="G634" s="1"/>
       <c r="J634" s="1"/>
@@ -6724,7 +7035,7 @@
       <c r="W634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D635" s="1"/>
       <c r="G635" s="1"/>
       <c r="J635" s="1"/>
@@ -6734,7 +7045,7 @@
       <c r="W635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D636" s="1"/>
       <c r="G636" s="1"/>
       <c r="J636" s="1"/>
@@ -6744,7 +7055,7 @@
       <c r="W636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D637" s="1"/>
       <c r="G637" s="1"/>
       <c r="J637" s="1"/>
@@ -6754,7 +7065,7 @@
       <c r="W637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D638" s="1"/>
       <c r="G638" s="1"/>
       <c r="J638" s="1"/>
@@ -6764,7 +7075,7 @@
       <c r="W638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D639" s="1"/>
       <c r="G639" s="1"/>
       <c r="J639" s="1"/>
@@ -6774,7 +7085,7 @@
       <c r="W639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D640" s="1"/>
       <c r="G640" s="1"/>
       <c r="J640" s="1"/>
@@ -6784,7 +7095,7 @@
       <c r="W640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D641" s="1"/>
       <c r="G641" s="1"/>
       <c r="J641" s="1"/>
@@ -6794,7 +7105,7 @@
       <c r="W641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D642" s="1"/>
       <c r="G642" s="1"/>
       <c r="J642" s="1"/>
@@ -6804,7 +7115,7 @@
       <c r="W642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D643" s="1"/>
       <c r="G643" s="1"/>
       <c r="J643" s="1"/>
@@ -6814,7 +7125,7 @@
       <c r="W643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D644" s="1"/>
       <c r="G644" s="1"/>
       <c r="J644" s="1"/>
@@ -6824,7 +7135,7 @@
       <c r="W644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D645" s="1"/>
       <c r="G645" s="1"/>
       <c r="J645" s="1"/>
@@ -6834,7 +7145,7 @@
       <c r="W645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D646" s="1"/>
       <c r="G646" s="1"/>
       <c r="J646" s="1"/>
@@ -6844,7 +7155,7 @@
       <c r="W646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D647" s="1"/>
       <c r="G647" s="1"/>
       <c r="J647" s="1"/>
@@ -6854,7 +7165,7 @@
       <c r="W647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D648" s="1"/>
       <c r="G648" s="1"/>
       <c r="J648" s="1"/>
@@ -6864,7 +7175,7 @@
       <c r="W648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D649" s="1"/>
       <c r="G649" s="1"/>
       <c r="J649" s="1"/>
@@ -6874,7 +7185,7 @@
       <c r="W649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D650" s="1"/>
       <c r="G650" s="1"/>
       <c r="J650" s="1"/>
@@ -6884,7 +7195,7 @@
       <c r="W650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D651" s="1"/>
       <c r="G651" s="1"/>
       <c r="J651" s="1"/>
@@ -6894,7 +7205,7 @@
       <c r="W651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D652" s="1"/>
       <c r="G652" s="1"/>
       <c r="J652" s="1"/>
@@ -6904,7 +7215,7 @@
       <c r="W652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653">
+    <row r="653" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D653" s="1"/>
       <c r="G653" s="1"/>
       <c r="J653" s="1"/>
@@ -6914,7 +7225,7 @@
       <c r="W653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D654" s="1"/>
       <c r="G654" s="1"/>
       <c r="J654" s="1"/>
@@ -6924,7 +7235,7 @@
       <c r="W654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D655" s="1"/>
       <c r="G655" s="1"/>
       <c r="J655" s="1"/>
@@ -6934,7 +7245,7 @@
       <c r="W655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D656" s="1"/>
       <c r="G656" s="1"/>
       <c r="J656" s="1"/>
@@ -6944,7 +7255,7 @@
       <c r="W656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D657" s="1"/>
       <c r="G657" s="1"/>
       <c r="J657" s="1"/>
@@ -6954,7 +7265,7 @@
       <c r="W657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D658" s="1"/>
       <c r="G658" s="1"/>
       <c r="J658" s="1"/>
@@ -6964,7 +7275,7 @@
       <c r="W658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D659" s="1"/>
       <c r="G659" s="1"/>
       <c r="J659" s="1"/>
@@ -6974,7 +7285,7 @@
       <c r="W659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D660" s="1"/>
       <c r="G660" s="1"/>
       <c r="J660" s="1"/>
@@ -6984,7 +7295,7 @@
       <c r="W660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D661" s="1"/>
       <c r="G661" s="1"/>
       <c r="J661" s="1"/>
@@ -6994,7 +7305,7 @@
       <c r="W661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D662" s="1"/>
       <c r="G662" s="1"/>
       <c r="J662" s="1"/>
@@ -7004,7 +7315,7 @@
       <c r="W662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D663" s="1"/>
       <c r="G663" s="1"/>
       <c r="J663" s="1"/>
@@ -7014,7 +7325,7 @@
       <c r="W663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D664" s="1"/>
       <c r="G664" s="1"/>
       <c r="J664" s="1"/>
@@ -7024,7 +7335,7 @@
       <c r="W664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D665" s="1"/>
       <c r="G665" s="1"/>
       <c r="J665" s="1"/>
@@ -7034,7 +7345,7 @@
       <c r="W665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D666" s="1"/>
       <c r="G666" s="1"/>
       <c r="J666" s="1"/>
@@ -7044,7 +7355,7 @@
       <c r="W666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D667" s="1"/>
       <c r="G667" s="1"/>
       <c r="J667" s="1"/>
@@ -7054,7 +7365,7 @@
       <c r="W667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D668" s="1"/>
       <c r="G668" s="1"/>
       <c r="J668" s="1"/>
@@ -7064,7 +7375,7 @@
       <c r="W668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D669" s="1"/>
       <c r="G669" s="1"/>
       <c r="J669" s="1"/>
@@ -7074,7 +7385,7 @@
       <c r="W669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D670" s="1"/>
       <c r="G670" s="1"/>
       <c r="J670" s="1"/>
@@ -7084,7 +7395,7 @@
       <c r="W670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D671" s="1"/>
       <c r="G671" s="1"/>
       <c r="J671" s="1"/>
@@ -7094,7 +7405,7 @@
       <c r="W671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D672" s="1"/>
       <c r="G672" s="1"/>
       <c r="J672" s="1"/>
@@ -7104,7 +7415,7 @@
       <c r="W672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D673" s="1"/>
       <c r="G673" s="1"/>
       <c r="J673" s="1"/>
@@ -7114,7 +7425,7 @@
       <c r="W673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D674" s="1"/>
       <c r="G674" s="1"/>
       <c r="J674" s="1"/>
@@ -7124,7 +7435,7 @@
       <c r="W674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D675" s="1"/>
       <c r="G675" s="1"/>
       <c r="J675" s="1"/>
@@ -7134,7 +7445,7 @@
       <c r="W675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D676" s="1"/>
       <c r="G676" s="1"/>
       <c r="J676" s="1"/>
@@ -7144,7 +7455,7 @@
       <c r="W676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D677" s="1"/>
       <c r="G677" s="1"/>
       <c r="J677" s="1"/>
@@ -7154,7 +7465,7 @@
       <c r="W677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D678" s="1"/>
       <c r="G678" s="1"/>
       <c r="J678" s="1"/>
@@ -7164,7 +7475,7 @@
       <c r="W678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D679" s="1"/>
       <c r="G679" s="1"/>
       <c r="J679" s="1"/>
@@ -7174,7 +7485,7 @@
       <c r="W679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D680" s="1"/>
       <c r="G680" s="1"/>
       <c r="J680" s="1"/>
@@ -7184,7 +7495,7 @@
       <c r="W680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D681" s="1"/>
       <c r="G681" s="1"/>
       <c r="J681" s="1"/>
@@ -7194,7 +7505,7 @@
       <c r="W681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D682" s="1"/>
       <c r="G682" s="1"/>
       <c r="J682" s="1"/>
@@ -7204,7 +7515,7 @@
       <c r="W682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D683" s="1"/>
       <c r="G683" s="1"/>
       <c r="J683" s="1"/>
@@ -7214,7 +7525,7 @@
       <c r="W683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D684" s="1"/>
       <c r="G684" s="1"/>
       <c r="J684" s="1"/>
@@ -7224,7 +7535,7 @@
       <c r="W684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D685" s="1"/>
       <c r="G685" s="1"/>
       <c r="J685" s="1"/>
@@ -7234,7 +7545,7 @@
       <c r="W685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D686" s="1"/>
       <c r="G686" s="1"/>
       <c r="J686" s="1"/>
@@ -7244,7 +7555,7 @@
       <c r="W686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D687" s="1"/>
       <c r="G687" s="1"/>
       <c r="J687" s="1"/>
@@ -7254,7 +7565,7 @@
       <c r="W687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D688" s="1"/>
       <c r="G688" s="1"/>
       <c r="J688" s="1"/>
@@ -7264,7 +7575,7 @@
       <c r="W688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D689" s="1"/>
       <c r="G689" s="1"/>
       <c r="J689" s="1"/>
@@ -7274,7 +7585,7 @@
       <c r="W689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D690" s="1"/>
       <c r="G690" s="1"/>
       <c r="J690" s="1"/>
@@ -7284,7 +7595,7 @@
       <c r="W690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691">
+    <row r="691" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D691" s="1"/>
       <c r="G691" s="1"/>
       <c r="J691" s="1"/>
@@ -7294,7 +7605,7 @@
       <c r="W691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D692" s="1"/>
       <c r="G692" s="1"/>
       <c r="J692" s="1"/>
@@ -7304,7 +7615,7 @@
       <c r="W692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D693" s="1"/>
       <c r="G693" s="1"/>
       <c r="J693" s="1"/>
@@ -7314,7 +7625,7 @@
       <c r="W693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D694" s="1"/>
       <c r="G694" s="1"/>
       <c r="J694" s="1"/>
@@ -7324,7 +7635,7 @@
       <c r="W694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D695" s="1"/>
       <c r="G695" s="1"/>
       <c r="J695" s="1"/>
@@ -7334,7 +7645,7 @@
       <c r="W695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D696" s="1"/>
       <c r="G696" s="1"/>
       <c r="J696" s="1"/>
@@ -7344,7 +7655,7 @@
       <c r="W696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D697" s="1"/>
       <c r="G697" s="1"/>
       <c r="J697" s="1"/>
@@ -7354,7 +7665,7 @@
       <c r="W697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D698" s="1"/>
       <c r="G698" s="1"/>
       <c r="J698" s="1"/>
@@ -7364,7 +7675,7 @@
       <c r="W698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D699" s="1"/>
       <c r="G699" s="1"/>
       <c r="J699" s="1"/>
@@ -7374,7 +7685,7 @@
       <c r="W699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D700" s="1"/>
       <c r="G700" s="1"/>
       <c r="J700" s="1"/>
@@ -7384,7 +7695,7 @@
       <c r="W700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D701" s="1"/>
       <c r="G701" s="1"/>
       <c r="J701" s="1"/>
@@ -7394,7 +7705,7 @@
       <c r="W701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D702" s="1"/>
       <c r="G702" s="1"/>
       <c r="J702" s="1"/>
@@ -7404,7 +7715,7 @@
       <c r="W702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D703" s="1"/>
       <c r="G703" s="1"/>
       <c r="J703" s="1"/>
@@ -7414,7 +7725,7 @@
       <c r="W703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D704" s="1"/>
       <c r="G704" s="1"/>
       <c r="J704" s="1"/>
@@ -7424,7 +7735,7 @@
       <c r="W704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D705" s="1"/>
       <c r="G705" s="1"/>
       <c r="J705" s="1"/>
@@ -7434,7 +7745,7 @@
       <c r="W705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D706" s="1"/>
       <c r="G706" s="1"/>
       <c r="J706" s="1"/>
@@ -7444,7 +7755,7 @@
       <c r="W706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D707" s="1"/>
       <c r="G707" s="1"/>
       <c r="J707" s="1"/>
@@ -7454,7 +7765,7 @@
       <c r="W707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D708" s="1"/>
       <c r="G708" s="1"/>
       <c r="J708" s="1"/>
@@ -7464,7 +7775,7 @@
       <c r="W708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D709" s="1"/>
       <c r="G709" s="1"/>
       <c r="J709" s="1"/>
@@ -7474,7 +7785,7 @@
       <c r="W709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D710" s="1"/>
       <c r="G710" s="1"/>
       <c r="J710" s="1"/>
@@ -7484,7 +7795,7 @@
       <c r="W710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D711" s="1"/>
       <c r="G711" s="1"/>
       <c r="J711" s="1"/>
@@ -7494,7 +7805,7 @@
       <c r="W711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D712" s="1"/>
       <c r="G712" s="1"/>
       <c r="J712" s="1"/>
@@ -7504,7 +7815,7 @@
       <c r="W712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713">
+    <row r="713" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D713" s="1"/>
       <c r="G713" s="1"/>
       <c r="J713" s="1"/>
@@ -7514,7 +7825,7 @@
       <c r="W713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D714" s="1"/>
       <c r="G714" s="1"/>
       <c r="J714" s="1"/>
@@ -7524,7 +7835,7 @@
       <c r="W714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D715" s="1"/>
       <c r="G715" s="1"/>
       <c r="J715" s="1"/>
@@ -7534,7 +7845,7 @@
       <c r="W715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D716" s="1"/>
       <c r="G716" s="1"/>
       <c r="J716" s="1"/>
@@ -7544,7 +7855,7 @@
       <c r="W716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D717" s="1"/>
       <c r="G717" s="1"/>
       <c r="J717" s="1"/>
@@ -7554,7 +7865,7 @@
       <c r="W717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D718" s="1"/>
       <c r="G718" s="1"/>
       <c r="J718" s="1"/>
@@ -7564,7 +7875,7 @@
       <c r="W718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D719" s="1"/>
       <c r="G719" s="1"/>
       <c r="J719" s="1"/>
@@ -7574,7 +7885,7 @@
       <c r="W719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D720" s="1"/>
       <c r="G720" s="1"/>
       <c r="J720" s="1"/>
@@ -7584,7 +7895,7 @@
       <c r="W720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D721" s="1"/>
       <c r="G721" s="1"/>
       <c r="J721" s="1"/>
@@ -7594,7 +7905,7 @@
       <c r="W721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D722" s="1"/>
       <c r="G722" s="1"/>
       <c r="J722" s="1"/>
@@ -7604,7 +7915,7 @@
       <c r="W722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D723" s="1"/>
       <c r="G723" s="1"/>
       <c r="J723" s="1"/>
@@ -7614,7 +7925,7 @@
       <c r="W723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D724" s="1"/>
       <c r="G724" s="1"/>
       <c r="J724" s="1"/>
@@ -7624,7 +7935,7 @@
       <c r="W724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725">
+    <row r="725" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D725" s="1"/>
       <c r="G725" s="1"/>
       <c r="J725" s="1"/>
@@ -7634,7 +7945,7 @@
       <c r="W725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D726" s="1"/>
       <c r="G726" s="1"/>
       <c r="J726" s="1"/>
@@ -7644,7 +7955,7 @@
       <c r="W726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D727" s="1"/>
       <c r="G727" s="1"/>
       <c r="J727" s="1"/>
@@ -7654,7 +7965,7 @@
       <c r="W727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D728" s="1"/>
       <c r="G728" s="1"/>
       <c r="J728" s="1"/>
@@ -7664,7 +7975,7 @@
       <c r="W728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D729" s="1"/>
       <c r="G729" s="1"/>
       <c r="J729" s="1"/>
@@ -7674,7 +7985,7 @@
       <c r="W729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D730" s="1"/>
       <c r="G730" s="1"/>
       <c r="J730" s="1"/>
@@ -7684,7 +7995,7 @@
       <c r="W730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D731" s="1"/>
       <c r="G731" s="1"/>
       <c r="J731" s="1"/>
@@ -7694,7 +8005,7 @@
       <c r="W731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D732" s="1"/>
       <c r="G732" s="1"/>
       <c r="J732" s="1"/>
@@ -7704,7 +8015,7 @@
       <c r="W732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D733" s="1"/>
       <c r="G733" s="1"/>
       <c r="J733" s="1"/>
@@ -7714,7 +8025,7 @@
       <c r="W733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D734" s="1"/>
       <c r="G734" s="1"/>
       <c r="J734" s="1"/>
@@ -7724,7 +8035,7 @@
       <c r="W734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735">
+    <row r="735" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D735" s="1"/>
       <c r="G735" s="1"/>
       <c r="J735" s="1"/>
@@ -7734,7 +8045,7 @@
       <c r="W735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D736" s="1"/>
       <c r="G736" s="1"/>
       <c r="J736" s="1"/>
@@ -7744,7 +8055,7 @@
       <c r="W736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D737" s="1"/>
       <c r="G737" s="1"/>
       <c r="J737" s="1"/>
@@ -7754,7 +8065,7 @@
       <c r="W737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738">
+    <row r="738" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D738" s="1"/>
       <c r="G738" s="1"/>
       <c r="J738" s="1"/>
@@ -7764,7 +8075,7 @@
       <c r="W738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739">
+    <row r="739" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D739" s="1"/>
       <c r="G739" s="1"/>
       <c r="J739" s="1"/>
@@ -7774,7 +8085,7 @@
       <c r="W739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740">
+    <row r="740" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D740" s="1"/>
       <c r="G740" s="1"/>
       <c r="J740" s="1"/>
@@ -7784,7 +8095,7 @@
       <c r="W740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741">
+    <row r="741" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D741" s="1"/>
       <c r="G741" s="1"/>
       <c r="J741" s="1"/>
@@ -7794,7 +8105,7 @@
       <c r="W741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742">
+    <row r="742" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D742" s="1"/>
       <c r="G742" s="1"/>
       <c r="J742" s="1"/>
@@ -7804,7 +8115,7 @@
       <c r="W742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743">
+    <row r="743" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D743" s="1"/>
       <c r="G743" s="1"/>
       <c r="J743" s="1"/>
@@ -7814,7 +8125,7 @@
       <c r="W743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744">
+    <row r="744" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D744" s="1"/>
       <c r="G744" s="1"/>
       <c r="J744" s="1"/>
@@ -7824,7 +8135,7 @@
       <c r="W744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745">
+    <row r="745" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D745" s="1"/>
       <c r="G745" s="1"/>
       <c r="J745" s="1"/>
@@ -7834,7 +8145,7 @@
       <c r="W745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746">
+    <row r="746" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D746" s="1"/>
       <c r="G746" s="1"/>
       <c r="J746" s="1"/>
@@ -7844,7 +8155,7 @@
       <c r="W746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747">
+    <row r="747" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D747" s="1"/>
       <c r="G747" s="1"/>
       <c r="J747" s="1"/>
@@ -7854,7 +8165,7 @@
       <c r="W747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748">
+    <row r="748" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D748" s="1"/>
       <c r="G748" s="1"/>
       <c r="J748" s="1"/>
@@ -7864,7 +8175,7 @@
       <c r="W748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749">
+    <row r="749" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D749" s="1"/>
       <c r="G749" s="1"/>
       <c r="J749" s="1"/>
@@ -7874,7 +8185,7 @@
       <c r="W749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750">
+    <row r="750" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D750" s="1"/>
       <c r="G750" s="1"/>
       <c r="J750" s="1"/>
@@ -7884,7 +8195,7 @@
       <c r="W750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751">
+    <row r="751" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D751" s="1"/>
       <c r="G751" s="1"/>
       <c r="J751" s="1"/>
@@ -7894,7 +8205,7 @@
       <c r="W751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752">
+    <row r="752" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D752" s="1"/>
       <c r="G752" s="1"/>
       <c r="J752" s="1"/>
@@ -7904,7 +8215,7 @@
       <c r="W752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753">
+    <row r="753" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D753" s="1"/>
       <c r="G753" s="1"/>
       <c r="J753" s="1"/>
@@ -7914,7 +8225,7 @@
       <c r="W753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754">
+    <row r="754" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D754" s="1"/>
       <c r="G754" s="1"/>
       <c r="J754" s="1"/>
@@ -7924,7 +8235,7 @@
       <c r="W754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755">
+    <row r="755" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D755" s="1"/>
       <c r="G755" s="1"/>
       <c r="J755" s="1"/>
@@ -7934,7 +8245,7 @@
       <c r="W755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756">
+    <row r="756" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D756" s="1"/>
       <c r="G756" s="1"/>
       <c r="J756" s="1"/>
@@ -7944,7 +8255,7 @@
       <c r="W756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757">
+    <row r="757" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D757" s="1"/>
       <c r="G757" s="1"/>
       <c r="J757" s="1"/>
@@ -7954,7 +8265,7 @@
       <c r="W757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758">
+    <row r="758" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D758" s="1"/>
       <c r="G758" s="1"/>
       <c r="J758" s="1"/>
@@ -7964,7 +8275,7 @@
       <c r="W758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759">
+    <row r="759" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D759" s="1"/>
       <c r="G759" s="1"/>
       <c r="J759" s="1"/>
@@ -7974,7 +8285,7 @@
       <c r="W759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760">
+    <row r="760" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D760" s="1"/>
       <c r="G760" s="1"/>
       <c r="J760" s="1"/>
@@ -7984,7 +8295,7 @@
       <c r="W760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761">
+    <row r="761" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D761" s="1"/>
       <c r="G761" s="1"/>
       <c r="J761" s="1"/>
@@ -7994,7 +8305,7 @@
       <c r="W761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762">
+    <row r="762" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D762" s="1"/>
       <c r="G762" s="1"/>
       <c r="J762" s="1"/>
@@ -8004,7 +8315,7 @@
       <c r="W762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763">
+    <row r="763" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D763" s="1"/>
       <c r="G763" s="1"/>
       <c r="J763" s="1"/>
@@ -8014,7 +8325,7 @@
       <c r="W763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764">
+    <row r="764" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D764" s="1"/>
       <c r="G764" s="1"/>
       <c r="J764" s="1"/>
@@ -8024,7 +8335,7 @@
       <c r="W764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765">
+    <row r="765" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D765" s="1"/>
       <c r="G765" s="1"/>
       <c r="J765" s="1"/>
@@ -8034,7 +8345,7 @@
       <c r="W765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766">
+    <row r="766" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D766" s="1"/>
       <c r="G766" s="1"/>
       <c r="J766" s="1"/>
@@ -8044,7 +8355,7 @@
       <c r="W766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767">
+    <row r="767" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D767" s="1"/>
       <c r="G767" s="1"/>
       <c r="J767" s="1"/>
@@ -8054,7 +8365,7 @@
       <c r="W767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768">
+    <row r="768" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D768" s="1"/>
       <c r="G768" s="1"/>
       <c r="J768" s="1"/>
@@ -8064,7 +8375,7 @@
       <c r="W768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769">
+    <row r="769" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D769" s="1"/>
       <c r="G769" s="1"/>
       <c r="J769" s="1"/>
@@ -8074,7 +8385,7 @@
       <c r="W769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770">
+    <row r="770" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D770" s="1"/>
       <c r="G770" s="1"/>
       <c r="J770" s="1"/>
@@ -8084,7 +8395,7 @@
       <c r="W770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771">
+    <row r="771" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D771" s="1"/>
       <c r="G771" s="1"/>
       <c r="J771" s="1"/>
@@ -8094,7 +8405,7 @@
       <c r="W771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772">
+    <row r="772" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D772" s="1"/>
       <c r="G772" s="1"/>
       <c r="J772" s="1"/>
@@ -8104,7 +8415,7 @@
       <c r="W772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773">
+    <row r="773" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D773" s="1"/>
       <c r="G773" s="1"/>
       <c r="J773" s="1"/>
@@ -8114,7 +8425,7 @@
       <c r="W773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774">
+    <row r="774" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D774" s="1"/>
       <c r="G774" s="1"/>
       <c r="J774" s="1"/>
@@ -8124,7 +8435,7 @@
       <c r="W774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775">
+    <row r="775" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D775" s="1"/>
       <c r="G775" s="1"/>
       <c r="J775" s="1"/>
@@ -8134,7 +8445,7 @@
       <c r="W775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776">
+    <row r="776" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D776" s="1"/>
       <c r="G776" s="1"/>
       <c r="J776" s="1"/>
@@ -8144,7 +8455,7 @@
       <c r="W776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777">
+    <row r="777" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D777" s="1"/>
       <c r="G777" s="1"/>
       <c r="J777" s="1"/>
@@ -8154,7 +8465,7 @@
       <c r="W777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778">
+    <row r="778" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D778" s="1"/>
       <c r="G778" s="1"/>
       <c r="J778" s="1"/>
@@ -8164,7 +8475,7 @@
       <c r="W778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779">
+    <row r="779" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D779" s="1"/>
       <c r="G779" s="1"/>
       <c r="J779" s="1"/>
@@ -8174,7 +8485,7 @@
       <c r="W779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780">
+    <row r="780" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D780" s="1"/>
       <c r="G780" s="1"/>
       <c r="J780" s="1"/>
@@ -8184,7 +8495,7 @@
       <c r="W780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781">
+    <row r="781" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D781" s="1"/>
       <c r="G781" s="1"/>
       <c r="J781" s="1"/>
@@ -8194,7 +8505,7 @@
       <c r="W781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782">
+    <row r="782" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D782" s="1"/>
       <c r="G782" s="1"/>
       <c r="J782" s="1"/>
@@ -8204,7 +8515,7 @@
       <c r="W782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783">
+    <row r="783" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D783" s="1"/>
       <c r="G783" s="1"/>
       <c r="J783" s="1"/>
@@ -8214,7 +8525,7 @@
       <c r="W783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784">
+    <row r="784" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D784" s="1"/>
       <c r="G784" s="1"/>
       <c r="J784" s="1"/>
@@ -8224,7 +8535,7 @@
       <c r="W784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785">
+    <row r="785" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D785" s="1"/>
       <c r="G785" s="1"/>
       <c r="J785" s="1"/>
@@ -8234,7 +8545,7 @@
       <c r="W785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786">
+    <row r="786" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D786" s="1"/>
       <c r="G786" s="1"/>
       <c r="J786" s="1"/>
@@ -8244,7 +8555,7 @@
       <c r="W786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787">
+    <row r="787" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D787" s="1"/>
       <c r="G787" s="1"/>
       <c r="J787" s="1"/>
@@ -8254,7 +8565,7 @@
       <c r="W787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788">
+    <row r="788" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D788" s="1"/>
       <c r="G788" s="1"/>
       <c r="J788" s="1"/>
@@ -8264,7 +8575,7 @@
       <c r="W788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789">
+    <row r="789" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D789" s="1"/>
       <c r="G789" s="1"/>
       <c r="J789" s="1"/>
@@ -8274,7 +8585,7 @@
       <c r="W789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790">
+    <row r="790" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D790" s="1"/>
       <c r="G790" s="1"/>
       <c r="J790" s="1"/>
@@ -8284,7 +8595,7 @@
       <c r="W790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791">
+    <row r="791" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D791" s="1"/>
       <c r="G791" s="1"/>
       <c r="J791" s="1"/>
@@ -8294,7 +8605,7 @@
       <c r="W791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792">
+    <row r="792" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D792" s="1"/>
       <c r="G792" s="1"/>
       <c r="J792" s="1"/>
@@ -8304,7 +8615,7 @@
       <c r="W792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793">
+    <row r="793" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D793" s="1"/>
       <c r="G793" s="1"/>
       <c r="J793" s="1"/>
@@ -8314,7 +8625,7 @@
       <c r="W793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794">
+    <row r="794" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D794" s="1"/>
       <c r="G794" s="1"/>
       <c r="J794" s="1"/>
@@ -8324,7 +8635,7 @@
       <c r="W794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795">
+    <row r="795" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D795" s="1"/>
       <c r="G795" s="1"/>
       <c r="J795" s="1"/>
@@ -8334,7 +8645,7 @@
       <c r="W795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796">
+    <row r="796" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D796" s="1"/>
       <c r="G796" s="1"/>
       <c r="J796" s="1"/>
@@ -8344,7 +8655,7 @@
       <c r="W796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797">
+    <row r="797" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D797" s="1"/>
       <c r="G797" s="1"/>
       <c r="J797" s="1"/>
@@ -8354,7 +8665,7 @@
       <c r="W797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798">
+    <row r="798" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D798" s="1"/>
       <c r="G798" s="1"/>
       <c r="J798" s="1"/>
@@ -8364,7 +8675,7 @@
       <c r="W798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799">
+    <row r="799" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D799" s="1"/>
       <c r="G799" s="1"/>
       <c r="J799" s="1"/>
@@ -8374,7 +8685,7 @@
       <c r="W799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800">
+    <row r="800" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D800" s="1"/>
       <c r="G800" s="1"/>
       <c r="J800" s="1"/>
@@ -8384,7 +8695,7 @@
       <c r="W800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801">
+    <row r="801" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D801" s="1"/>
       <c r="G801" s="1"/>
       <c r="J801" s="1"/>
@@ -8394,7 +8705,7 @@
       <c r="W801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802">
+    <row r="802" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D802" s="1"/>
       <c r="G802" s="1"/>
       <c r="J802" s="1"/>
@@ -8404,7 +8715,7 @@
       <c r="W802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803">
+    <row r="803" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D803" s="1"/>
       <c r="G803" s="1"/>
       <c r="J803" s="1"/>
@@ -8414,7 +8725,7 @@
       <c r="W803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804">
+    <row r="804" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D804" s="1"/>
       <c r="G804" s="1"/>
       <c r="J804" s="1"/>
@@ -8424,7 +8735,7 @@
       <c r="W804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805">
+    <row r="805" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D805" s="1"/>
       <c r="G805" s="1"/>
       <c r="J805" s="1"/>
@@ -8434,7 +8745,7 @@
       <c r="W805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806">
+    <row r="806" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D806" s="1"/>
       <c r="G806" s="1"/>
       <c r="J806" s="1"/>
@@ -8444,7 +8755,7 @@
       <c r="W806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807">
+    <row r="807" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D807" s="1"/>
       <c r="G807" s="1"/>
       <c r="J807" s="1"/>
@@ -8454,7 +8765,7 @@
       <c r="W807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808">
+    <row r="808" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D808" s="1"/>
       <c r="G808" s="1"/>
       <c r="J808" s="1"/>
@@ -8464,7 +8775,7 @@
       <c r="W808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809">
+    <row r="809" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D809" s="1"/>
       <c r="G809" s="1"/>
       <c r="J809" s="1"/>
@@ -8474,7 +8785,7 @@
       <c r="W809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810">
+    <row r="810" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D810" s="1"/>
       <c r="G810" s="1"/>
       <c r="J810" s="1"/>
@@ -8484,7 +8795,7 @@
       <c r="W810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811">
+    <row r="811" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D811" s="1"/>
       <c r="G811" s="1"/>
       <c r="J811" s="1"/>
@@ -8494,7 +8805,7 @@
       <c r="W811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812">
+    <row r="812" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D812" s="1"/>
       <c r="G812" s="1"/>
       <c r="J812" s="1"/>
@@ -8504,7 +8815,7 @@
       <c r="W812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813">
+    <row r="813" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D813" s="1"/>
       <c r="G813" s="1"/>
       <c r="J813" s="1"/>
@@ -8514,7 +8825,7 @@
       <c r="W813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814">
+    <row r="814" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D814" s="1"/>
       <c r="G814" s="1"/>
       <c r="J814" s="1"/>
@@ -8524,7 +8835,7 @@
       <c r="W814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815">
+    <row r="815" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D815" s="1"/>
       <c r="G815" s="1"/>
       <c r="J815" s="1"/>
@@ -8534,7 +8845,7 @@
       <c r="W815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816">
+    <row r="816" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D816" s="1"/>
       <c r="G816" s="1"/>
       <c r="J816" s="1"/>
@@ -8544,7 +8855,7 @@
       <c r="W816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817">
+    <row r="817" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D817" s="1"/>
       <c r="G817" s="1"/>
       <c r="J817" s="1"/>
@@ -8554,7 +8865,7 @@
       <c r="W817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818">
+    <row r="818" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D818" s="1"/>
       <c r="G818" s="1"/>
       <c r="J818" s="1"/>
@@ -8564,7 +8875,7 @@
       <c r="W818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819">
+    <row r="819" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D819" s="1"/>
       <c r="G819" s="1"/>
       <c r="J819" s="1"/>
@@ -8574,7 +8885,7 @@
       <c r="W819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820">
+    <row r="820" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D820" s="1"/>
       <c r="G820" s="1"/>
       <c r="J820" s="1"/>
@@ -8584,7 +8895,7 @@
       <c r="W820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821">
+    <row r="821" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D821" s="1"/>
       <c r="G821" s="1"/>
       <c r="J821" s="1"/>
@@ -8594,7 +8905,7 @@
       <c r="W821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822">
+    <row r="822" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D822" s="1"/>
       <c r="G822" s="1"/>
       <c r="J822" s="1"/>
@@ -8604,7 +8915,7 @@
       <c r="W822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823">
+    <row r="823" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D823" s="1"/>
       <c r="G823" s="1"/>
       <c r="J823" s="1"/>
@@ -8614,7 +8925,7 @@
       <c r="W823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824">
+    <row r="824" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D824" s="1"/>
       <c r="G824" s="1"/>
       <c r="J824" s="1"/>
@@ -8624,7 +8935,7 @@
       <c r="W824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825">
+    <row r="825" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D825" s="1"/>
       <c r="G825" s="1"/>
       <c r="J825" s="1"/>
@@ -8634,7 +8945,7 @@
       <c r="W825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826">
+    <row r="826" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D826" s="1"/>
       <c r="G826" s="1"/>
       <c r="J826" s="1"/>
@@ -8644,7 +8955,7 @@
       <c r="W826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827">
+    <row r="827" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D827" s="1"/>
       <c r="G827" s="1"/>
       <c r="J827" s="1"/>
@@ -8654,7 +8965,7 @@
       <c r="W827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828">
+    <row r="828" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D828" s="1"/>
       <c r="G828" s="1"/>
       <c r="J828" s="1"/>
@@ -8664,7 +8975,7 @@
       <c r="W828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829">
+    <row r="829" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D829" s="1"/>
       <c r="G829" s="1"/>
       <c r="J829" s="1"/>
@@ -8674,7 +8985,7 @@
       <c r="W829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830">
+    <row r="830" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D830" s="1"/>
       <c r="G830" s="1"/>
       <c r="J830" s="1"/>
@@ -8684,7 +8995,7 @@
       <c r="W830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831">
+    <row r="831" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D831" s="1"/>
       <c r="G831" s="1"/>
       <c r="J831" s="1"/>
@@ -8694,7 +9005,7 @@
       <c r="W831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832">
+    <row r="832" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D832" s="1"/>
       <c r="G832" s="1"/>
       <c r="J832" s="1"/>
@@ -8704,7 +9015,7 @@
       <c r="W832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833">
+    <row r="833" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D833" s="1"/>
       <c r="G833" s="1"/>
       <c r="J833" s="1"/>
@@ -8714,7 +9025,7 @@
       <c r="W833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834">
+    <row r="834" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D834" s="1"/>
       <c r="G834" s="1"/>
       <c r="J834" s="1"/>
@@ -8724,7 +9035,7 @@
       <c r="W834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835">
+    <row r="835" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D835" s="1"/>
       <c r="G835" s="1"/>
       <c r="J835" s="1"/>
@@ -8734,7 +9045,7 @@
       <c r="W835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836">
+    <row r="836" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D836" s="1"/>
       <c r="G836" s="1"/>
       <c r="J836" s="1"/>
@@ -8744,7 +9055,7 @@
       <c r="W836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837">
+    <row r="837" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D837" s="1"/>
       <c r="G837" s="1"/>
       <c r="J837" s="1"/>
@@ -8754,7 +9065,7 @@
       <c r="W837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838">
+    <row r="838" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D838" s="1"/>
       <c r="G838" s="1"/>
       <c r="J838" s="1"/>
@@ -8764,7 +9075,7 @@
       <c r="W838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839">
+    <row r="839" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D839" s="1"/>
       <c r="G839" s="1"/>
       <c r="J839" s="1"/>
@@ -8774,7 +9085,7 @@
       <c r="W839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840">
+    <row r="840" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D840" s="1"/>
       <c r="G840" s="1"/>
       <c r="J840" s="1"/>
@@ -8784,7 +9095,7 @@
       <c r="W840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841">
+    <row r="841" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D841" s="1"/>
       <c r="G841" s="1"/>
       <c r="J841" s="1"/>
@@ -8794,7 +9105,7 @@
       <c r="W841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842">
+    <row r="842" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D842" s="1"/>
       <c r="G842" s="1"/>
       <c r="J842" s="1"/>
@@ -8804,7 +9115,7 @@
       <c r="W842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843">
+    <row r="843" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D843" s="1"/>
       <c r="G843" s="1"/>
       <c r="J843" s="1"/>
@@ -8814,7 +9125,7 @@
       <c r="W843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844">
+    <row r="844" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D844" s="1"/>
       <c r="G844" s="1"/>
       <c r="J844" s="1"/>
@@ -8824,7 +9135,7 @@
       <c r="W844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845">
+    <row r="845" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D845" s="1"/>
       <c r="G845" s="1"/>
       <c r="J845" s="1"/>
@@ -8834,7 +9145,7 @@
       <c r="W845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846">
+    <row r="846" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D846" s="1"/>
       <c r="G846" s="1"/>
       <c r="J846" s="1"/>
@@ -8844,7 +9155,7 @@
       <c r="W846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847">
+    <row r="847" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D847" s="1"/>
       <c r="G847" s="1"/>
       <c r="J847" s="1"/>
@@ -8854,7 +9165,7 @@
       <c r="W847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848">
+    <row r="848" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D848" s="1"/>
       <c r="G848" s="1"/>
       <c r="J848" s="1"/>
@@ -8864,7 +9175,7 @@
       <c r="W848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849">
+    <row r="849" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D849" s="1"/>
       <c r="G849" s="1"/>
       <c r="J849" s="1"/>
@@ -8874,7 +9185,7 @@
       <c r="W849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850">
+    <row r="850" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D850" s="1"/>
       <c r="G850" s="1"/>
       <c r="J850" s="1"/>
@@ -8884,7 +9195,7 @@
       <c r="W850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851">
+    <row r="851" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D851" s="1"/>
       <c r="G851" s="1"/>
       <c r="J851" s="1"/>
@@ -8894,7 +9205,7 @@
       <c r="W851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852">
+    <row r="852" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D852" s="1"/>
       <c r="G852" s="1"/>
       <c r="J852" s="1"/>
@@ -8904,7 +9215,7 @@
       <c r="W852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853">
+    <row r="853" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D853" s="1"/>
       <c r="G853" s="1"/>
       <c r="J853" s="1"/>
@@ -8914,7 +9225,7 @@
       <c r="W853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854">
+    <row r="854" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D854" s="1"/>
       <c r="G854" s="1"/>
       <c r="J854" s="1"/>
@@ -8924,7 +9235,7 @@
       <c r="W854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855">
+    <row r="855" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D855" s="1"/>
       <c r="G855" s="1"/>
       <c r="J855" s="1"/>
@@ -8934,7 +9245,7 @@
       <c r="W855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856">
+    <row r="856" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D856" s="1"/>
       <c r="G856" s="1"/>
       <c r="J856" s="1"/>
@@ -8944,7 +9255,7 @@
       <c r="W856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857">
+    <row r="857" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D857" s="1"/>
       <c r="G857" s="1"/>
       <c r="J857" s="1"/>
@@ -8954,7 +9265,7 @@
       <c r="W857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858">
+    <row r="858" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D858" s="1"/>
       <c r="G858" s="1"/>
       <c r="J858" s="1"/>
@@ -8964,7 +9275,7 @@
       <c r="W858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859">
+    <row r="859" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D859" s="1"/>
       <c r="G859" s="1"/>
       <c r="J859" s="1"/>
@@ -8974,7 +9285,7 @@
       <c r="W859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860">
+    <row r="860" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D860" s="1"/>
       <c r="G860" s="1"/>
       <c r="J860" s="1"/>
@@ -8984,7 +9295,7 @@
       <c r="W860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861">
+    <row r="861" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D861" s="1"/>
       <c r="G861" s="1"/>
       <c r="J861" s="1"/>
@@ -8994,7 +9305,7 @@
       <c r="W861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862">
+    <row r="862" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D862" s="1"/>
       <c r="G862" s="1"/>
       <c r="J862" s="1"/>
@@ -9004,7 +9315,7 @@
       <c r="W862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863">
+    <row r="863" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D863" s="1"/>
       <c r="G863" s="1"/>
       <c r="J863" s="1"/>
@@ -9014,7 +9325,7 @@
       <c r="W863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864">
+    <row r="864" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D864" s="1"/>
       <c r="G864" s="1"/>
       <c r="J864" s="1"/>
@@ -9024,7 +9335,7 @@
       <c r="W864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865">
+    <row r="865" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D865" s="1"/>
       <c r="G865" s="1"/>
       <c r="J865" s="1"/>
@@ -9034,7 +9345,7 @@
       <c r="W865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866">
+    <row r="866" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D866" s="1"/>
       <c r="G866" s="1"/>
       <c r="J866" s="1"/>
@@ -9044,7 +9355,7 @@
       <c r="W866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867">
+    <row r="867" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D867" s="1"/>
       <c r="G867" s="1"/>
       <c r="J867" s="1"/>
@@ -9054,7 +9365,7 @@
       <c r="W867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868">
+    <row r="868" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D868" s="1"/>
       <c r="G868" s="1"/>
       <c r="J868" s="1"/>
@@ -9064,7 +9375,7 @@
       <c r="W868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869">
+    <row r="869" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D869" s="1"/>
       <c r="G869" s="1"/>
       <c r="J869" s="1"/>
@@ -9074,7 +9385,7 @@
       <c r="W869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870">
+    <row r="870" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D870" s="1"/>
       <c r="G870" s="1"/>
       <c r="J870" s="1"/>
@@ -9084,7 +9395,7 @@
       <c r="W870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871">
+    <row r="871" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D871" s="1"/>
       <c r="G871" s="1"/>
       <c r="J871" s="1"/>
@@ -9094,7 +9405,7 @@
       <c r="W871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872">
+    <row r="872" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D872" s="1"/>
       <c r="G872" s="1"/>
       <c r="J872" s="1"/>
@@ -9104,7 +9415,7 @@
       <c r="W872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873">
+    <row r="873" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D873" s="1"/>
       <c r="G873" s="1"/>
       <c r="J873" s="1"/>
@@ -9114,7 +9425,7 @@
       <c r="W873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874">
+    <row r="874" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D874" s="1"/>
       <c r="G874" s="1"/>
       <c r="J874" s="1"/>
@@ -9124,7 +9435,7 @@
       <c r="W874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875">
+    <row r="875" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D875" s="1"/>
       <c r="G875" s="1"/>
       <c r="J875" s="1"/>
@@ -9134,7 +9445,7 @@
       <c r="W875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876">
+    <row r="876" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D876" s="1"/>
       <c r="G876" s="1"/>
       <c r="J876" s="1"/>
@@ -9144,7 +9455,7 @@
       <c r="W876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877">
+    <row r="877" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D877" s="1"/>
       <c r="G877" s="1"/>
       <c r="J877" s="1"/>
@@ -9154,7 +9465,7 @@
       <c r="W877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878">
+    <row r="878" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D878" s="1"/>
       <c r="G878" s="1"/>
       <c r="J878" s="1"/>
@@ -9164,7 +9475,7 @@
       <c r="W878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879">
+    <row r="879" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D879" s="1"/>
       <c r="G879" s="1"/>
       <c r="J879" s="1"/>
@@ -9174,7 +9485,7 @@
       <c r="W879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880">
+    <row r="880" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D880" s="1"/>
       <c r="G880" s="1"/>
       <c r="J880" s="1"/>
@@ -9184,7 +9495,7 @@
       <c r="W880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881">
+    <row r="881" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D881" s="1"/>
       <c r="G881" s="1"/>
       <c r="J881" s="1"/>
@@ -9194,7 +9505,7 @@
       <c r="W881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882">
+    <row r="882" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D882" s="1"/>
       <c r="G882" s="1"/>
       <c r="J882" s="1"/>
@@ -9204,7 +9515,7 @@
       <c r="W882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883">
+    <row r="883" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D883" s="1"/>
       <c r="G883" s="1"/>
       <c r="J883" s="1"/>
@@ -9214,7 +9525,7 @@
       <c r="W883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884">
+    <row r="884" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D884" s="1"/>
       <c r="G884" s="1"/>
       <c r="J884" s="1"/>
@@ -9224,7 +9535,7 @@
       <c r="W884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885">
+    <row r="885" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D885" s="1"/>
       <c r="G885" s="1"/>
       <c r="J885" s="1"/>
@@ -9234,7 +9545,7 @@
       <c r="W885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886">
+    <row r="886" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D886" s="1"/>
       <c r="G886" s="1"/>
       <c r="J886" s="1"/>
@@ -9244,7 +9555,7 @@
       <c r="W886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887">
+    <row r="887" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D887" s="1"/>
       <c r="G887" s="1"/>
       <c r="J887" s="1"/>
@@ -9254,7 +9565,7 @@
       <c r="W887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888">
+    <row r="888" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D888" s="1"/>
       <c r="G888" s="1"/>
       <c r="J888" s="1"/>
@@ -9264,7 +9575,7 @@
       <c r="W888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889">
+    <row r="889" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D889" s="1"/>
       <c r="G889" s="1"/>
       <c r="J889" s="1"/>
@@ -9274,7 +9585,7 @@
       <c r="W889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890">
+    <row r="890" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D890" s="1"/>
       <c r="G890" s="1"/>
       <c r="J890" s="1"/>
@@ -9284,7 +9595,7 @@
       <c r="W890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891">
+    <row r="891" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D891" s="1"/>
       <c r="G891" s="1"/>
       <c r="J891" s="1"/>
@@ -9294,7 +9605,7 @@
       <c r="W891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892">
+    <row r="892" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D892" s="1"/>
       <c r="G892" s="1"/>
       <c r="J892" s="1"/>
@@ -9304,7 +9615,7 @@
       <c r="W892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893">
+    <row r="893" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D893" s="1"/>
       <c r="G893" s="1"/>
       <c r="J893" s="1"/>
@@ -9314,7 +9625,7 @@
       <c r="W893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894">
+    <row r="894" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D894" s="1"/>
       <c r="G894" s="1"/>
       <c r="J894" s="1"/>
@@ -9324,7 +9635,7 @@
       <c r="W894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895">
+    <row r="895" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D895" s="1"/>
       <c r="G895" s="1"/>
       <c r="J895" s="1"/>
@@ -9334,7 +9645,7 @@
       <c r="W895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896">
+    <row r="896" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D896" s="1"/>
       <c r="G896" s="1"/>
       <c r="J896" s="1"/>
@@ -9344,7 +9655,7 @@
       <c r="W896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897">
+    <row r="897" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D897" s="1"/>
       <c r="G897" s="1"/>
       <c r="J897" s="1"/>
@@ -9354,7 +9665,7 @@
       <c r="W897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898">
+    <row r="898" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D898" s="1"/>
       <c r="G898" s="1"/>
       <c r="J898" s="1"/>
@@ -9364,7 +9675,7 @@
       <c r="W898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899">
+    <row r="899" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D899" s="1"/>
       <c r="G899" s="1"/>
       <c r="J899" s="1"/>
@@ -9374,7 +9685,7 @@
       <c r="W899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900">
+    <row r="900" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D900" s="1"/>
       <c r="G900" s="1"/>
       <c r="J900" s="1"/>
@@ -9384,7 +9695,7 @@
       <c r="W900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901">
+    <row r="901" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D901" s="1"/>
       <c r="G901" s="1"/>
       <c r="J901" s="1"/>
@@ -9394,7 +9705,7 @@
       <c r="W901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902">
+    <row r="902" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D902" s="1"/>
       <c r="G902" s="1"/>
       <c r="J902" s="1"/>
@@ -9404,7 +9715,7 @@
       <c r="W902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903">
+    <row r="903" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D903" s="1"/>
       <c r="G903" s="1"/>
       <c r="J903" s="1"/>
@@ -9414,7 +9725,7 @@
       <c r="W903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904">
+    <row r="904" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D904" s="1"/>
       <c r="G904" s="1"/>
       <c r="J904" s="1"/>
@@ -9424,7 +9735,7 @@
       <c r="W904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905">
+    <row r="905" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D905" s="1"/>
       <c r="G905" s="1"/>
       <c r="J905" s="1"/>
@@ -9434,7 +9745,7 @@
       <c r="W905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906">
+    <row r="906" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D906" s="1"/>
       <c r="G906" s="1"/>
       <c r="J906" s="1"/>
@@ -9444,7 +9755,7 @@
       <c r="W906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907">
+    <row r="907" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D907" s="1"/>
       <c r="G907" s="1"/>
       <c r="J907" s="1"/>
@@ -9454,7 +9765,7 @@
       <c r="W907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908">
+    <row r="908" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D908" s="1"/>
       <c r="G908" s="1"/>
       <c r="J908" s="1"/>
@@ -9464,7 +9775,7 @@
       <c r="W908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909">
+    <row r="909" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D909" s="1"/>
       <c r="G909" s="1"/>
       <c r="J909" s="1"/>
@@ -9474,7 +9785,7 @@
       <c r="W909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910">
+    <row r="910" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D910" s="1"/>
       <c r="G910" s="1"/>
       <c r="J910" s="1"/>
@@ -9484,7 +9795,7 @@
       <c r="W910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911">
+    <row r="911" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D911" s="1"/>
       <c r="G911" s="1"/>
       <c r="J911" s="1"/>
@@ -9494,7 +9805,7 @@
       <c r="W911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912">
+    <row r="912" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D912" s="1"/>
       <c r="G912" s="1"/>
       <c r="J912" s="1"/>
@@ -9504,7 +9815,7 @@
       <c r="W912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913">
+    <row r="913" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D913" s="1"/>
       <c r="G913" s="1"/>
       <c r="J913" s="1"/>
@@ -9514,7 +9825,7 @@
       <c r="W913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914">
+    <row r="914" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D914" s="1"/>
       <c r="G914" s="1"/>
       <c r="J914" s="1"/>
@@ -9524,7 +9835,7 @@
       <c r="W914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915">
+    <row r="915" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D915" s="1"/>
       <c r="G915" s="1"/>
       <c r="J915" s="1"/>
@@ -9534,7 +9845,7 @@
       <c r="W915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916">
+    <row r="916" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D916" s="1"/>
       <c r="G916" s="1"/>
       <c r="J916" s="1"/>
@@ -9544,7 +9855,7 @@
       <c r="W916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917">
+    <row r="917" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D917" s="1"/>
       <c r="G917" s="1"/>
       <c r="J917" s="1"/>
@@ -9554,7 +9865,7 @@
       <c r="W917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918">
+    <row r="918" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D918" s="1"/>
       <c r="G918" s="1"/>
       <c r="J918" s="1"/>
@@ -9564,7 +9875,7 @@
       <c r="W918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919">
+    <row r="919" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D919" s="1"/>
       <c r="G919" s="1"/>
       <c r="J919" s="1"/>
@@ -9574,7 +9885,7 @@
       <c r="W919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920">
+    <row r="920" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D920" s="1"/>
       <c r="G920" s="1"/>
       <c r="J920" s="1"/>
@@ -9584,7 +9895,7 @@
       <c r="W920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921">
+    <row r="921" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D921" s="1"/>
       <c r="G921" s="1"/>
       <c r="J921" s="1"/>
@@ -9594,7 +9905,7 @@
       <c r="W921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922">
+    <row r="922" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D922" s="1"/>
       <c r="G922" s="1"/>
       <c r="J922" s="1"/>
@@ -9604,7 +9915,7 @@
       <c r="W922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923">
+    <row r="923" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D923" s="1"/>
       <c r="G923" s="1"/>
       <c r="J923" s="1"/>
@@ -9614,7 +9925,7 @@
       <c r="W923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924">
+    <row r="924" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D924" s="1"/>
       <c r="G924" s="1"/>
       <c r="J924" s="1"/>
@@ -9624,7 +9935,7 @@
       <c r="W924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925">
+    <row r="925" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D925" s="1"/>
       <c r="G925" s="1"/>
       <c r="J925" s="1"/>
@@ -9634,7 +9945,7 @@
       <c r="W925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926">
+    <row r="926" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D926" s="1"/>
       <c r="G926" s="1"/>
       <c r="J926" s="1"/>
@@ -9644,7 +9955,7 @@
       <c r="W926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927">
+    <row r="927" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D927" s="1"/>
       <c r="G927" s="1"/>
       <c r="J927" s="1"/>
@@ -9654,7 +9965,7 @@
       <c r="W927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928">
+    <row r="928" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D928" s="1"/>
       <c r="G928" s="1"/>
       <c r="J928" s="1"/>
@@ -9664,7 +9975,7 @@
       <c r="W928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929">
+    <row r="929" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D929" s="1"/>
       <c r="G929" s="1"/>
       <c r="J929" s="1"/>
@@ -9674,7 +9985,7 @@
       <c r="W929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930">
+    <row r="930" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D930" s="1"/>
       <c r="G930" s="1"/>
       <c r="J930" s="1"/>
@@ -9684,7 +9995,7 @@
       <c r="W930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931">
+    <row r="931" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D931" s="1"/>
       <c r="G931" s="1"/>
       <c r="J931" s="1"/>
@@ -9694,7 +10005,7 @@
       <c r="W931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932">
+    <row r="932" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D932" s="1"/>
       <c r="G932" s="1"/>
       <c r="J932" s="1"/>
@@ -9704,7 +10015,7 @@
       <c r="W932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933">
+    <row r="933" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D933" s="1"/>
       <c r="G933" s="1"/>
       <c r="J933" s="1"/>
@@ -9714,7 +10025,7 @@
       <c r="W933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934">
+    <row r="934" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D934" s="1"/>
       <c r="G934" s="1"/>
       <c r="J934" s="1"/>
@@ -9724,7 +10035,7 @@
       <c r="W934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935">
+    <row r="935" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D935" s="1"/>
       <c r="G935" s="1"/>
       <c r="J935" s="1"/>
@@ -9734,7 +10045,7 @@
       <c r="W935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936">
+    <row r="936" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D936" s="1"/>
       <c r="G936" s="1"/>
       <c r="J936" s="1"/>
@@ -9744,7 +10055,7 @@
       <c r="W936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937">
+    <row r="937" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D937" s="1"/>
       <c r="G937" s="1"/>
       <c r="J937" s="1"/>
@@ -9754,7 +10065,7 @@
       <c r="W937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938">
+    <row r="938" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D938" s="1"/>
       <c r="G938" s="1"/>
       <c r="J938" s="1"/>
@@ -9764,7 +10075,7 @@
       <c r="W938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939">
+    <row r="939" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D939" s="1"/>
       <c r="G939" s="1"/>
       <c r="J939" s="1"/>
@@ -9774,7 +10085,7 @@
       <c r="W939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940">
+    <row r="940" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D940" s="1"/>
       <c r="G940" s="1"/>
       <c r="J940" s="1"/>
@@ -9784,7 +10095,7 @@
       <c r="W940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941">
+    <row r="941" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D941" s="1"/>
       <c r="G941" s="1"/>
       <c r="J941" s="1"/>
@@ -9794,7 +10105,7 @@
       <c r="W941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942">
+    <row r="942" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D942" s="1"/>
       <c r="G942" s="1"/>
       <c r="J942" s="1"/>
@@ -9804,7 +10115,7 @@
       <c r="W942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943">
+    <row r="943" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D943" s="1"/>
       <c r="G943" s="1"/>
       <c r="J943" s="1"/>
@@ -9814,7 +10125,7 @@
       <c r="W943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944">
+    <row r="944" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D944" s="1"/>
       <c r="G944" s="1"/>
       <c r="J944" s="1"/>
@@ -9824,7 +10135,7 @@
       <c r="W944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945">
+    <row r="945" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D945" s="1"/>
       <c r="G945" s="1"/>
       <c r="J945" s="1"/>
@@ -9834,7 +10145,7 @@
       <c r="W945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946">
+    <row r="946" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D946" s="1"/>
       <c r="G946" s="1"/>
       <c r="J946" s="1"/>
@@ -9844,7 +10155,7 @@
       <c r="W946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947">
+    <row r="947" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D947" s="1"/>
       <c r="G947" s="1"/>
       <c r="J947" s="1"/>
@@ -9854,7 +10165,7 @@
       <c r="W947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948">
+    <row r="948" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D948" s="1"/>
       <c r="G948" s="1"/>
       <c r="J948" s="1"/>
@@ -9864,7 +10175,7 @@
       <c r="W948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949">
+    <row r="949" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D949" s="1"/>
       <c r="G949" s="1"/>
       <c r="J949" s="1"/>
@@ -9874,7 +10185,7 @@
       <c r="W949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950">
+    <row r="950" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D950" s="1"/>
       <c r="G950" s="1"/>
       <c r="J950" s="1"/>
@@ -9884,7 +10195,7 @@
       <c r="W950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951">
+    <row r="951" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D951" s="1"/>
       <c r="G951" s="1"/>
       <c r="J951" s="1"/>
@@ -9894,7 +10205,7 @@
       <c r="W951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952">
+    <row r="952" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D952" s="1"/>
       <c r="G952" s="1"/>
       <c r="J952" s="1"/>
@@ -9904,7 +10215,7 @@
       <c r="W952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953">
+    <row r="953" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D953" s="1"/>
       <c r="G953" s="1"/>
       <c r="J953" s="1"/>
@@ -9914,7 +10225,7 @@
       <c r="W953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954">
+    <row r="954" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D954" s="1"/>
       <c r="G954" s="1"/>
       <c r="J954" s="1"/>
@@ -9924,7 +10235,7 @@
       <c r="W954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955">
+    <row r="955" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D955" s="1"/>
       <c r="G955" s="1"/>
       <c r="J955" s="1"/>
@@ -9934,7 +10245,7 @@
       <c r="W955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956">
+    <row r="956" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D956" s="1"/>
       <c r="G956" s="1"/>
       <c r="J956" s="1"/>
@@ -9944,7 +10255,7 @@
       <c r="W956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957">
+    <row r="957" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D957" s="1"/>
       <c r="G957" s="1"/>
       <c r="J957" s="1"/>
@@ -9954,7 +10265,7 @@
       <c r="W957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958">
+    <row r="958" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D958" s="1"/>
       <c r="G958" s="1"/>
       <c r="J958" s="1"/>
@@ -9964,7 +10275,7 @@
       <c r="W958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959">
+    <row r="959" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D959" s="1"/>
       <c r="G959" s="1"/>
       <c r="J959" s="1"/>
@@ -9974,7 +10285,7 @@
       <c r="W959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960">
+    <row r="960" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D960" s="1"/>
       <c r="G960" s="1"/>
       <c r="J960" s="1"/>
@@ -9984,7 +10295,7 @@
       <c r="W960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961">
+    <row r="961" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D961" s="1"/>
       <c r="G961" s="1"/>
       <c r="J961" s="1"/>
@@ -9994,7 +10305,7 @@
       <c r="W961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962">
+    <row r="962" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D962" s="1"/>
       <c r="G962" s="1"/>
       <c r="J962" s="1"/>
@@ -10004,7 +10315,7 @@
       <c r="W962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963">
+    <row r="963" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D963" s="1"/>
       <c r="G963" s="1"/>
       <c r="J963" s="1"/>
@@ -10014,7 +10325,7 @@
       <c r="W963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964">
+    <row r="964" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D964" s="1"/>
       <c r="G964" s="1"/>
       <c r="J964" s="1"/>
@@ -10024,7 +10335,7 @@
       <c r="W964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965">
+    <row r="965" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D965" s="1"/>
       <c r="G965" s="1"/>
       <c r="J965" s="1"/>
@@ -10034,7 +10345,7 @@
       <c r="W965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966">
+    <row r="966" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D966" s="1"/>
       <c r="G966" s="1"/>
       <c r="J966" s="1"/>
@@ -10044,7 +10355,7 @@
       <c r="W966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967">
+    <row r="967" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D967" s="1"/>
       <c r="G967" s="1"/>
       <c r="J967" s="1"/>
@@ -10054,7 +10365,7 @@
       <c r="W967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968">
+    <row r="968" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D968" s="1"/>
       <c r="G968" s="1"/>
       <c r="J968" s="1"/>
@@ -10064,7 +10375,7 @@
       <c r="W968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969">
+    <row r="969" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D969" s="1"/>
       <c r="G969" s="1"/>
       <c r="J969" s="1"/>
@@ -10074,7 +10385,7 @@
       <c r="W969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970">
+    <row r="970" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D970" s="1"/>
       <c r="G970" s="1"/>
       <c r="J970" s="1"/>
@@ -10084,7 +10395,7 @@
       <c r="W970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971">
+    <row r="971" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D971" s="1"/>
       <c r="G971" s="1"/>
       <c r="J971" s="1"/>
@@ -10094,7 +10405,7 @@
       <c r="W971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972">
+    <row r="972" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D972" s="1"/>
       <c r="G972" s="1"/>
       <c r="J972" s="1"/>
@@ -10104,7 +10415,7 @@
       <c r="W972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973">
+    <row r="973" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D973" s="1"/>
       <c r="G973" s="1"/>
       <c r="J973" s="1"/>
@@ -10114,7 +10425,7 @@
       <c r="W973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974">
+    <row r="974" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D974" s="1"/>
       <c r="G974" s="1"/>
       <c r="J974" s="1"/>
@@ -10124,7 +10435,7 @@
       <c r="W974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975">
+    <row r="975" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D975" s="1"/>
       <c r="G975" s="1"/>
       <c r="J975" s="1"/>
@@ -10134,7 +10445,7 @@
       <c r="W975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976">
+    <row r="976" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D976" s="1"/>
       <c r="G976" s="1"/>
       <c r="J976" s="1"/>
@@ -10144,7 +10455,7 @@
       <c r="W976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977">
+    <row r="977" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D977" s="1"/>
       <c r="G977" s="1"/>
       <c r="J977" s="1"/>
@@ -10154,7 +10465,7 @@
       <c r="W977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978">
+    <row r="978" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D978" s="1"/>
       <c r="G978" s="1"/>
       <c r="J978" s="1"/>
@@ -10164,7 +10475,7 @@
       <c r="W978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979">
+    <row r="979" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D979" s="1"/>
       <c r="G979" s="1"/>
       <c r="J979" s="1"/>
@@ -10174,7 +10485,7 @@
       <c r="W979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980">
+    <row r="980" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D980" s="1"/>
       <c r="G980" s="1"/>
       <c r="J980" s="1"/>
@@ -10184,7 +10495,7 @@
       <c r="W980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981">
+    <row r="981" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D981" s="1"/>
       <c r="G981" s="1"/>
       <c r="J981" s="1"/>
@@ -10194,7 +10505,7 @@
       <c r="W981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982">
+    <row r="982" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D982" s="1"/>
       <c r="G982" s="1"/>
       <c r="J982" s="1"/>
@@ -10204,7 +10515,7 @@
       <c r="W982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983">
+    <row r="983" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D983" s="1"/>
       <c r="G983" s="1"/>
       <c r="J983" s="1"/>
@@ -10214,7 +10525,7 @@
       <c r="W983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984">
+    <row r="984" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D984" s="1"/>
       <c r="G984" s="1"/>
       <c r="J984" s="1"/>
@@ -10224,7 +10535,7 @@
       <c r="W984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985">
+    <row r="985" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D985" s="1"/>
       <c r="G985" s="1"/>
       <c r="J985" s="1"/>
@@ -10234,7 +10545,7 @@
       <c r="W985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986">
+    <row r="986" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D986" s="1"/>
       <c r="G986" s="1"/>
       <c r="J986" s="1"/>
@@ -10244,7 +10555,7 @@
       <c r="W986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987">
+    <row r="987" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D987" s="1"/>
       <c r="G987" s="1"/>
       <c r="J987" s="1"/>
@@ -10254,7 +10565,7 @@
       <c r="W987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988">
+    <row r="988" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D988" s="1"/>
       <c r="G988" s="1"/>
       <c r="J988" s="1"/>
@@ -10264,7 +10575,7 @@
       <c r="W988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989">
+    <row r="989" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D989" s="1"/>
       <c r="G989" s="1"/>
       <c r="J989" s="1"/>
@@ -10274,7 +10585,7 @@
       <c r="W989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990">
+    <row r="990" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D990" s="1"/>
       <c r="G990" s="1"/>
       <c r="J990" s="1"/>
@@ -10284,7 +10595,7 @@
       <c r="W990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
-    <row r="991">
+    <row r="991" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D991" s="1"/>
       <c r="G991" s="1"/>
       <c r="J991" s="1"/>
@@ -10294,7 +10605,7 @@
       <c r="W991" s="1"/>
       <c r="Z991" s="1"/>
     </row>
-    <row r="992">
+    <row r="992" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D992" s="1"/>
       <c r="G992" s="1"/>
       <c r="J992" s="1"/>
@@ -10304,7 +10615,7 @@
       <c r="W992" s="1"/>
       <c r="Z992" s="1"/>
     </row>
-    <row r="993">
+    <row r="993" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D993" s="1"/>
       <c r="G993" s="1"/>
       <c r="J993" s="1"/>
@@ -10314,7 +10625,7 @@
       <c r="W993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994">
+    <row r="994" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D994" s="1"/>
       <c r="G994" s="1"/>
       <c r="J994" s="1"/>
@@ -10324,7 +10635,7 @@
       <c r="W994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
-    <row r="995">
+    <row r="995" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D995" s="1"/>
       <c r="G995" s="1"/>
       <c r="J995" s="1"/>
@@ -10334,7 +10645,7 @@
       <c r="W995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996">
+    <row r="996" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D996" s="1"/>
       <c r="G996" s="1"/>
       <c r="J996" s="1"/>
@@ -10344,7 +10655,7 @@
       <c r="W996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997">
+    <row r="997" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D997" s="1"/>
       <c r="G997" s="1"/>
       <c r="J997" s="1"/>
@@ -10354,7 +10665,7 @@
       <c r="W997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998">
+    <row r="998" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D998" s="1"/>
       <c r="G998" s="1"/>
       <c r="J998" s="1"/>
@@ -10364,7 +10675,7 @@
       <c r="W998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999">
+    <row r="999" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D999" s="1"/>
       <c r="G999" s="1"/>
       <c r="J999" s="1"/>
@@ -10374,7 +10685,7 @@
       <c r="W999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D1000" s="1"/>
       <c r="G1000" s="1"/>
       <c r="J1000" s="1"/>
@@ -10385,6 +10696,6 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flavi\Documents\GitHub\ChoppBot\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>SD</t>
   </si>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -584,28 +584,28 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>9</v>
@@ -630,7 +630,7 @@
       <c r="W3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>12</v>
@@ -704,7 +704,7 @@
       <c r="W5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>10</v>
@@ -737,12 +737,6 @@
       </c>
       <c r="W6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="10" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>

--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -78,9 +78,6 @@
     <t>ROXO</t>
   </si>
   <si>
-    <t>Xsda</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -107,12 +104,15 @@
   <si>
     <t>rx</t>
   </si>
+  <si>
+    <t xml:space="preserve">SDA </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -121,6 +121,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -186,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -205,6 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -556,7 +563,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -608,11 +615,11 @@
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ2" s="1"/>
     </row>
@@ -621,7 +628,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -681,14 +688,14 @@
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE3">
         <v>36</v>
       </c>
       <c r="AF3" s="1"/>
       <c r="AG3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH3">
         <v>12</v>
@@ -721,7 +728,7 @@
       </c>
       <c r="S4" s="1"/>
       <c r="T4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
         <v>15</v>
@@ -739,14 +746,14 @@
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE4">
         <v>37</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH4">
         <v>13</v>
@@ -773,7 +780,7 @@
       <c r="P5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
         <v>13</v>
@@ -791,7 +798,7 @@
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE5">
         <v>38</v>
@@ -816,7 +823,7 @@
       <c r="P6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
         <v>17</v>
@@ -840,10 +847,10 @@
       <c r="P7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="V7" s="14" t="s">
         <v>18</v>
@@ -900,6 +907,7 @@
       <c r="M11" s="1"/>
       <c r="P11" s="1"/>
       <c r="S11" s="1"/>
+      <c r="T11" s="16"/>
       <c r="W11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AC11" s="1"/>
@@ -913,6 +921,7 @@
       <c r="M12" s="1"/>
       <c r="P12" s="1"/>
       <c r="S12" s="1"/>
+      <c r="T12" s="16"/>
       <c r="W12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AC12" s="1"/>
@@ -13765,5 +13774,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD785EA-83D8-4F13-A8B4-78DBBE397721}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E4AD4-68A5-4370-95DA-0D67793DB52A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>SD</t>
   </si>
@@ -157,7 +157,13 @@
     <t>interf tela</t>
   </si>
   <si>
-    <t>inter sd</t>
+    <t>am + rx</t>
+  </si>
+  <si>
+    <t>JP 5</t>
+  </si>
+  <si>
+    <t>lado botao</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +290,16 @@
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color rgb="FFFFFF00"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF7030A0"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="5">
@@ -416,9 +432,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,12 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,17 +457,26 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -780,7 +796,7 @@
   <dimension ref="A1:AM999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -800,82 +816,83 @@
     <col min="25" max="25" width="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.85546875" style="28" customWidth="1"/>
-    <col min="29" max="30" width="8.7109375" style="28" customWidth="1"/>
-    <col min="31" max="31" width="3.85546875" style="28" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" style="27" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" style="27" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" style="27" customWidth="1"/>
     <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.85546875" customWidth="1"/>
     <col min="36" max="37" width="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" customWidth="1"/>
     <col min="39" max="39" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="25" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="25" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="25" t="s">
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="25" t="s">
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="30" t="s">
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="25" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="25" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="26"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="25"/>
     </row>
     <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
-        <v>53</v>
+      <c r="A2" s="41">
+        <v>11</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>12</v>
@@ -924,17 +941,17 @@
         <v>25</v>
       </c>
       <c r="T2" s="11"/>
-      <c r="U2" s="36">
-        <v>21</v>
+      <c r="U2" s="7">
+        <v>12</v>
       </c>
-      <c r="V2" s="22" t="s">
-        <v>18</v>
+      <c r="V2" s="2" t="s">
+        <v>17</v>
       </c>
-      <c r="W2" s="20" t="s">
-        <v>20</v>
+      <c r="W2" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="X2" s="11"/>
-      <c r="Y2" s="36">
+      <c r="Y2" s="33">
         <v>9</v>
       </c>
       <c r="Z2" s="22" t="s">
@@ -944,10 +961,10 @@
         <v>25</v>
       </c>
       <c r="AB2" s="11"/>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="31"/>
+      <c r="AD2" s="36"/>
       <c r="AE2" s="11"/>
       <c r="AF2" s="22">
         <v>45</v>
@@ -965,13 +982,13 @@
       <c r="AK2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="12" t="s">
-        <v>25</v>
+      <c r="AL2" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="AM2" s="11"/>
     </row>
     <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="8">
         <v>51</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -985,14 +1002,14 @@
       <c r="L3" s="11"/>
       <c r="P3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="37">
-        <v>22</v>
+      <c r="U3" s="21">
+        <v>13</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>17</v>
+      <c r="V3" s="22" t="s">
+        <v>18</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>26</v>
+      <c r="W3" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="2">
@@ -1005,11 +1022,11 @@
         <v>21</v>
       </c>
       <c r="AB3" s="11"/>
-      <c r="AC3" s="38">
-        <v>21</v>
+      <c r="AC3" s="39">
+        <v>20</v>
       </c>
-      <c r="AD3" s="16" t="s">
-        <v>27</v>
+      <c r="AD3" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="2">
@@ -1034,7 +1051,7 @@
       <c r="AM3" s="11"/>
     </row>
     <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="7">
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1059,11 +1076,11 @@
         <v>23</v>
       </c>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="38">
-        <v>20</v>
+      <c r="AC4" s="39">
+        <v>21</v>
       </c>
-      <c r="AD4" s="17" t="s">
-        <v>18</v>
+      <c r="AD4" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="2">
@@ -1088,7 +1105,7 @@
       <c r="AM4" s="11"/>
     </row>
     <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="7">
         <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1113,8 +1130,6 @@
         <v>27</v>
       </c>
       <c r="AB5" s="11"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
       <c r="AE5" s="11"/>
       <c r="AI5" s="11"/>
       <c r="AM5" s="11"/>
@@ -1127,9 +1142,7 @@
       <c r="L6" s="11"/>
       <c r="P6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="V6" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="V6" s="15"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="2">
         <v>53</v>
@@ -1141,26 +1154,22 @@
         <v>18</v>
       </c>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="31" t="s">
+      <c r="AC6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="31"/>
+      <c r="AD6" s="36"/>
       <c r="AE6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AM6" s="11"/>
     </row>
     <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="B7" s="15"/>
       <c r="D7" s="11"/>
       <c r="H7" s="11"/>
       <c r="L7" s="11"/>
       <c r="P7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="V7" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="V7" s="15"/>
       <c r="X7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="19" t="s">
@@ -1174,9 +1183,7 @@
       <c r="AM7" s="11"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="B8" s="34"/>
       <c r="D8" s="1"/>
       <c r="H8" s="11"/>
       <c r="L8" s="11"/>
@@ -1208,7 +1215,7 @@
       <c r="AC9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AD9" s="32" t="s">
+      <c r="AD9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AE9" s="1"/>
@@ -1249,7 +1256,7 @@
       <c r="AC11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AD11" s="33" t="s">
+      <c r="AD11" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AE11" s="1"/>
@@ -1267,7 +1274,7 @@
       <c r="AC12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AD12" s="34" t="s">
+      <c r="AD12" s="31" t="s">
         <v>22</v>
       </c>
       <c r="AE12" s="1"/>
@@ -1294,10 +1301,10 @@
       <c r="T14" s="1"/>
       <c r="X14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="31" t="s">
+      <c r="AC14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AD14" s="31"/>
+      <c r="AD14" s="36"/>
       <c r="AE14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AM14" s="1"/>
@@ -1331,7 +1338,7 @@
       <c r="AC16" s="19">
         <v>4</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="32" t="s">
         <v>21</v>
       </c>
       <c r="AE16" s="1"/>
@@ -1385,7 +1392,7 @@
       <c r="AC19" s="19">
         <v>7</v>
       </c>
-      <c r="AD19" s="33" t="s">
+      <c r="AD19" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AE19" s="1"/>
@@ -1414,10 +1421,10 @@
       <c r="T21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="31" t="s">
+      <c r="AC21" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="31"/>
+      <c r="AD21" s="36"/>
       <c r="AE21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AM21" s="1"/>
@@ -1448,10 +1455,10 @@
       <c r="T23" s="1"/>
       <c r="X23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="38">
+      <c r="AC23" s="19">
         <v>9</v>
       </c>
-      <c r="AD23" s="35" t="s">
+      <c r="AD23" s="32" t="s">
         <v>21</v>
       </c>
       <c r="AE23" s="1"/>
@@ -1469,7 +1476,7 @@
       <c r="AC24" s="19">
         <v>10</v>
       </c>
-      <c r="AD24" s="33" t="s">
+      <c r="AD24" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AE24" s="1"/>
@@ -1550,6 +1557,10 @@
       <c r="T29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AB29" s="1"/>
+      <c r="AC29" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD29" s="36"/>
       <c r="AE29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AM29" s="1"/>
@@ -1562,6 +1573,10 @@
       <c r="T30" s="1"/>
       <c r="X30" s="1"/>
       <c r="AB30" s="1"/>
+      <c r="AC30" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD30" s="19"/>
       <c r="AE30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AM30" s="1"/>
@@ -1574,6 +1589,12 @@
       <c r="T31" s="1"/>
       <c r="X31" s="1"/>
       <c r="AB31" s="1"/>
+      <c r="AC31" s="39">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="AE31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AM31" s="1"/>
@@ -1586,6 +1607,12 @@
       <c r="T32" s="1"/>
       <c r="X32" s="1"/>
       <c r="AB32" s="1"/>
+      <c r="AC32" s="39">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="AE32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AM32" s="1"/>
@@ -1598,6 +1625,12 @@
       <c r="T33" s="1"/>
       <c r="X33" s="1"/>
       <c r="AB33" s="1"/>
+      <c r="AC33" s="39">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AE33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AM33" s="1"/>
@@ -1610,6 +1643,12 @@
       <c r="T34" s="1"/>
       <c r="X34" s="1"/>
       <c r="AB34" s="1"/>
+      <c r="AC34" s="39">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="AE34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AM34" s="1"/>
@@ -1622,6 +1661,12 @@
       <c r="T35" s="1"/>
       <c r="X35" s="1"/>
       <c r="AB35" s="1"/>
+      <c r="AC35" s="39">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="AE35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AM35" s="1"/>
@@ -1634,6 +1679,12 @@
       <c r="T36" s="1"/>
       <c r="X36" s="1"/>
       <c r="AB36" s="1"/>
+      <c r="AC36" s="39">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="AE36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AM36" s="1"/>
@@ -13195,12 +13246,13 @@
       <c r="AM999" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AC21:AD21"/>
     <mergeCell ref="AC1:AD1"/>

--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E4AD4-68A5-4370-95DA-0D67793DB52A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5D5A7-DAF3-4797-9B1A-9128ACBA94C7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,15 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,6 +468,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -796,7 +796,7 @@
   <dimension ref="A1:AM999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -830,69 +830,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="25"/>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
       <c r="P1" s="25"/>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
       <c r="T1" s="25"/>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
       <c r="X1" s="25"/>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
       <c r="AB1" s="26"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="37"/>
+      <c r="AD1" s="41"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AF1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
       <c r="AI1" s="25"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
       <c r="AM1" s="25"/>
     </row>
     <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
-        <v>11</v>
+      <c r="A2" s="38">
+        <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>12</v>
@@ -961,10 +961,10 @@
         <v>25</v>
       </c>
       <c r="AB2" s="11"/>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="11"/>
       <c r="AF2" s="22">
         <v>45</v>
@@ -982,7 +982,7 @@
       <c r="AK2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="40" t="s">
+      <c r="AL2" s="37" t="s">
         <v>45</v>
       </c>
       <c r="AM2" s="11"/>
@@ -1022,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="AB3" s="11"/>
-      <c r="AC3" s="39">
+      <c r="AC3" s="36">
         <v>20</v>
       </c>
       <c r="AD3" s="17" t="s">
@@ -1076,7 +1076,7 @@
         <v>23</v>
       </c>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="39">
+      <c r="AC4" s="36">
         <v>21</v>
       </c>
       <c r="AD4" s="16" t="s">
@@ -1154,10 +1154,10 @@
         <v>18</v>
       </c>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="36" t="s">
+      <c r="AC6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="36"/>
+      <c r="AD6" s="40"/>
       <c r="AE6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AM6" s="11"/>
@@ -1301,10 +1301,10 @@
       <c r="T14" s="1"/>
       <c r="X14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="36" t="s">
+      <c r="AC14" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AD14" s="36"/>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AM14" s="1"/>
@@ -1421,10 +1421,10 @@
       <c r="T21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="36" t="s">
+      <c r="AC21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="36"/>
+      <c r="AD21" s="40"/>
       <c r="AE21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AM21" s="1"/>
@@ -1557,10 +1557,10 @@
       <c r="T29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="36" t="s">
+      <c r="AC29" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="AD29" s="36"/>
+      <c r="AD29" s="40"/>
       <c r="AE29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AM29" s="1"/>
@@ -1589,7 +1589,7 @@
       <c r="T31" s="1"/>
       <c r="X31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="39">
+      <c r="AC31" s="36">
         <v>1</v>
       </c>
       <c r="AD31" s="29" t="s">
@@ -1607,7 +1607,7 @@
       <c r="T32" s="1"/>
       <c r="X32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="39">
+      <c r="AC32" s="36">
         <v>2</v>
       </c>
       <c r="AD32" s="17" t="s">
@@ -1625,7 +1625,7 @@
       <c r="T33" s="1"/>
       <c r="X33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="39">
+      <c r="AC33" s="36">
         <v>3</v>
       </c>
       <c r="AD33" s="16" t="s">
@@ -1643,7 +1643,7 @@
       <c r="T34" s="1"/>
       <c r="X34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="39">
+      <c r="AC34" s="36">
         <v>4</v>
       </c>
       <c r="AD34" s="19" t="s">
@@ -1661,7 +1661,7 @@
       <c r="T35" s="1"/>
       <c r="X35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="39">
+      <c r="AC35" s="36">
         <v>5</v>
       </c>
       <c r="AD35" s="32" t="s">
@@ -1679,7 +1679,7 @@
       <c r="T36" s="1"/>
       <c r="X36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="39">
+      <c r="AC36" s="36">
         <v>6</v>
       </c>
       <c r="AD36" s="10" t="s">
@@ -13247,11 +13247,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AC21:AD21"/>
@@ -13262,6 +13257,11 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC6:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5D5A7-DAF3-4797-9B1A-9128ACBA94C7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707E45A1-17DD-4366-86F4-3EADA7F1BB12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>SD</t>
   </si>
@@ -94,9 +94,6 @@
     <t>lj</t>
   </si>
   <si>
-    <t>revisar</t>
-  </si>
-  <si>
     <t>am</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>scl</t>
   </si>
   <si>
-    <t>interf tela</t>
-  </si>
-  <si>
     <t>am + rx</t>
   </si>
   <si>
@@ -212,7 +206,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,12 +276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -454,9 +442,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -464,19 +449,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -796,7 +781,7 @@
   <dimension ref="A1:AM999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -830,68 +815,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="25"/>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="25"/>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
       <c r="T1" s="25"/>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
       <c r="X1" s="25"/>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
       <c r="AB1" s="26"/>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="41"/>
+      <c r="AD1" s="39"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
       <c r="AI1" s="25"/>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
       <c r="AM1" s="25"/>
     </row>
     <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="37">
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -908,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="22">
@@ -918,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="22">
@@ -928,17 +913,17 @@
         <v>16</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="22">
         <v>43</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T2" s="11"/>
       <c r="U2" s="7">
@@ -948,29 +933,29 @@
         <v>17</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X2" s="11"/>
-      <c r="Y2" s="33">
-        <v>9</v>
+      <c r="Y2" s="2">
+        <v>30</v>
       </c>
       <c r="Z2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB2" s="11"/>
-      <c r="AC2" s="40" t="s">
-        <v>32</v>
+      <c r="AC2" s="38" t="s">
+        <v>31</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="11"/>
       <c r="AF2" s="22">
         <v>45</v>
       </c>
       <c r="AG2" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH2" s="24" t="s">
         <v>23</v>
@@ -982,8 +967,8 @@
       <c r="AK2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="37" t="s">
-        <v>45</v>
+      <c r="AL2" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="AM2" s="11"/>
     </row>
@@ -1022,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="AB3" s="11"/>
-      <c r="AC3" s="36">
+      <c r="AC3" s="35">
         <v>20</v>
       </c>
       <c r="AD3" s="17" t="s">
@@ -1033,10 +1018,10 @@
         <v>46</v>
       </c>
       <c r="AG3" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI3" s="11"/>
       <c r="AJ3" s="2">
@@ -1076,21 +1061,21 @@
         <v>23</v>
       </c>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="36">
+      <c r="AC4" s="35">
         <v>21</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="2">
         <v>47</v>
       </c>
       <c r="AG4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="2">
@@ -1100,7 +1085,7 @@
         <v>16</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM4" s="11"/>
     </row>
@@ -1127,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB5" s="11"/>
       <c r="AE5" s="11"/>
@@ -1154,10 +1139,10 @@
         <v>18</v>
       </c>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="40" t="s">
-        <v>33</v>
+      <c r="AC6" s="38" t="s">
+        <v>32</v>
       </c>
-      <c r="AD6" s="40"/>
+      <c r="AD6" s="38"/>
       <c r="AE6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AM6" s="11"/>
@@ -1173,7 +1158,7 @@
       <c r="X7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD7" s="17" t="s">
         <v>18</v>
@@ -1183,7 +1168,7 @@
       <c r="AM7" s="11"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
+      <c r="B8" s="33"/>
       <c r="D8" s="1"/>
       <c r="H8" s="11"/>
       <c r="L8" s="11"/>
@@ -1192,10 +1177,10 @@
       <c r="X8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AI8" s="1"/>
@@ -1208,15 +1193,13 @@
       <c r="P9" s="11"/>
       <c r="T9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Z9" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="Z9" s="15"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD9" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AI9" s="1"/>
@@ -1230,15 +1213,13 @@
       <c r="T10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="Z10" s="15"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD10" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AI10" s="1"/>
@@ -1254,10 +1235,10 @@
       <c r="Y11" s="3"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD11" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AI11" s="1"/>
@@ -1272,7 +1253,7 @@
       <c r="X12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD12" s="31" t="s">
         <v>22</v>
@@ -1301,10 +1282,10 @@
       <c r="T14" s="1"/>
       <c r="X14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="40" t="s">
-        <v>34</v>
+      <c r="AC14" s="38" t="s">
+        <v>33</v>
       </c>
-      <c r="AD14" s="40"/>
+      <c r="AD14" s="38"/>
       <c r="AE14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AM14" s="1"/>
@@ -1357,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AI17" s="1"/>
@@ -1375,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="AD18" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AI18" s="1"/>
@@ -1393,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="AD19" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE19" s="1"/>
       <c r="AI19" s="1"/>
@@ -1421,10 +1402,10 @@
       <c r="T21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="40" t="s">
-        <v>35</v>
+      <c r="AC21" s="38" t="s">
+        <v>34</v>
       </c>
-      <c r="AD21" s="40"/>
+      <c r="AD21" s="38"/>
       <c r="AE21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AM21" s="1"/>
@@ -1477,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="AD24" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE24" s="1"/>
       <c r="AI24" s="1"/>
@@ -1492,7 +1473,7 @@
       <c r="X25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD25" s="19" t="s">
         <v>20</v>
@@ -1510,7 +1491,7 @@
       <c r="X26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD26" s="24" t="s">
         <v>23</v>
@@ -1528,10 +1509,10 @@
       <c r="X27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD27" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AI27" s="1"/>
@@ -1557,10 +1538,10 @@
       <c r="T29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="40" t="s">
-        <v>46</v>
+      <c r="AC29" s="38" t="s">
+        <v>44</v>
       </c>
-      <c r="AD29" s="40"/>
+      <c r="AD29" s="38"/>
       <c r="AE29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AM29" s="1"/>
@@ -1573,8 +1554,8 @@
       <c r="T30" s="1"/>
       <c r="X30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="35" t="s">
-        <v>47</v>
+      <c r="AC30" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="AD30" s="19"/>
       <c r="AE30" s="1"/>
@@ -1589,11 +1570,11 @@
       <c r="T31" s="1"/>
       <c r="X31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="36">
+      <c r="AC31" s="35">
         <v>1</v>
       </c>
       <c r="AD31" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE31" s="1"/>
       <c r="AI31" s="1"/>
@@ -1607,7 +1588,7 @@
       <c r="T32" s="1"/>
       <c r="X32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="36">
+      <c r="AC32" s="35">
         <v>2</v>
       </c>
       <c r="AD32" s="17" t="s">
@@ -1625,11 +1606,11 @@
       <c r="T33" s="1"/>
       <c r="X33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="36">
+      <c r="AC33" s="35">
         <v>3</v>
       </c>
       <c r="AD33" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE33" s="1"/>
       <c r="AI33" s="1"/>
@@ -1643,7 +1624,7 @@
       <c r="T34" s="1"/>
       <c r="X34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="36">
+      <c r="AC34" s="35">
         <v>4</v>
       </c>
       <c r="AD34" s="19" t="s">
@@ -1661,7 +1642,7 @@
       <c r="T35" s="1"/>
       <c r="X35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="36">
+      <c r="AC35" s="35">
         <v>5</v>
       </c>
       <c r="AD35" s="32" t="s">
@@ -1679,7 +1660,7 @@
       <c r="T36" s="1"/>
       <c r="X36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="36">
+      <c r="AC36" s="35">
         <v>6</v>
       </c>
       <c r="AD36" s="10" t="s">
@@ -13247,6 +13228,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AC21:AD21"/>
@@ -13257,11 +13243,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC6:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREP\ChoppBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707E45A1-17DD-4366-86F4-3EADA7F1BB12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15A423EE-5436-410E-B3ED-C5AF3C1601BC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>SD</t>
   </si>
@@ -158,6 +158,39 @@
   </si>
   <si>
     <t>lado botao</t>
+  </si>
+  <si>
+    <t>RFID MURCH</t>
+  </si>
+  <si>
+    <t>sck</t>
+  </si>
+  <si>
+    <t>miso</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>pula</t>
+  </si>
+  <si>
+    <t>mosi</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>LED RFID</t>
+  </si>
+  <si>
+    <t>ctPINO_LED_RFID</t>
+  </si>
+  <si>
+    <t>ctPINO_BUZZER</t>
+  </si>
+  <si>
+    <t>BUZZER</t>
   </si>
 </sst>
 </file>
@@ -455,13 +488,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -778,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM999"/>
+  <dimension ref="A1:AV999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -812,70 +845,94 @@
     <col min="36" max="37" width="3" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.85546875" customWidth="1"/>
     <col min="39" max="39" width="3.85546875" customWidth="1"/>
+    <col min="40" max="40" width="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.7109375" customWidth="1"/>
+    <col min="43" max="43" width="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="25"/>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
       <c r="P1" s="25"/>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
       <c r="T1" s="25"/>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
       <c r="X1" s="25"/>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
       <c r="AB1" s="26"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="39"/>
+      <c r="AD1" s="40"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AF1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
       <c r="AI1" s="25"/>
-      <c r="AJ1" s="40" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
       <c r="AM1" s="25"/>
-    </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+    </row>
+    <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>24</v>
       </c>
@@ -946,10 +1003,10 @@
         <v>24</v>
       </c>
       <c r="AB2" s="11"/>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="39"/>
       <c r="AE2" s="11"/>
       <c r="AF2" s="22">
         <v>45</v>
@@ -971,8 +1028,29 @@
         <v>43</v>
       </c>
       <c r="AM2" s="11"/>
-    </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN2" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="2">
+        <v>32</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV2" s="17"/>
+    </row>
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>51</v>
       </c>
@@ -1034,8 +1112,17 @@
         <v>23</v>
       </c>
       <c r="AM3" s="11"/>
-    </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN3" s="2">
+        <v>50</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP3" s="10"/>
+      <c r="AS3" s="16"/>
+      <c r="AV3" s="16"/>
+    </row>
+    <row r="4" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>50</v>
       </c>
@@ -1088,8 +1175,17 @@
         <v>26</v>
       </c>
       <c r="AM4" s="11"/>
-    </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN4" s="2">
+        <v>51</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP4" s="16"/>
+      <c r="AS4" s="10"/>
+      <c r="AV4" s="10"/>
+    </row>
+    <row r="5" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>52</v>
       </c>
@@ -1118,8 +1214,17 @@
       <c r="AE5" s="11"/>
       <c r="AI5" s="11"/>
       <c r="AM5" s="11"/>
-    </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN5" s="2">
+        <v>53</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5" s="17"/>
+      <c r="AS5" s="16"/>
+      <c r="AV5" s="16"/>
+    </row>
+    <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="11"/>
@@ -1139,15 +1244,22 @@
         <v>18</v>
       </c>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="38" t="s">
+      <c r="AC6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="38"/>
+      <c r="AD6" s="39"/>
       <c r="AE6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AM6" s="11"/>
-    </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="17"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="17"/>
+    </row>
+    <row r="7" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="D7" s="11"/>
       <c r="H7" s="11"/>
@@ -1166,8 +1278,13 @@
       <c r="AE7" s="11"/>
       <c r="AI7" s="11"/>
       <c r="AM7" s="11"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN7"/>
+      <c r="AO7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP7"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
       <c r="D8" s="1"/>
       <c r="H8" s="11"/>
@@ -1185,8 +1302,13 @@
       <c r="AE8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AM8" s="1"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR8" s="2"/>
+      <c r="AU8" s="2"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="H9" s="11"/>
       <c r="L9" s="11"/>
@@ -1204,8 +1326,14 @@
       <c r="AE9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AM9" s="1"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR9" s="15"/>
+      <c r="AU9" s="15"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="H10" s="11"/>
       <c r="L10" s="11"/>
@@ -1224,8 +1352,12 @@
       <c r="AE10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AM10" s="1"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="15"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="15"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="H11" s="11"/>
       <c r="L11" s="11"/>
@@ -1243,8 +1375,11 @@
       <c r="AE11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AM11" s="1"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="11"/>
       <c r="L12" s="11"/>
@@ -1262,7 +1397,7 @@
       <c r="AI12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="11"/>
       <c r="L13" s="11"/>
@@ -1274,7 +1409,7 @@
       <c r="AI13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="11"/>
       <c r="L14" s="11"/>
@@ -1282,15 +1417,15 @@
       <c r="T14" s="1"/>
       <c r="X14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="38" t="s">
+      <c r="AC14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD14" s="38"/>
+      <c r="AD14" s="39"/>
       <c r="AE14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="H15" s="11"/>
       <c r="L15" s="11"/>
@@ -1308,7 +1443,7 @@
       <c r="AI15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="11"/>
       <c r="L16" s="11"/>
@@ -1402,10 +1537,10 @@
       <c r="T21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="38" t="s">
+      <c r="AC21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="AD21" s="38"/>
+      <c r="AD21" s="39"/>
       <c r="AE21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AM21" s="1"/>
@@ -1538,10 +1673,10 @@
       <c r="T29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="38" t="s">
+      <c r="AC29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AD29" s="38"/>
+      <c r="AD29" s="39"/>
       <c r="AE29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AM29" s="1"/>
@@ -13227,22 +13362,25 @@
       <c r="AM999" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC6:AD6"/>
+  <mergeCells count="18">
+    <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AC21:AD21"/>
     <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="U1:W1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AN1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREP\ChoppBot\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15A423EE-5436-410E-B3ED-C5AF3C1601BC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818F1679-E938-44E1-999D-86EB259CA3A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pinagem" sheetId="1" r:id="rId1"/>
+    <sheet name="pinagem na placa" sheetId="2" r:id="rId1"/>
+    <sheet name="pinagem" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
   <si>
     <t>SD</t>
   </si>
@@ -191,6 +192,18 @@
   </si>
   <si>
     <t>BUZZER</t>
+  </si>
+  <si>
+    <t>LED RGB</t>
+  </si>
+  <si>
+    <t>LED 1</t>
+  </si>
+  <si>
+    <t>LED 2</t>
+  </si>
+  <si>
+    <t>LED 3</t>
   </si>
 </sst>
 </file>
@@ -810,11 +823,8479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE53F2EC-05CA-4592-ABCB-D5AF7D078413}">
+  <dimension ref="A1:AC999"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="27" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="27" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" style="27" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="21" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" customWidth="1"/>
+    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="40"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <v>24</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="7">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="2">
+        <v>30</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="39"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="22">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="22">
+        <v>36</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="11"/>
+      <c r="X2" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="2">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="17"/>
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="21">
+        <v>13</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="35">
+        <v>20</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="2">
+        <v>37</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="35">
+        <v>21</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="2">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="2">
+        <v>38</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="X4" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="11"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2">
+        <v>53</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="D8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="2"/>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="15"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="39"/>
+      <c r="O14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="19">
+        <v>3</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="19">
+        <v>4</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="19">
+        <v>5</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="19">
+        <v>6</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="19">
+        <v>7</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="19">
+        <v>8</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="19">
+        <v>9</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="19">
+        <v>10</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="39"/>
+      <c r="O29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="35">
+        <v>1</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="35">
+        <v>2</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="35">
+        <v>3</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="35">
+        <v>4</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="35">
+        <v>5</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="35">
+        <v>6</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="W69" s="1"/>
+    </row>
+    <row r="70" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="W102" s="1"/>
+    </row>
+    <row r="103" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="W103" s="1"/>
+    </row>
+    <row r="104" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="W107" s="1"/>
+    </row>
+    <row r="108" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="W115" s="1"/>
+    </row>
+    <row r="116" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="W116" s="1"/>
+    </row>
+    <row r="117" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="W117" s="1"/>
+    </row>
+    <row r="118" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="W118" s="1"/>
+    </row>
+    <row r="119" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="W120" s="1"/>
+    </row>
+    <row r="121" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="W121" s="1"/>
+    </row>
+    <row r="122" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="W122" s="1"/>
+    </row>
+    <row r="123" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="W124" s="1"/>
+    </row>
+    <row r="125" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="W127" s="1"/>
+    </row>
+    <row r="128" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="W128" s="1"/>
+    </row>
+    <row r="129" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="W130" s="1"/>
+    </row>
+    <row r="131" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="W135" s="1"/>
+    </row>
+    <row r="136" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="W136" s="1"/>
+    </row>
+    <row r="137" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="W138" s="1"/>
+    </row>
+    <row r="139" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="W139" s="1"/>
+    </row>
+    <row r="140" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="W140" s="1"/>
+    </row>
+    <row r="141" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="W141" s="1"/>
+    </row>
+    <row r="142" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="W143" s="1"/>
+    </row>
+    <row r="144" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="W144" s="1"/>
+    </row>
+    <row r="145" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="W145" s="1"/>
+    </row>
+    <row r="146" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="W146" s="1"/>
+    </row>
+    <row r="147" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="W147" s="1"/>
+    </row>
+    <row r="148" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="W148" s="1"/>
+    </row>
+    <row r="149" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="W149" s="1"/>
+    </row>
+    <row r="150" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="W150" s="1"/>
+    </row>
+    <row r="151" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="W160" s="1"/>
+    </row>
+    <row r="161" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="W161" s="1"/>
+    </row>
+    <row r="162" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="W162" s="1"/>
+    </row>
+    <row r="163" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="W163" s="1"/>
+    </row>
+    <row r="164" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="W165" s="1"/>
+    </row>
+    <row r="166" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="W166" s="1"/>
+    </row>
+    <row r="167" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="W167" s="1"/>
+    </row>
+    <row r="168" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="W168" s="1"/>
+    </row>
+    <row r="169" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="W169" s="1"/>
+    </row>
+    <row r="170" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="W170" s="1"/>
+    </row>
+    <row r="171" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="W171" s="1"/>
+    </row>
+    <row r="172" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="W172" s="1"/>
+    </row>
+    <row r="173" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="W173" s="1"/>
+    </row>
+    <row r="174" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="W174" s="1"/>
+    </row>
+    <row r="175" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="W175" s="1"/>
+    </row>
+    <row r="176" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="W176" s="1"/>
+    </row>
+    <row r="177" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="W177" s="1"/>
+    </row>
+    <row r="178" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="W178" s="1"/>
+    </row>
+    <row r="179" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="W179" s="1"/>
+    </row>
+    <row r="180" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="W180" s="1"/>
+    </row>
+    <row r="181" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="W181" s="1"/>
+    </row>
+    <row r="182" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="W182" s="1"/>
+    </row>
+    <row r="183" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="W183" s="1"/>
+    </row>
+    <row r="184" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="W184" s="1"/>
+    </row>
+    <row r="185" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="W185" s="1"/>
+    </row>
+    <row r="186" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="W186" s="1"/>
+    </row>
+    <row r="187" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="W187" s="1"/>
+    </row>
+    <row r="188" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="W188" s="1"/>
+    </row>
+    <row r="189" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="W189" s="1"/>
+    </row>
+    <row r="190" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="W190" s="1"/>
+    </row>
+    <row r="191" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="W191" s="1"/>
+    </row>
+    <row r="192" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="W192" s="1"/>
+    </row>
+    <row r="193" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="W193" s="1"/>
+    </row>
+    <row r="194" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="W194" s="1"/>
+    </row>
+    <row r="195" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="W195" s="1"/>
+    </row>
+    <row r="196" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="W196" s="1"/>
+    </row>
+    <row r="197" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="W197" s="1"/>
+    </row>
+    <row r="198" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="W198" s="1"/>
+    </row>
+    <row r="199" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="W199" s="1"/>
+    </row>
+    <row r="200" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="W200" s="1"/>
+    </row>
+    <row r="201" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="W201" s="1"/>
+    </row>
+    <row r="202" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="W202" s="1"/>
+    </row>
+    <row r="203" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="W203" s="1"/>
+    </row>
+    <row r="204" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="W204" s="1"/>
+    </row>
+    <row r="205" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="W205" s="1"/>
+    </row>
+    <row r="206" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="W206" s="1"/>
+    </row>
+    <row r="207" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="W207" s="1"/>
+    </row>
+    <row r="208" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="W208" s="1"/>
+    </row>
+    <row r="209" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="W209" s="1"/>
+    </row>
+    <row r="210" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="W210" s="1"/>
+    </row>
+    <row r="211" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="W211" s="1"/>
+    </row>
+    <row r="212" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="W212" s="1"/>
+    </row>
+    <row r="213" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="W213" s="1"/>
+    </row>
+    <row r="214" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="W214" s="1"/>
+    </row>
+    <row r="215" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="W215" s="1"/>
+    </row>
+    <row r="216" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="W216" s="1"/>
+    </row>
+    <row r="217" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="W217" s="1"/>
+    </row>
+    <row r="218" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="W218" s="1"/>
+    </row>
+    <row r="219" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="W219" s="1"/>
+    </row>
+    <row r="220" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="W221" s="1"/>
+    </row>
+    <row r="222" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="W222" s="1"/>
+    </row>
+    <row r="223" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="W223" s="1"/>
+    </row>
+    <row r="224" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="W224" s="1"/>
+    </row>
+    <row r="225" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="W225" s="1"/>
+    </row>
+    <row r="226" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="W226" s="1"/>
+    </row>
+    <row r="227" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="W227" s="1"/>
+    </row>
+    <row r="228" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="W228" s="1"/>
+    </row>
+    <row r="229" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="W229" s="1"/>
+    </row>
+    <row r="230" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="W230" s="1"/>
+    </row>
+    <row r="231" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="W231" s="1"/>
+    </row>
+    <row r="232" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="W232" s="1"/>
+    </row>
+    <row r="233" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="W233" s="1"/>
+    </row>
+    <row r="234" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="W234" s="1"/>
+    </row>
+    <row r="235" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="W235" s="1"/>
+    </row>
+    <row r="236" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="W236" s="1"/>
+    </row>
+    <row r="237" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="W237" s="1"/>
+    </row>
+    <row r="238" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="W238" s="1"/>
+    </row>
+    <row r="239" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="W239" s="1"/>
+    </row>
+    <row r="240" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="W240" s="1"/>
+    </row>
+    <row r="241" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="W241" s="1"/>
+    </row>
+    <row r="242" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="W242" s="1"/>
+    </row>
+    <row r="243" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="W243" s="1"/>
+    </row>
+    <row r="244" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="W244" s="1"/>
+    </row>
+    <row r="245" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="W245" s="1"/>
+    </row>
+    <row r="246" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="W246" s="1"/>
+    </row>
+    <row r="247" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="W247" s="1"/>
+    </row>
+    <row r="248" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="W248" s="1"/>
+    </row>
+    <row r="249" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="W249" s="1"/>
+    </row>
+    <row r="250" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="W250" s="1"/>
+    </row>
+    <row r="251" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="W251" s="1"/>
+    </row>
+    <row r="252" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="W252" s="1"/>
+    </row>
+    <row r="253" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="W253" s="1"/>
+    </row>
+    <row r="254" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="W254" s="1"/>
+    </row>
+    <row r="255" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="W255" s="1"/>
+    </row>
+    <row r="256" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="W256" s="1"/>
+    </row>
+    <row r="257" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="W257" s="1"/>
+    </row>
+    <row r="258" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="W258" s="1"/>
+    </row>
+    <row r="259" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="W259" s="1"/>
+    </row>
+    <row r="260" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="W260" s="1"/>
+    </row>
+    <row r="261" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="W261" s="1"/>
+    </row>
+    <row r="262" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="W262" s="1"/>
+    </row>
+    <row r="263" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="W263" s="1"/>
+    </row>
+    <row r="264" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="W264" s="1"/>
+    </row>
+    <row r="265" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="W265" s="1"/>
+    </row>
+    <row r="266" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="W266" s="1"/>
+    </row>
+    <row r="267" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="W267" s="1"/>
+    </row>
+    <row r="268" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="W268" s="1"/>
+    </row>
+    <row r="269" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="W269" s="1"/>
+    </row>
+    <row r="270" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="W270" s="1"/>
+    </row>
+    <row r="271" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="W271" s="1"/>
+    </row>
+    <row r="272" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="W272" s="1"/>
+    </row>
+    <row r="273" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="W273" s="1"/>
+    </row>
+    <row r="274" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="S274" s="1"/>
+      <c r="W274" s="1"/>
+    </row>
+    <row r="275" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="L275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="S275" s="1"/>
+      <c r="W275" s="1"/>
+    </row>
+    <row r="276" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="L276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="S276" s="1"/>
+      <c r="W276" s="1"/>
+    </row>
+    <row r="277" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="L277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="S277" s="1"/>
+      <c r="W277" s="1"/>
+    </row>
+    <row r="278" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="W278" s="1"/>
+    </row>
+    <row r="279" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="L279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="S279" s="1"/>
+      <c r="W279" s="1"/>
+    </row>
+    <row r="280" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="S280" s="1"/>
+      <c r="W280" s="1"/>
+    </row>
+    <row r="281" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="S281" s="1"/>
+      <c r="W281" s="1"/>
+    </row>
+    <row r="282" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="S282" s="1"/>
+      <c r="W282" s="1"/>
+    </row>
+    <row r="283" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="W283" s="1"/>
+    </row>
+    <row r="284" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="W284" s="1"/>
+    </row>
+    <row r="285" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="W285" s="1"/>
+    </row>
+    <row r="286" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="W286" s="1"/>
+    </row>
+    <row r="287" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="W287" s="1"/>
+    </row>
+    <row r="288" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="W288" s="1"/>
+    </row>
+    <row r="289" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="S289" s="1"/>
+      <c r="W289" s="1"/>
+    </row>
+    <row r="290" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="W290" s="1"/>
+    </row>
+    <row r="291" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="W291" s="1"/>
+    </row>
+    <row r="292" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="S292" s="1"/>
+      <c r="W292" s="1"/>
+    </row>
+    <row r="293" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="S293" s="1"/>
+      <c r="W293" s="1"/>
+    </row>
+    <row r="294" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="W294" s="1"/>
+    </row>
+    <row r="295" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="L295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="W295" s="1"/>
+    </row>
+    <row r="296" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="W296" s="1"/>
+    </row>
+    <row r="297" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="W297" s="1"/>
+    </row>
+    <row r="298" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="L298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="W298" s="1"/>
+    </row>
+    <row r="299" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="L299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="W299" s="1"/>
+    </row>
+    <row r="300" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="W300" s="1"/>
+    </row>
+    <row r="301" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="S301" s="1"/>
+      <c r="W301" s="1"/>
+    </row>
+    <row r="302" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="S302" s="1"/>
+      <c r="W302" s="1"/>
+    </row>
+    <row r="303" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="W303" s="1"/>
+    </row>
+    <row r="304" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="O304" s="1"/>
+      <c r="S304" s="1"/>
+      <c r="W304" s="1"/>
+    </row>
+    <row r="305" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="S305" s="1"/>
+      <c r="W305" s="1"/>
+    </row>
+    <row r="306" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="O306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="W306" s="1"/>
+    </row>
+    <row r="307" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="O307" s="1"/>
+      <c r="S307" s="1"/>
+      <c r="W307" s="1"/>
+    </row>
+    <row r="308" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="O308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="W308" s="1"/>
+    </row>
+    <row r="309" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="O309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="W309" s="1"/>
+    </row>
+    <row r="310" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="L310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="S310" s="1"/>
+      <c r="W310" s="1"/>
+    </row>
+    <row r="311" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="L311" s="1"/>
+      <c r="O311" s="1"/>
+      <c r="S311" s="1"/>
+      <c r="W311" s="1"/>
+    </row>
+    <row r="312" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="L312" s="1"/>
+      <c r="O312" s="1"/>
+      <c r="S312" s="1"/>
+      <c r="W312" s="1"/>
+    </row>
+    <row r="313" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="L313" s="1"/>
+      <c r="O313" s="1"/>
+      <c r="S313" s="1"/>
+      <c r="W313" s="1"/>
+    </row>
+    <row r="314" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="L314" s="1"/>
+      <c r="O314" s="1"/>
+      <c r="S314" s="1"/>
+      <c r="W314" s="1"/>
+    </row>
+    <row r="315" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="L315" s="1"/>
+      <c r="O315" s="1"/>
+      <c r="S315" s="1"/>
+      <c r="W315" s="1"/>
+    </row>
+    <row r="316" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D316" s="1"/>
+      <c r="H316" s="1"/>
+      <c r="L316" s="1"/>
+      <c r="O316" s="1"/>
+      <c r="S316" s="1"/>
+      <c r="W316" s="1"/>
+    </row>
+    <row r="317" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D317" s="1"/>
+      <c r="H317" s="1"/>
+      <c r="L317" s="1"/>
+      <c r="O317" s="1"/>
+      <c r="S317" s="1"/>
+      <c r="W317" s="1"/>
+    </row>
+    <row r="318" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D318" s="1"/>
+      <c r="H318" s="1"/>
+      <c r="L318" s="1"/>
+      <c r="O318" s="1"/>
+      <c r="S318" s="1"/>
+      <c r="W318" s="1"/>
+    </row>
+    <row r="319" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D319" s="1"/>
+      <c r="H319" s="1"/>
+      <c r="L319" s="1"/>
+      <c r="O319" s="1"/>
+      <c r="S319" s="1"/>
+      <c r="W319" s="1"/>
+    </row>
+    <row r="320" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D320" s="1"/>
+      <c r="H320" s="1"/>
+      <c r="L320" s="1"/>
+      <c r="O320" s="1"/>
+      <c r="S320" s="1"/>
+      <c r="W320" s="1"/>
+    </row>
+    <row r="321" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D321" s="1"/>
+      <c r="H321" s="1"/>
+      <c r="L321" s="1"/>
+      <c r="O321" s="1"/>
+      <c r="S321" s="1"/>
+      <c r="W321" s="1"/>
+    </row>
+    <row r="322" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D322" s="1"/>
+      <c r="H322" s="1"/>
+      <c r="L322" s="1"/>
+      <c r="O322" s="1"/>
+      <c r="S322" s="1"/>
+      <c r="W322" s="1"/>
+    </row>
+    <row r="323" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D323" s="1"/>
+      <c r="H323" s="1"/>
+      <c r="L323" s="1"/>
+      <c r="O323" s="1"/>
+      <c r="S323" s="1"/>
+      <c r="W323" s="1"/>
+    </row>
+    <row r="324" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D324" s="1"/>
+      <c r="H324" s="1"/>
+      <c r="L324" s="1"/>
+      <c r="O324" s="1"/>
+      <c r="S324" s="1"/>
+      <c r="W324" s="1"/>
+    </row>
+    <row r="325" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="L325" s="1"/>
+      <c r="O325" s="1"/>
+      <c r="S325" s="1"/>
+      <c r="W325" s="1"/>
+    </row>
+    <row r="326" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D326" s="1"/>
+      <c r="H326" s="1"/>
+      <c r="L326" s="1"/>
+      <c r="O326" s="1"/>
+      <c r="S326" s="1"/>
+      <c r="W326" s="1"/>
+    </row>
+    <row r="327" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D327" s="1"/>
+      <c r="H327" s="1"/>
+      <c r="L327" s="1"/>
+      <c r="O327" s="1"/>
+      <c r="S327" s="1"/>
+      <c r="W327" s="1"/>
+    </row>
+    <row r="328" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="L328" s="1"/>
+      <c r="O328" s="1"/>
+      <c r="S328" s="1"/>
+      <c r="W328" s="1"/>
+    </row>
+    <row r="329" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="L329" s="1"/>
+      <c r="O329" s="1"/>
+      <c r="S329" s="1"/>
+      <c r="W329" s="1"/>
+    </row>
+    <row r="330" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D330" s="1"/>
+      <c r="H330" s="1"/>
+      <c r="L330" s="1"/>
+      <c r="O330" s="1"/>
+      <c r="S330" s="1"/>
+      <c r="W330" s="1"/>
+    </row>
+    <row r="331" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D331" s="1"/>
+      <c r="H331" s="1"/>
+      <c r="L331" s="1"/>
+      <c r="O331" s="1"/>
+      <c r="S331" s="1"/>
+      <c r="W331" s="1"/>
+    </row>
+    <row r="332" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D332" s="1"/>
+      <c r="H332" s="1"/>
+      <c r="L332" s="1"/>
+      <c r="O332" s="1"/>
+      <c r="S332" s="1"/>
+      <c r="W332" s="1"/>
+    </row>
+    <row r="333" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D333" s="1"/>
+      <c r="H333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="O333" s="1"/>
+      <c r="S333" s="1"/>
+      <c r="W333" s="1"/>
+    </row>
+    <row r="334" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D334" s="1"/>
+      <c r="H334" s="1"/>
+      <c r="L334" s="1"/>
+      <c r="O334" s="1"/>
+      <c r="S334" s="1"/>
+      <c r="W334" s="1"/>
+    </row>
+    <row r="335" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D335" s="1"/>
+      <c r="H335" s="1"/>
+      <c r="L335" s="1"/>
+      <c r="O335" s="1"/>
+      <c r="S335" s="1"/>
+      <c r="W335" s="1"/>
+    </row>
+    <row r="336" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D336" s="1"/>
+      <c r="H336" s="1"/>
+      <c r="L336" s="1"/>
+      <c r="O336" s="1"/>
+      <c r="S336" s="1"/>
+      <c r="W336" s="1"/>
+    </row>
+    <row r="337" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D337" s="1"/>
+      <c r="H337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="O337" s="1"/>
+      <c r="S337" s="1"/>
+      <c r="W337" s="1"/>
+    </row>
+    <row r="338" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D338" s="1"/>
+      <c r="H338" s="1"/>
+      <c r="L338" s="1"/>
+      <c r="O338" s="1"/>
+      <c r="S338" s="1"/>
+      <c r="W338" s="1"/>
+    </row>
+    <row r="339" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="O339" s="1"/>
+      <c r="S339" s="1"/>
+      <c r="W339" s="1"/>
+    </row>
+    <row r="340" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="O340" s="1"/>
+      <c r="S340" s="1"/>
+      <c r="W340" s="1"/>
+    </row>
+    <row r="341" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D341" s="1"/>
+      <c r="H341" s="1"/>
+      <c r="L341" s="1"/>
+      <c r="O341" s="1"/>
+      <c r="S341" s="1"/>
+      <c r="W341" s="1"/>
+    </row>
+    <row r="342" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D342" s="1"/>
+      <c r="H342" s="1"/>
+      <c r="L342" s="1"/>
+      <c r="O342" s="1"/>
+      <c r="S342" s="1"/>
+      <c r="W342" s="1"/>
+    </row>
+    <row r="343" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D343" s="1"/>
+      <c r="H343" s="1"/>
+      <c r="L343" s="1"/>
+      <c r="O343" s="1"/>
+      <c r="S343" s="1"/>
+      <c r="W343" s="1"/>
+    </row>
+    <row r="344" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D344" s="1"/>
+      <c r="H344" s="1"/>
+      <c r="L344" s="1"/>
+      <c r="O344" s="1"/>
+      <c r="S344" s="1"/>
+      <c r="W344" s="1"/>
+    </row>
+    <row r="345" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D345" s="1"/>
+      <c r="H345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="O345" s="1"/>
+      <c r="S345" s="1"/>
+      <c r="W345" s="1"/>
+    </row>
+    <row r="346" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D346" s="1"/>
+      <c r="H346" s="1"/>
+      <c r="L346" s="1"/>
+      <c r="O346" s="1"/>
+      <c r="S346" s="1"/>
+      <c r="W346" s="1"/>
+    </row>
+    <row r="347" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D347" s="1"/>
+      <c r="H347" s="1"/>
+      <c r="L347" s="1"/>
+      <c r="O347" s="1"/>
+      <c r="S347" s="1"/>
+      <c r="W347" s="1"/>
+    </row>
+    <row r="348" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="L348" s="1"/>
+      <c r="O348" s="1"/>
+      <c r="S348" s="1"/>
+      <c r="W348" s="1"/>
+    </row>
+    <row r="349" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="O349" s="1"/>
+      <c r="S349" s="1"/>
+      <c r="W349" s="1"/>
+    </row>
+    <row r="350" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="O350" s="1"/>
+      <c r="S350" s="1"/>
+      <c r="W350" s="1"/>
+    </row>
+    <row r="351" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="O351" s="1"/>
+      <c r="S351" s="1"/>
+      <c r="W351" s="1"/>
+    </row>
+    <row r="352" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="O352" s="1"/>
+      <c r="S352" s="1"/>
+      <c r="W352" s="1"/>
+    </row>
+    <row r="353" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="O353" s="1"/>
+      <c r="S353" s="1"/>
+      <c r="W353" s="1"/>
+    </row>
+    <row r="354" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="W354" s="1"/>
+    </row>
+    <row r="355" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D355" s="1"/>
+      <c r="H355" s="1"/>
+      <c r="L355" s="1"/>
+      <c r="O355" s="1"/>
+      <c r="S355" s="1"/>
+      <c r="W355" s="1"/>
+    </row>
+    <row r="356" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D356" s="1"/>
+      <c r="H356" s="1"/>
+      <c r="L356" s="1"/>
+      <c r="O356" s="1"/>
+      <c r="S356" s="1"/>
+      <c r="W356" s="1"/>
+    </row>
+    <row r="357" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="O357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="W357" s="1"/>
+    </row>
+    <row r="358" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="O358" s="1"/>
+      <c r="S358" s="1"/>
+      <c r="W358" s="1"/>
+    </row>
+    <row r="359" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="L359" s="1"/>
+      <c r="O359" s="1"/>
+      <c r="S359" s="1"/>
+      <c r="W359" s="1"/>
+    </row>
+    <row r="360" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D360" s="1"/>
+      <c r="H360" s="1"/>
+      <c r="L360" s="1"/>
+      <c r="O360" s="1"/>
+      <c r="S360" s="1"/>
+      <c r="W360" s="1"/>
+    </row>
+    <row r="361" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D361" s="1"/>
+      <c r="H361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="O361" s="1"/>
+      <c r="S361" s="1"/>
+      <c r="W361" s="1"/>
+    </row>
+    <row r="362" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D362" s="1"/>
+      <c r="H362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="O362" s="1"/>
+      <c r="S362" s="1"/>
+      <c r="W362" s="1"/>
+    </row>
+    <row r="363" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="O363" s="1"/>
+      <c r="S363" s="1"/>
+      <c r="W363" s="1"/>
+    </row>
+    <row r="364" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D364" s="1"/>
+      <c r="H364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="O364" s="1"/>
+      <c r="S364" s="1"/>
+      <c r="W364" s="1"/>
+    </row>
+    <row r="365" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D365" s="1"/>
+      <c r="H365" s="1"/>
+      <c r="L365" s="1"/>
+      <c r="O365" s="1"/>
+      <c r="S365" s="1"/>
+      <c r="W365" s="1"/>
+    </row>
+    <row r="366" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D366" s="1"/>
+      <c r="H366" s="1"/>
+      <c r="L366" s="1"/>
+      <c r="O366" s="1"/>
+      <c r="S366" s="1"/>
+      <c r="W366" s="1"/>
+    </row>
+    <row r="367" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D367" s="1"/>
+      <c r="H367" s="1"/>
+      <c r="L367" s="1"/>
+      <c r="O367" s="1"/>
+      <c r="S367" s="1"/>
+      <c r="W367" s="1"/>
+    </row>
+    <row r="368" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D368" s="1"/>
+      <c r="H368" s="1"/>
+      <c r="L368" s="1"/>
+      <c r="O368" s="1"/>
+      <c r="S368" s="1"/>
+      <c r="W368" s="1"/>
+    </row>
+    <row r="369" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D369" s="1"/>
+      <c r="H369" s="1"/>
+      <c r="L369" s="1"/>
+      <c r="O369" s="1"/>
+      <c r="S369" s="1"/>
+      <c r="W369" s="1"/>
+    </row>
+    <row r="370" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D370" s="1"/>
+      <c r="H370" s="1"/>
+      <c r="L370" s="1"/>
+      <c r="O370" s="1"/>
+      <c r="S370" s="1"/>
+      <c r="W370" s="1"/>
+    </row>
+    <row r="371" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D371" s="1"/>
+      <c r="H371" s="1"/>
+      <c r="L371" s="1"/>
+      <c r="O371" s="1"/>
+      <c r="S371" s="1"/>
+      <c r="W371" s="1"/>
+    </row>
+    <row r="372" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D372" s="1"/>
+      <c r="H372" s="1"/>
+      <c r="L372" s="1"/>
+      <c r="O372" s="1"/>
+      <c r="S372" s="1"/>
+      <c r="W372" s="1"/>
+    </row>
+    <row r="373" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D373" s="1"/>
+      <c r="H373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="O373" s="1"/>
+      <c r="S373" s="1"/>
+      <c r="W373" s="1"/>
+    </row>
+    <row r="374" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D374" s="1"/>
+      <c r="H374" s="1"/>
+      <c r="L374" s="1"/>
+      <c r="O374" s="1"/>
+      <c r="S374" s="1"/>
+      <c r="W374" s="1"/>
+    </row>
+    <row r="375" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D375" s="1"/>
+      <c r="H375" s="1"/>
+      <c r="L375" s="1"/>
+      <c r="O375" s="1"/>
+      <c r="S375" s="1"/>
+      <c r="W375" s="1"/>
+    </row>
+    <row r="376" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D376" s="1"/>
+      <c r="H376" s="1"/>
+      <c r="L376" s="1"/>
+      <c r="O376" s="1"/>
+      <c r="S376" s="1"/>
+      <c r="W376" s="1"/>
+    </row>
+    <row r="377" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D377" s="1"/>
+      <c r="H377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="O377" s="1"/>
+      <c r="S377" s="1"/>
+      <c r="W377" s="1"/>
+    </row>
+    <row r="378" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D378" s="1"/>
+      <c r="H378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="O378" s="1"/>
+      <c r="S378" s="1"/>
+      <c r="W378" s="1"/>
+    </row>
+    <row r="379" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D379" s="1"/>
+      <c r="H379" s="1"/>
+      <c r="L379" s="1"/>
+      <c r="O379" s="1"/>
+      <c r="S379" s="1"/>
+      <c r="W379" s="1"/>
+    </row>
+    <row r="380" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D380" s="1"/>
+      <c r="H380" s="1"/>
+      <c r="L380" s="1"/>
+      <c r="O380" s="1"/>
+      <c r="S380" s="1"/>
+      <c r="W380" s="1"/>
+    </row>
+    <row r="381" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D381" s="1"/>
+      <c r="H381" s="1"/>
+      <c r="L381" s="1"/>
+      <c r="O381" s="1"/>
+      <c r="S381" s="1"/>
+      <c r="W381" s="1"/>
+    </row>
+    <row r="382" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D382" s="1"/>
+      <c r="H382" s="1"/>
+      <c r="L382" s="1"/>
+      <c r="O382" s="1"/>
+      <c r="S382" s="1"/>
+      <c r="W382" s="1"/>
+    </row>
+    <row r="383" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D383" s="1"/>
+      <c r="H383" s="1"/>
+      <c r="L383" s="1"/>
+      <c r="O383" s="1"/>
+      <c r="S383" s="1"/>
+      <c r="W383" s="1"/>
+    </row>
+    <row r="384" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D384" s="1"/>
+      <c r="H384" s="1"/>
+      <c r="L384" s="1"/>
+      <c r="O384" s="1"/>
+      <c r="S384" s="1"/>
+      <c r="W384" s="1"/>
+    </row>
+    <row r="385" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="L385" s="1"/>
+      <c r="O385" s="1"/>
+      <c r="S385" s="1"/>
+      <c r="W385" s="1"/>
+    </row>
+    <row r="386" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D386" s="1"/>
+      <c r="H386" s="1"/>
+      <c r="L386" s="1"/>
+      <c r="O386" s="1"/>
+      <c r="S386" s="1"/>
+      <c r="W386" s="1"/>
+    </row>
+    <row r="387" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D387" s="1"/>
+      <c r="H387" s="1"/>
+      <c r="L387" s="1"/>
+      <c r="O387" s="1"/>
+      <c r="S387" s="1"/>
+      <c r="W387" s="1"/>
+    </row>
+    <row r="388" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D388" s="1"/>
+      <c r="H388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="O388" s="1"/>
+      <c r="S388" s="1"/>
+      <c r="W388" s="1"/>
+    </row>
+    <row r="389" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D389" s="1"/>
+      <c r="H389" s="1"/>
+      <c r="L389" s="1"/>
+      <c r="O389" s="1"/>
+      <c r="S389" s="1"/>
+      <c r="W389" s="1"/>
+    </row>
+    <row r="390" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D390" s="1"/>
+      <c r="H390" s="1"/>
+      <c r="L390" s="1"/>
+      <c r="O390" s="1"/>
+      <c r="S390" s="1"/>
+      <c r="W390" s="1"/>
+    </row>
+    <row r="391" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="O391" s="1"/>
+      <c r="S391" s="1"/>
+      <c r="W391" s="1"/>
+    </row>
+    <row r="392" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D392" s="1"/>
+      <c r="H392" s="1"/>
+      <c r="L392" s="1"/>
+      <c r="O392" s="1"/>
+      <c r="S392" s="1"/>
+      <c r="W392" s="1"/>
+    </row>
+    <row r="393" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="W393" s="1"/>
+    </row>
+    <row r="394" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D394" s="1"/>
+      <c r="H394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="O394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="W394" s="1"/>
+    </row>
+    <row r="395" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="L395" s="1"/>
+      <c r="O395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="W395" s="1"/>
+    </row>
+    <row r="396" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="W396" s="1"/>
+    </row>
+    <row r="397" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D397" s="1"/>
+      <c r="H397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="W397" s="1"/>
+    </row>
+    <row r="398" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D398" s="1"/>
+      <c r="H398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="W398" s="1"/>
+    </row>
+    <row r="399" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D399" s="1"/>
+      <c r="H399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="O399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="W399" s="1"/>
+    </row>
+    <row r="400" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D400" s="1"/>
+      <c r="H400" s="1"/>
+      <c r="L400" s="1"/>
+      <c r="O400" s="1"/>
+      <c r="S400" s="1"/>
+      <c r="W400" s="1"/>
+    </row>
+    <row r="401" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D401" s="1"/>
+      <c r="H401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="O401" s="1"/>
+      <c r="S401" s="1"/>
+      <c r="W401" s="1"/>
+    </row>
+    <row r="402" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D402" s="1"/>
+      <c r="H402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="O402" s="1"/>
+      <c r="S402" s="1"/>
+      <c r="W402" s="1"/>
+    </row>
+    <row r="403" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D403" s="1"/>
+      <c r="H403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="O403" s="1"/>
+      <c r="S403" s="1"/>
+      <c r="W403" s="1"/>
+    </row>
+    <row r="404" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D404" s="1"/>
+      <c r="H404" s="1"/>
+      <c r="L404" s="1"/>
+      <c r="O404" s="1"/>
+      <c r="S404" s="1"/>
+      <c r="W404" s="1"/>
+    </row>
+    <row r="405" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D405" s="1"/>
+      <c r="H405" s="1"/>
+      <c r="L405" s="1"/>
+      <c r="O405" s="1"/>
+      <c r="S405" s="1"/>
+      <c r="W405" s="1"/>
+    </row>
+    <row r="406" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D406" s="1"/>
+      <c r="H406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="O406" s="1"/>
+      <c r="S406" s="1"/>
+      <c r="W406" s="1"/>
+    </row>
+    <row r="407" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D407" s="1"/>
+      <c r="H407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="O407" s="1"/>
+      <c r="S407" s="1"/>
+      <c r="W407" s="1"/>
+    </row>
+    <row r="408" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D408" s="1"/>
+      <c r="H408" s="1"/>
+      <c r="L408" s="1"/>
+      <c r="O408" s="1"/>
+      <c r="S408" s="1"/>
+      <c r="W408" s="1"/>
+    </row>
+    <row r="409" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D409" s="1"/>
+      <c r="H409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="O409" s="1"/>
+      <c r="S409" s="1"/>
+      <c r="W409" s="1"/>
+    </row>
+    <row r="410" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D410" s="1"/>
+      <c r="H410" s="1"/>
+      <c r="L410" s="1"/>
+      <c r="O410" s="1"/>
+      <c r="S410" s="1"/>
+      <c r="W410" s="1"/>
+    </row>
+    <row r="411" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D411" s="1"/>
+      <c r="H411" s="1"/>
+      <c r="L411" s="1"/>
+      <c r="O411" s="1"/>
+      <c r="S411" s="1"/>
+      <c r="W411" s="1"/>
+    </row>
+    <row r="412" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D412" s="1"/>
+      <c r="H412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="O412" s="1"/>
+      <c r="S412" s="1"/>
+      <c r="W412" s="1"/>
+    </row>
+    <row r="413" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D413" s="1"/>
+      <c r="H413" s="1"/>
+      <c r="L413" s="1"/>
+      <c r="O413" s="1"/>
+      <c r="S413" s="1"/>
+      <c r="W413" s="1"/>
+    </row>
+    <row r="414" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="L414" s="1"/>
+      <c r="O414" s="1"/>
+      <c r="S414" s="1"/>
+      <c r="W414" s="1"/>
+    </row>
+    <row r="415" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D415" s="1"/>
+      <c r="H415" s="1"/>
+      <c r="L415" s="1"/>
+      <c r="O415" s="1"/>
+      <c r="S415" s="1"/>
+      <c r="W415" s="1"/>
+    </row>
+    <row r="416" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="O416" s="1"/>
+      <c r="S416" s="1"/>
+      <c r="W416" s="1"/>
+    </row>
+    <row r="417" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D417" s="1"/>
+      <c r="H417" s="1"/>
+      <c r="L417" s="1"/>
+      <c r="O417" s="1"/>
+      <c r="S417" s="1"/>
+      <c r="W417" s="1"/>
+    </row>
+    <row r="418" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D418" s="1"/>
+      <c r="H418" s="1"/>
+      <c r="L418" s="1"/>
+      <c r="O418" s="1"/>
+      <c r="S418" s="1"/>
+      <c r="W418" s="1"/>
+    </row>
+    <row r="419" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D419" s="1"/>
+      <c r="H419" s="1"/>
+      <c r="L419" s="1"/>
+      <c r="O419" s="1"/>
+      <c r="S419" s="1"/>
+      <c r="W419" s="1"/>
+    </row>
+    <row r="420" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D420" s="1"/>
+      <c r="H420" s="1"/>
+      <c r="L420" s="1"/>
+      <c r="O420" s="1"/>
+      <c r="S420" s="1"/>
+      <c r="W420" s="1"/>
+    </row>
+    <row r="421" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D421" s="1"/>
+      <c r="H421" s="1"/>
+      <c r="L421" s="1"/>
+      <c r="O421" s="1"/>
+      <c r="S421" s="1"/>
+      <c r="W421" s="1"/>
+    </row>
+    <row r="422" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D422" s="1"/>
+      <c r="H422" s="1"/>
+      <c r="L422" s="1"/>
+      <c r="O422" s="1"/>
+      <c r="S422" s="1"/>
+      <c r="W422" s="1"/>
+    </row>
+    <row r="423" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D423" s="1"/>
+      <c r="H423" s="1"/>
+      <c r="L423" s="1"/>
+      <c r="O423" s="1"/>
+      <c r="S423" s="1"/>
+      <c r="W423" s="1"/>
+    </row>
+    <row r="424" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D424" s="1"/>
+      <c r="H424" s="1"/>
+      <c r="L424" s="1"/>
+      <c r="O424" s="1"/>
+      <c r="S424" s="1"/>
+      <c r="W424" s="1"/>
+    </row>
+    <row r="425" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D425" s="1"/>
+      <c r="H425" s="1"/>
+      <c r="L425" s="1"/>
+      <c r="O425" s="1"/>
+      <c r="S425" s="1"/>
+      <c r="W425" s="1"/>
+    </row>
+    <row r="426" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D426" s="1"/>
+      <c r="H426" s="1"/>
+      <c r="L426" s="1"/>
+      <c r="O426" s="1"/>
+      <c r="S426" s="1"/>
+      <c r="W426" s="1"/>
+    </row>
+    <row r="427" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D427" s="1"/>
+      <c r="H427" s="1"/>
+      <c r="L427" s="1"/>
+      <c r="O427" s="1"/>
+      <c r="S427" s="1"/>
+      <c r="W427" s="1"/>
+    </row>
+    <row r="428" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D428" s="1"/>
+      <c r="H428" s="1"/>
+      <c r="L428" s="1"/>
+      <c r="O428" s="1"/>
+      <c r="S428" s="1"/>
+      <c r="W428" s="1"/>
+    </row>
+    <row r="429" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D429" s="1"/>
+      <c r="H429" s="1"/>
+      <c r="L429" s="1"/>
+      <c r="O429" s="1"/>
+      <c r="S429" s="1"/>
+      <c r="W429" s="1"/>
+    </row>
+    <row r="430" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D430" s="1"/>
+      <c r="H430" s="1"/>
+      <c r="L430" s="1"/>
+      <c r="O430" s="1"/>
+      <c r="S430" s="1"/>
+      <c r="W430" s="1"/>
+    </row>
+    <row r="431" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D431" s="1"/>
+      <c r="H431" s="1"/>
+      <c r="L431" s="1"/>
+      <c r="O431" s="1"/>
+      <c r="S431" s="1"/>
+      <c r="W431" s="1"/>
+    </row>
+    <row r="432" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D432" s="1"/>
+      <c r="H432" s="1"/>
+      <c r="L432" s="1"/>
+      <c r="O432" s="1"/>
+      <c r="S432" s="1"/>
+      <c r="W432" s="1"/>
+    </row>
+    <row r="433" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D433" s="1"/>
+      <c r="H433" s="1"/>
+      <c r="L433" s="1"/>
+      <c r="O433" s="1"/>
+      <c r="S433" s="1"/>
+      <c r="W433" s="1"/>
+    </row>
+    <row r="434" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D434" s="1"/>
+      <c r="H434" s="1"/>
+      <c r="L434" s="1"/>
+      <c r="O434" s="1"/>
+      <c r="S434" s="1"/>
+      <c r="W434" s="1"/>
+    </row>
+    <row r="435" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D435" s="1"/>
+      <c r="H435" s="1"/>
+      <c r="L435" s="1"/>
+      <c r="O435" s="1"/>
+      <c r="S435" s="1"/>
+      <c r="W435" s="1"/>
+    </row>
+    <row r="436" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D436" s="1"/>
+      <c r="H436" s="1"/>
+      <c r="L436" s="1"/>
+      <c r="O436" s="1"/>
+      <c r="S436" s="1"/>
+      <c r="W436" s="1"/>
+    </row>
+    <row r="437" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D437" s="1"/>
+      <c r="H437" s="1"/>
+      <c r="L437" s="1"/>
+      <c r="O437" s="1"/>
+      <c r="S437" s="1"/>
+      <c r="W437" s="1"/>
+    </row>
+    <row r="438" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D438" s="1"/>
+      <c r="H438" s="1"/>
+      <c r="L438" s="1"/>
+      <c r="O438" s="1"/>
+      <c r="S438" s="1"/>
+      <c r="W438" s="1"/>
+    </row>
+    <row r="439" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D439" s="1"/>
+      <c r="H439" s="1"/>
+      <c r="L439" s="1"/>
+      <c r="O439" s="1"/>
+      <c r="S439" s="1"/>
+      <c r="W439" s="1"/>
+    </row>
+    <row r="440" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D440" s="1"/>
+      <c r="H440" s="1"/>
+      <c r="L440" s="1"/>
+      <c r="O440" s="1"/>
+      <c r="S440" s="1"/>
+      <c r="W440" s="1"/>
+    </row>
+    <row r="441" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D441" s="1"/>
+      <c r="H441" s="1"/>
+      <c r="L441" s="1"/>
+      <c r="O441" s="1"/>
+      <c r="S441" s="1"/>
+      <c r="W441" s="1"/>
+    </row>
+    <row r="442" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D442" s="1"/>
+      <c r="H442" s="1"/>
+      <c r="L442" s="1"/>
+      <c r="O442" s="1"/>
+      <c r="S442" s="1"/>
+      <c r="W442" s="1"/>
+    </row>
+    <row r="443" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D443" s="1"/>
+      <c r="H443" s="1"/>
+      <c r="L443" s="1"/>
+      <c r="O443" s="1"/>
+      <c r="S443" s="1"/>
+      <c r="W443" s="1"/>
+    </row>
+    <row r="444" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D444" s="1"/>
+      <c r="H444" s="1"/>
+      <c r="L444" s="1"/>
+      <c r="O444" s="1"/>
+      <c r="S444" s="1"/>
+      <c r="W444" s="1"/>
+    </row>
+    <row r="445" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D445" s="1"/>
+      <c r="H445" s="1"/>
+      <c r="L445" s="1"/>
+      <c r="O445" s="1"/>
+      <c r="S445" s="1"/>
+      <c r="W445" s="1"/>
+    </row>
+    <row r="446" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D446" s="1"/>
+      <c r="H446" s="1"/>
+      <c r="L446" s="1"/>
+      <c r="O446" s="1"/>
+      <c r="S446" s="1"/>
+      <c r="W446" s="1"/>
+    </row>
+    <row r="447" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D447" s="1"/>
+      <c r="H447" s="1"/>
+      <c r="L447" s="1"/>
+      <c r="O447" s="1"/>
+      <c r="S447" s="1"/>
+      <c r="W447" s="1"/>
+    </row>
+    <row r="448" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D448" s="1"/>
+      <c r="H448" s="1"/>
+      <c r="L448" s="1"/>
+      <c r="O448" s="1"/>
+      <c r="S448" s="1"/>
+      <c r="W448" s="1"/>
+    </row>
+    <row r="449" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D449" s="1"/>
+      <c r="H449" s="1"/>
+      <c r="L449" s="1"/>
+      <c r="O449" s="1"/>
+      <c r="S449" s="1"/>
+      <c r="W449" s="1"/>
+    </row>
+    <row r="450" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D450" s="1"/>
+      <c r="H450" s="1"/>
+      <c r="L450" s="1"/>
+      <c r="O450" s="1"/>
+      <c r="S450" s="1"/>
+      <c r="W450" s="1"/>
+    </row>
+    <row r="451" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D451" s="1"/>
+      <c r="H451" s="1"/>
+      <c r="L451" s="1"/>
+      <c r="O451" s="1"/>
+      <c r="S451" s="1"/>
+      <c r="W451" s="1"/>
+    </row>
+    <row r="452" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D452" s="1"/>
+      <c r="H452" s="1"/>
+      <c r="L452" s="1"/>
+      <c r="O452" s="1"/>
+      <c r="S452" s="1"/>
+      <c r="W452" s="1"/>
+    </row>
+    <row r="453" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D453" s="1"/>
+      <c r="H453" s="1"/>
+      <c r="L453" s="1"/>
+      <c r="O453" s="1"/>
+      <c r="S453" s="1"/>
+      <c r="W453" s="1"/>
+    </row>
+    <row r="454" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D454" s="1"/>
+      <c r="H454" s="1"/>
+      <c r="L454" s="1"/>
+      <c r="O454" s="1"/>
+      <c r="S454" s="1"/>
+      <c r="W454" s="1"/>
+    </row>
+    <row r="455" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D455" s="1"/>
+      <c r="H455" s="1"/>
+      <c r="L455" s="1"/>
+      <c r="O455" s="1"/>
+      <c r="S455" s="1"/>
+      <c r="W455" s="1"/>
+    </row>
+    <row r="456" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D456" s="1"/>
+      <c r="H456" s="1"/>
+      <c r="L456" s="1"/>
+      <c r="O456" s="1"/>
+      <c r="S456" s="1"/>
+      <c r="W456" s="1"/>
+    </row>
+    <row r="457" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D457" s="1"/>
+      <c r="H457" s="1"/>
+      <c r="L457" s="1"/>
+      <c r="O457" s="1"/>
+      <c r="S457" s="1"/>
+      <c r="W457" s="1"/>
+    </row>
+    <row r="458" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D458" s="1"/>
+      <c r="H458" s="1"/>
+      <c r="L458" s="1"/>
+      <c r="O458" s="1"/>
+      <c r="S458" s="1"/>
+      <c r="W458" s="1"/>
+    </row>
+    <row r="459" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D459" s="1"/>
+      <c r="H459" s="1"/>
+      <c r="L459" s="1"/>
+      <c r="O459" s="1"/>
+      <c r="S459" s="1"/>
+      <c r="W459" s="1"/>
+    </row>
+    <row r="460" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D460" s="1"/>
+      <c r="H460" s="1"/>
+      <c r="L460" s="1"/>
+      <c r="O460" s="1"/>
+      <c r="S460" s="1"/>
+      <c r="W460" s="1"/>
+    </row>
+    <row r="461" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D461" s="1"/>
+      <c r="H461" s="1"/>
+      <c r="L461" s="1"/>
+      <c r="O461" s="1"/>
+      <c r="S461" s="1"/>
+      <c r="W461" s="1"/>
+    </row>
+    <row r="462" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D462" s="1"/>
+      <c r="H462" s="1"/>
+      <c r="L462" s="1"/>
+      <c r="O462" s="1"/>
+      <c r="S462" s="1"/>
+      <c r="W462" s="1"/>
+    </row>
+    <row r="463" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D463" s="1"/>
+      <c r="H463" s="1"/>
+      <c r="L463" s="1"/>
+      <c r="O463" s="1"/>
+      <c r="S463" s="1"/>
+      <c r="W463" s="1"/>
+    </row>
+    <row r="464" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D464" s="1"/>
+      <c r="H464" s="1"/>
+      <c r="L464" s="1"/>
+      <c r="O464" s="1"/>
+      <c r="S464" s="1"/>
+      <c r="W464" s="1"/>
+    </row>
+    <row r="465" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D465" s="1"/>
+      <c r="H465" s="1"/>
+      <c r="L465" s="1"/>
+      <c r="O465" s="1"/>
+      <c r="S465" s="1"/>
+      <c r="W465" s="1"/>
+    </row>
+    <row r="466" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D466" s="1"/>
+      <c r="H466" s="1"/>
+      <c r="L466" s="1"/>
+      <c r="O466" s="1"/>
+      <c r="S466" s="1"/>
+      <c r="W466" s="1"/>
+    </row>
+    <row r="467" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D467" s="1"/>
+      <c r="H467" s="1"/>
+      <c r="L467" s="1"/>
+      <c r="O467" s="1"/>
+      <c r="S467" s="1"/>
+      <c r="W467" s="1"/>
+    </row>
+    <row r="468" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D468" s="1"/>
+      <c r="H468" s="1"/>
+      <c r="L468" s="1"/>
+      <c r="O468" s="1"/>
+      <c r="S468" s="1"/>
+      <c r="W468" s="1"/>
+    </row>
+    <row r="469" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D469" s="1"/>
+      <c r="H469" s="1"/>
+      <c r="L469" s="1"/>
+      <c r="O469" s="1"/>
+      <c r="S469" s="1"/>
+      <c r="W469" s="1"/>
+    </row>
+    <row r="470" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D470" s="1"/>
+      <c r="H470" s="1"/>
+      <c r="L470" s="1"/>
+      <c r="O470" s="1"/>
+      <c r="S470" s="1"/>
+      <c r="W470" s="1"/>
+    </row>
+    <row r="471" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D471" s="1"/>
+      <c r="H471" s="1"/>
+      <c r="L471" s="1"/>
+      <c r="O471" s="1"/>
+      <c r="S471" s="1"/>
+      <c r="W471" s="1"/>
+    </row>
+    <row r="472" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D472" s="1"/>
+      <c r="H472" s="1"/>
+      <c r="L472" s="1"/>
+      <c r="O472" s="1"/>
+      <c r="S472" s="1"/>
+      <c r="W472" s="1"/>
+    </row>
+    <row r="473" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D473" s="1"/>
+      <c r="H473" s="1"/>
+      <c r="L473" s="1"/>
+      <c r="O473" s="1"/>
+      <c r="S473" s="1"/>
+      <c r="W473" s="1"/>
+    </row>
+    <row r="474" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D474" s="1"/>
+      <c r="H474" s="1"/>
+      <c r="L474" s="1"/>
+      <c r="O474" s="1"/>
+      <c r="S474" s="1"/>
+      <c r="W474" s="1"/>
+    </row>
+    <row r="475" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D475" s="1"/>
+      <c r="H475" s="1"/>
+      <c r="L475" s="1"/>
+      <c r="O475" s="1"/>
+      <c r="S475" s="1"/>
+      <c r="W475" s="1"/>
+    </row>
+    <row r="476" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D476" s="1"/>
+      <c r="H476" s="1"/>
+      <c r="L476" s="1"/>
+      <c r="O476" s="1"/>
+      <c r="S476" s="1"/>
+      <c r="W476" s="1"/>
+    </row>
+    <row r="477" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D477" s="1"/>
+      <c r="H477" s="1"/>
+      <c r="L477" s="1"/>
+      <c r="O477" s="1"/>
+      <c r="S477" s="1"/>
+      <c r="W477" s="1"/>
+    </row>
+    <row r="478" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D478" s="1"/>
+      <c r="H478" s="1"/>
+      <c r="L478" s="1"/>
+      <c r="O478" s="1"/>
+      <c r="S478" s="1"/>
+      <c r="W478" s="1"/>
+    </row>
+    <row r="479" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D479" s="1"/>
+      <c r="H479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="O479" s="1"/>
+      <c r="S479" s="1"/>
+      <c r="W479" s="1"/>
+    </row>
+    <row r="480" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D480" s="1"/>
+      <c r="H480" s="1"/>
+      <c r="L480" s="1"/>
+      <c r="O480" s="1"/>
+      <c r="S480" s="1"/>
+      <c r="W480" s="1"/>
+    </row>
+    <row r="481" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D481" s="1"/>
+      <c r="H481" s="1"/>
+      <c r="L481" s="1"/>
+      <c r="O481" s="1"/>
+      <c r="S481" s="1"/>
+      <c r="W481" s="1"/>
+    </row>
+    <row r="482" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D482" s="1"/>
+      <c r="H482" s="1"/>
+      <c r="L482" s="1"/>
+      <c r="O482" s="1"/>
+      <c r="S482" s="1"/>
+      <c r="W482" s="1"/>
+    </row>
+    <row r="483" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D483" s="1"/>
+      <c r="H483" s="1"/>
+      <c r="L483" s="1"/>
+      <c r="O483" s="1"/>
+      <c r="S483" s="1"/>
+      <c r="W483" s="1"/>
+    </row>
+    <row r="484" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D484" s="1"/>
+      <c r="H484" s="1"/>
+      <c r="L484" s="1"/>
+      <c r="O484" s="1"/>
+      <c r="S484" s="1"/>
+      <c r="W484" s="1"/>
+    </row>
+    <row r="485" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D485" s="1"/>
+      <c r="H485" s="1"/>
+      <c r="L485" s="1"/>
+      <c r="O485" s="1"/>
+      <c r="S485" s="1"/>
+      <c r="W485" s="1"/>
+    </row>
+    <row r="486" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D486" s="1"/>
+      <c r="H486" s="1"/>
+      <c r="L486" s="1"/>
+      <c r="O486" s="1"/>
+      <c r="S486" s="1"/>
+      <c r="W486" s="1"/>
+    </row>
+    <row r="487" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D487" s="1"/>
+      <c r="H487" s="1"/>
+      <c r="L487" s="1"/>
+      <c r="O487" s="1"/>
+      <c r="S487" s="1"/>
+      <c r="W487" s="1"/>
+    </row>
+    <row r="488" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D488" s="1"/>
+      <c r="H488" s="1"/>
+      <c r="L488" s="1"/>
+      <c r="O488" s="1"/>
+      <c r="S488" s="1"/>
+      <c r="W488" s="1"/>
+    </row>
+    <row r="489" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D489" s="1"/>
+      <c r="H489" s="1"/>
+      <c r="L489" s="1"/>
+      <c r="O489" s="1"/>
+      <c r="S489" s="1"/>
+      <c r="W489" s="1"/>
+    </row>
+    <row r="490" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D490" s="1"/>
+      <c r="H490" s="1"/>
+      <c r="L490" s="1"/>
+      <c r="O490" s="1"/>
+      <c r="S490" s="1"/>
+      <c r="W490" s="1"/>
+    </row>
+    <row r="491" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D491" s="1"/>
+      <c r="H491" s="1"/>
+      <c r="L491" s="1"/>
+      <c r="O491" s="1"/>
+      <c r="S491" s="1"/>
+      <c r="W491" s="1"/>
+    </row>
+    <row r="492" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D492" s="1"/>
+      <c r="H492" s="1"/>
+      <c r="L492" s="1"/>
+      <c r="O492" s="1"/>
+      <c r="S492" s="1"/>
+      <c r="W492" s="1"/>
+    </row>
+    <row r="493" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D493" s="1"/>
+      <c r="H493" s="1"/>
+      <c r="L493" s="1"/>
+      <c r="O493" s="1"/>
+      <c r="S493" s="1"/>
+      <c r="W493" s="1"/>
+    </row>
+    <row r="494" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D494" s="1"/>
+      <c r="H494" s="1"/>
+      <c r="L494" s="1"/>
+      <c r="O494" s="1"/>
+      <c r="S494" s="1"/>
+      <c r="W494" s="1"/>
+    </row>
+    <row r="495" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D495" s="1"/>
+      <c r="H495" s="1"/>
+      <c r="L495" s="1"/>
+      <c r="O495" s="1"/>
+      <c r="S495" s="1"/>
+      <c r="W495" s="1"/>
+    </row>
+    <row r="496" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D496" s="1"/>
+      <c r="H496" s="1"/>
+      <c r="L496" s="1"/>
+      <c r="O496" s="1"/>
+      <c r="S496" s="1"/>
+      <c r="W496" s="1"/>
+    </row>
+    <row r="497" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D497" s="1"/>
+      <c r="H497" s="1"/>
+      <c r="L497" s="1"/>
+      <c r="O497" s="1"/>
+      <c r="S497" s="1"/>
+      <c r="W497" s="1"/>
+    </row>
+    <row r="498" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D498" s="1"/>
+      <c r="H498" s="1"/>
+      <c r="L498" s="1"/>
+      <c r="O498" s="1"/>
+      <c r="S498" s="1"/>
+      <c r="W498" s="1"/>
+    </row>
+    <row r="499" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D499" s="1"/>
+      <c r="H499" s="1"/>
+      <c r="L499" s="1"/>
+      <c r="O499" s="1"/>
+      <c r="S499" s="1"/>
+      <c r="W499" s="1"/>
+    </row>
+    <row r="500" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D500" s="1"/>
+      <c r="H500" s="1"/>
+      <c r="L500" s="1"/>
+      <c r="O500" s="1"/>
+      <c r="S500" s="1"/>
+      <c r="W500" s="1"/>
+    </row>
+    <row r="501" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D501" s="1"/>
+      <c r="H501" s="1"/>
+      <c r="L501" s="1"/>
+      <c r="O501" s="1"/>
+      <c r="S501" s="1"/>
+      <c r="W501" s="1"/>
+    </row>
+    <row r="502" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D502" s="1"/>
+      <c r="H502" s="1"/>
+      <c r="L502" s="1"/>
+      <c r="O502" s="1"/>
+      <c r="S502" s="1"/>
+      <c r="W502" s="1"/>
+    </row>
+    <row r="503" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D503" s="1"/>
+      <c r="H503" s="1"/>
+      <c r="L503" s="1"/>
+      <c r="O503" s="1"/>
+      <c r="S503" s="1"/>
+      <c r="W503" s="1"/>
+    </row>
+    <row r="504" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D504" s="1"/>
+      <c r="H504" s="1"/>
+      <c r="L504" s="1"/>
+      <c r="O504" s="1"/>
+      <c r="S504" s="1"/>
+      <c r="W504" s="1"/>
+    </row>
+    <row r="505" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D505" s="1"/>
+      <c r="H505" s="1"/>
+      <c r="L505" s="1"/>
+      <c r="O505" s="1"/>
+      <c r="S505" s="1"/>
+      <c r="W505" s="1"/>
+    </row>
+    <row r="506" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D506" s="1"/>
+      <c r="H506" s="1"/>
+      <c r="L506" s="1"/>
+      <c r="O506" s="1"/>
+      <c r="S506" s="1"/>
+      <c r="W506" s="1"/>
+    </row>
+    <row r="507" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D507" s="1"/>
+      <c r="H507" s="1"/>
+      <c r="L507" s="1"/>
+      <c r="O507" s="1"/>
+      <c r="S507" s="1"/>
+      <c r="W507" s="1"/>
+    </row>
+    <row r="508" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D508" s="1"/>
+      <c r="H508" s="1"/>
+      <c r="L508" s="1"/>
+      <c r="O508" s="1"/>
+      <c r="S508" s="1"/>
+      <c r="W508" s="1"/>
+    </row>
+    <row r="509" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D509" s="1"/>
+      <c r="H509" s="1"/>
+      <c r="L509" s="1"/>
+      <c r="O509" s="1"/>
+      <c r="S509" s="1"/>
+      <c r="W509" s="1"/>
+    </row>
+    <row r="510" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D510" s="1"/>
+      <c r="H510" s="1"/>
+      <c r="L510" s="1"/>
+      <c r="O510" s="1"/>
+      <c r="S510" s="1"/>
+      <c r="W510" s="1"/>
+    </row>
+    <row r="511" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D511" s="1"/>
+      <c r="H511" s="1"/>
+      <c r="L511" s="1"/>
+      <c r="O511" s="1"/>
+      <c r="S511" s="1"/>
+      <c r="W511" s="1"/>
+    </row>
+    <row r="512" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D512" s="1"/>
+      <c r="H512" s="1"/>
+      <c r="L512" s="1"/>
+      <c r="O512" s="1"/>
+      <c r="S512" s="1"/>
+      <c r="W512" s="1"/>
+    </row>
+    <row r="513" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D513" s="1"/>
+      <c r="H513" s="1"/>
+      <c r="L513" s="1"/>
+      <c r="O513" s="1"/>
+      <c r="S513" s="1"/>
+      <c r="W513" s="1"/>
+    </row>
+    <row r="514" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D514" s="1"/>
+      <c r="H514" s="1"/>
+      <c r="L514" s="1"/>
+      <c r="O514" s="1"/>
+      <c r="S514" s="1"/>
+      <c r="W514" s="1"/>
+    </row>
+    <row r="515" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D515" s="1"/>
+      <c r="H515" s="1"/>
+      <c r="L515" s="1"/>
+      <c r="O515" s="1"/>
+      <c r="S515" s="1"/>
+      <c r="W515" s="1"/>
+    </row>
+    <row r="516" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D516" s="1"/>
+      <c r="H516" s="1"/>
+      <c r="L516" s="1"/>
+      <c r="O516" s="1"/>
+      <c r="S516" s="1"/>
+      <c r="W516" s="1"/>
+    </row>
+    <row r="517" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D517" s="1"/>
+      <c r="H517" s="1"/>
+      <c r="L517" s="1"/>
+      <c r="O517" s="1"/>
+      <c r="S517" s="1"/>
+      <c r="W517" s="1"/>
+    </row>
+    <row r="518" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D518" s="1"/>
+      <c r="H518" s="1"/>
+      <c r="L518" s="1"/>
+      <c r="O518" s="1"/>
+      <c r="S518" s="1"/>
+      <c r="W518" s="1"/>
+    </row>
+    <row r="519" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D519" s="1"/>
+      <c r="H519" s="1"/>
+      <c r="L519" s="1"/>
+      <c r="O519" s="1"/>
+      <c r="S519" s="1"/>
+      <c r="W519" s="1"/>
+    </row>
+    <row r="520" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D520" s="1"/>
+      <c r="H520" s="1"/>
+      <c r="L520" s="1"/>
+      <c r="O520" s="1"/>
+      <c r="S520" s="1"/>
+      <c r="W520" s="1"/>
+    </row>
+    <row r="521" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D521" s="1"/>
+      <c r="H521" s="1"/>
+      <c r="L521" s="1"/>
+      <c r="O521" s="1"/>
+      <c r="S521" s="1"/>
+      <c r="W521" s="1"/>
+    </row>
+    <row r="522" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D522" s="1"/>
+      <c r="H522" s="1"/>
+      <c r="L522" s="1"/>
+      <c r="O522" s="1"/>
+      <c r="S522" s="1"/>
+      <c r="W522" s="1"/>
+    </row>
+    <row r="523" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D523" s="1"/>
+      <c r="H523" s="1"/>
+      <c r="L523" s="1"/>
+      <c r="O523" s="1"/>
+      <c r="S523" s="1"/>
+      <c r="W523" s="1"/>
+    </row>
+    <row r="524" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D524" s="1"/>
+      <c r="H524" s="1"/>
+      <c r="L524" s="1"/>
+      <c r="O524" s="1"/>
+      <c r="S524" s="1"/>
+      <c r="W524" s="1"/>
+    </row>
+    <row r="525" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D525" s="1"/>
+      <c r="H525" s="1"/>
+      <c r="L525" s="1"/>
+      <c r="O525" s="1"/>
+      <c r="S525" s="1"/>
+      <c r="W525" s="1"/>
+    </row>
+    <row r="526" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D526" s="1"/>
+      <c r="H526" s="1"/>
+      <c r="L526" s="1"/>
+      <c r="O526" s="1"/>
+      <c r="S526" s="1"/>
+      <c r="W526" s="1"/>
+    </row>
+    <row r="527" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D527" s="1"/>
+      <c r="H527" s="1"/>
+      <c r="L527" s="1"/>
+      <c r="O527" s="1"/>
+      <c r="S527" s="1"/>
+      <c r="W527" s="1"/>
+    </row>
+    <row r="528" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D528" s="1"/>
+      <c r="H528" s="1"/>
+      <c r="L528" s="1"/>
+      <c r="O528" s="1"/>
+      <c r="S528" s="1"/>
+      <c r="W528" s="1"/>
+    </row>
+    <row r="529" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D529" s="1"/>
+      <c r="H529" s="1"/>
+      <c r="L529" s="1"/>
+      <c r="O529" s="1"/>
+      <c r="S529" s="1"/>
+      <c r="W529" s="1"/>
+    </row>
+    <row r="530" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D530" s="1"/>
+      <c r="H530" s="1"/>
+      <c r="L530" s="1"/>
+      <c r="O530" s="1"/>
+      <c r="S530" s="1"/>
+      <c r="W530" s="1"/>
+    </row>
+    <row r="531" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D531" s="1"/>
+      <c r="H531" s="1"/>
+      <c r="L531" s="1"/>
+      <c r="O531" s="1"/>
+      <c r="S531" s="1"/>
+      <c r="W531" s="1"/>
+    </row>
+    <row r="532" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D532" s="1"/>
+      <c r="H532" s="1"/>
+      <c r="L532" s="1"/>
+      <c r="O532" s="1"/>
+      <c r="S532" s="1"/>
+      <c r="W532" s="1"/>
+    </row>
+    <row r="533" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D533" s="1"/>
+      <c r="H533" s="1"/>
+      <c r="L533" s="1"/>
+      <c r="O533" s="1"/>
+      <c r="S533" s="1"/>
+      <c r="W533" s="1"/>
+    </row>
+    <row r="534" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D534" s="1"/>
+      <c r="H534" s="1"/>
+      <c r="L534" s="1"/>
+      <c r="O534" s="1"/>
+      <c r="S534" s="1"/>
+      <c r="W534" s="1"/>
+    </row>
+    <row r="535" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D535" s="1"/>
+      <c r="H535" s="1"/>
+      <c r="L535" s="1"/>
+      <c r="O535" s="1"/>
+      <c r="S535" s="1"/>
+      <c r="W535" s="1"/>
+    </row>
+    <row r="536" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D536" s="1"/>
+      <c r="H536" s="1"/>
+      <c r="L536" s="1"/>
+      <c r="O536" s="1"/>
+      <c r="S536" s="1"/>
+      <c r="W536" s="1"/>
+    </row>
+    <row r="537" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D537" s="1"/>
+      <c r="H537" s="1"/>
+      <c r="L537" s="1"/>
+      <c r="O537" s="1"/>
+      <c r="S537" s="1"/>
+      <c r="W537" s="1"/>
+    </row>
+    <row r="538" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D538" s="1"/>
+      <c r="H538" s="1"/>
+      <c r="L538" s="1"/>
+      <c r="O538" s="1"/>
+      <c r="S538" s="1"/>
+      <c r="W538" s="1"/>
+    </row>
+    <row r="539" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D539" s="1"/>
+      <c r="H539" s="1"/>
+      <c r="L539" s="1"/>
+      <c r="O539" s="1"/>
+      <c r="S539" s="1"/>
+      <c r="W539" s="1"/>
+    </row>
+    <row r="540" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D540" s="1"/>
+      <c r="H540" s="1"/>
+      <c r="L540" s="1"/>
+      <c r="O540" s="1"/>
+      <c r="S540" s="1"/>
+      <c r="W540" s="1"/>
+    </row>
+    <row r="541" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D541" s="1"/>
+      <c r="H541" s="1"/>
+      <c r="L541" s="1"/>
+      <c r="O541" s="1"/>
+      <c r="S541" s="1"/>
+      <c r="W541" s="1"/>
+    </row>
+    <row r="542" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D542" s="1"/>
+      <c r="H542" s="1"/>
+      <c r="L542" s="1"/>
+      <c r="O542" s="1"/>
+      <c r="S542" s="1"/>
+      <c r="W542" s="1"/>
+    </row>
+    <row r="543" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D543" s="1"/>
+      <c r="H543" s="1"/>
+      <c r="L543" s="1"/>
+      <c r="O543" s="1"/>
+      <c r="S543" s="1"/>
+      <c r="W543" s="1"/>
+    </row>
+    <row r="544" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D544" s="1"/>
+      <c r="H544" s="1"/>
+      <c r="L544" s="1"/>
+      <c r="O544" s="1"/>
+      <c r="S544" s="1"/>
+      <c r="W544" s="1"/>
+    </row>
+    <row r="545" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D545" s="1"/>
+      <c r="H545" s="1"/>
+      <c r="L545" s="1"/>
+      <c r="O545" s="1"/>
+      <c r="S545" s="1"/>
+      <c r="W545" s="1"/>
+    </row>
+    <row r="546" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D546" s="1"/>
+      <c r="H546" s="1"/>
+      <c r="L546" s="1"/>
+      <c r="O546" s="1"/>
+      <c r="S546" s="1"/>
+      <c r="W546" s="1"/>
+    </row>
+    <row r="547" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D547" s="1"/>
+      <c r="H547" s="1"/>
+      <c r="L547" s="1"/>
+      <c r="O547" s="1"/>
+      <c r="S547" s="1"/>
+      <c r="W547" s="1"/>
+    </row>
+    <row r="548" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D548" s="1"/>
+      <c r="H548" s="1"/>
+      <c r="L548" s="1"/>
+      <c r="O548" s="1"/>
+      <c r="S548" s="1"/>
+      <c r="W548" s="1"/>
+    </row>
+    <row r="549" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D549" s="1"/>
+      <c r="H549" s="1"/>
+      <c r="L549" s="1"/>
+      <c r="O549" s="1"/>
+      <c r="S549" s="1"/>
+      <c r="W549" s="1"/>
+    </row>
+    <row r="550" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D550" s="1"/>
+      <c r="H550" s="1"/>
+      <c r="L550" s="1"/>
+      <c r="O550" s="1"/>
+      <c r="S550" s="1"/>
+      <c r="W550" s="1"/>
+    </row>
+    <row r="551" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D551" s="1"/>
+      <c r="H551" s="1"/>
+      <c r="L551" s="1"/>
+      <c r="O551" s="1"/>
+      <c r="S551" s="1"/>
+      <c r="W551" s="1"/>
+    </row>
+    <row r="552" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D552" s="1"/>
+      <c r="H552" s="1"/>
+      <c r="L552" s="1"/>
+      <c r="O552" s="1"/>
+      <c r="S552" s="1"/>
+      <c r="W552" s="1"/>
+    </row>
+    <row r="553" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D553" s="1"/>
+      <c r="H553" s="1"/>
+      <c r="L553" s="1"/>
+      <c r="O553" s="1"/>
+      <c r="S553" s="1"/>
+      <c r="W553" s="1"/>
+    </row>
+    <row r="554" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D554" s="1"/>
+      <c r="H554" s="1"/>
+      <c r="L554" s="1"/>
+      <c r="O554" s="1"/>
+      <c r="S554" s="1"/>
+      <c r="W554" s="1"/>
+    </row>
+    <row r="555" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D555" s="1"/>
+      <c r="H555" s="1"/>
+      <c r="L555" s="1"/>
+      <c r="O555" s="1"/>
+      <c r="S555" s="1"/>
+      <c r="W555" s="1"/>
+    </row>
+    <row r="556" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D556" s="1"/>
+      <c r="H556" s="1"/>
+      <c r="L556" s="1"/>
+      <c r="O556" s="1"/>
+      <c r="S556" s="1"/>
+      <c r="W556" s="1"/>
+    </row>
+    <row r="557" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D557" s="1"/>
+      <c r="H557" s="1"/>
+      <c r="L557" s="1"/>
+      <c r="O557" s="1"/>
+      <c r="S557" s="1"/>
+      <c r="W557" s="1"/>
+    </row>
+    <row r="558" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D558" s="1"/>
+      <c r="H558" s="1"/>
+      <c r="L558" s="1"/>
+      <c r="O558" s="1"/>
+      <c r="S558" s="1"/>
+      <c r="W558" s="1"/>
+    </row>
+    <row r="559" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D559" s="1"/>
+      <c r="H559" s="1"/>
+      <c r="L559" s="1"/>
+      <c r="O559" s="1"/>
+      <c r="S559" s="1"/>
+      <c r="W559" s="1"/>
+    </row>
+    <row r="560" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D560" s="1"/>
+      <c r="H560" s="1"/>
+      <c r="L560" s="1"/>
+      <c r="O560" s="1"/>
+      <c r="S560" s="1"/>
+      <c r="W560" s="1"/>
+    </row>
+    <row r="561" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D561" s="1"/>
+      <c r="H561" s="1"/>
+      <c r="L561" s="1"/>
+      <c r="O561" s="1"/>
+      <c r="S561" s="1"/>
+      <c r="W561" s="1"/>
+    </row>
+    <row r="562" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D562" s="1"/>
+      <c r="H562" s="1"/>
+      <c r="L562" s="1"/>
+      <c r="O562" s="1"/>
+      <c r="S562" s="1"/>
+      <c r="W562" s="1"/>
+    </row>
+    <row r="563" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D563" s="1"/>
+      <c r="H563" s="1"/>
+      <c r="L563" s="1"/>
+      <c r="O563" s="1"/>
+      <c r="S563" s="1"/>
+      <c r="W563" s="1"/>
+    </row>
+    <row r="564" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D564" s="1"/>
+      <c r="H564" s="1"/>
+      <c r="L564" s="1"/>
+      <c r="O564" s="1"/>
+      <c r="S564" s="1"/>
+      <c r="W564" s="1"/>
+    </row>
+    <row r="565" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D565" s="1"/>
+      <c r="H565" s="1"/>
+      <c r="L565" s="1"/>
+      <c r="O565" s="1"/>
+      <c r="S565" s="1"/>
+      <c r="W565" s="1"/>
+    </row>
+    <row r="566" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D566" s="1"/>
+      <c r="H566" s="1"/>
+      <c r="L566" s="1"/>
+      <c r="O566" s="1"/>
+      <c r="S566" s="1"/>
+      <c r="W566" s="1"/>
+    </row>
+    <row r="567" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D567" s="1"/>
+      <c r="H567" s="1"/>
+      <c r="L567" s="1"/>
+      <c r="O567" s="1"/>
+      <c r="S567" s="1"/>
+      <c r="W567" s="1"/>
+    </row>
+    <row r="568" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D568" s="1"/>
+      <c r="H568" s="1"/>
+      <c r="L568" s="1"/>
+      <c r="O568" s="1"/>
+      <c r="S568" s="1"/>
+      <c r="W568" s="1"/>
+    </row>
+    <row r="569" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D569" s="1"/>
+      <c r="H569" s="1"/>
+      <c r="L569" s="1"/>
+      <c r="O569" s="1"/>
+      <c r="S569" s="1"/>
+      <c r="W569" s="1"/>
+    </row>
+    <row r="570" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D570" s="1"/>
+      <c r="H570" s="1"/>
+      <c r="L570" s="1"/>
+      <c r="O570" s="1"/>
+      <c r="S570" s="1"/>
+      <c r="W570" s="1"/>
+    </row>
+    <row r="571" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D571" s="1"/>
+      <c r="H571" s="1"/>
+      <c r="L571" s="1"/>
+      <c r="O571" s="1"/>
+      <c r="S571" s="1"/>
+      <c r="W571" s="1"/>
+    </row>
+    <row r="572" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D572" s="1"/>
+      <c r="H572" s="1"/>
+      <c r="L572" s="1"/>
+      <c r="O572" s="1"/>
+      <c r="S572" s="1"/>
+      <c r="W572" s="1"/>
+    </row>
+    <row r="573" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D573" s="1"/>
+      <c r="H573" s="1"/>
+      <c r="L573" s="1"/>
+      <c r="O573" s="1"/>
+      <c r="S573" s="1"/>
+      <c r="W573" s="1"/>
+    </row>
+    <row r="574" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D574" s="1"/>
+      <c r="H574" s="1"/>
+      <c r="L574" s="1"/>
+      <c r="O574" s="1"/>
+      <c r="S574" s="1"/>
+      <c r="W574" s="1"/>
+    </row>
+    <row r="575" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D575" s="1"/>
+      <c r="H575" s="1"/>
+      <c r="L575" s="1"/>
+      <c r="O575" s="1"/>
+      <c r="S575" s="1"/>
+      <c r="W575" s="1"/>
+    </row>
+    <row r="576" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D576" s="1"/>
+      <c r="H576" s="1"/>
+      <c r="L576" s="1"/>
+      <c r="O576" s="1"/>
+      <c r="S576" s="1"/>
+      <c r="W576" s="1"/>
+    </row>
+    <row r="577" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D577" s="1"/>
+      <c r="H577" s="1"/>
+      <c r="L577" s="1"/>
+      <c r="O577" s="1"/>
+      <c r="S577" s="1"/>
+      <c r="W577" s="1"/>
+    </row>
+    <row r="578" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D578" s="1"/>
+      <c r="H578" s="1"/>
+      <c r="L578" s="1"/>
+      <c r="O578" s="1"/>
+      <c r="S578" s="1"/>
+      <c r="W578" s="1"/>
+    </row>
+    <row r="579" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D579" s="1"/>
+      <c r="H579" s="1"/>
+      <c r="L579" s="1"/>
+      <c r="O579" s="1"/>
+      <c r="S579" s="1"/>
+      <c r="W579" s="1"/>
+    </row>
+    <row r="580" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D580" s="1"/>
+      <c r="H580" s="1"/>
+      <c r="L580" s="1"/>
+      <c r="O580" s="1"/>
+      <c r="S580" s="1"/>
+      <c r="W580" s="1"/>
+    </row>
+    <row r="581" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D581" s="1"/>
+      <c r="H581" s="1"/>
+      <c r="L581" s="1"/>
+      <c r="O581" s="1"/>
+      <c r="S581" s="1"/>
+      <c r="W581" s="1"/>
+    </row>
+    <row r="582" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D582" s="1"/>
+      <c r="H582" s="1"/>
+      <c r="L582" s="1"/>
+      <c r="O582" s="1"/>
+      <c r="S582" s="1"/>
+      <c r="W582" s="1"/>
+    </row>
+    <row r="583" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D583" s="1"/>
+      <c r="H583" s="1"/>
+      <c r="L583" s="1"/>
+      <c r="O583" s="1"/>
+      <c r="S583" s="1"/>
+      <c r="W583" s="1"/>
+    </row>
+    <row r="584" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D584" s="1"/>
+      <c r="H584" s="1"/>
+      <c r="L584" s="1"/>
+      <c r="O584" s="1"/>
+      <c r="S584" s="1"/>
+      <c r="W584" s="1"/>
+    </row>
+    <row r="585" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D585" s="1"/>
+      <c r="H585" s="1"/>
+      <c r="L585" s="1"/>
+      <c r="O585" s="1"/>
+      <c r="S585" s="1"/>
+      <c r="W585" s="1"/>
+    </row>
+    <row r="586" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D586" s="1"/>
+      <c r="H586" s="1"/>
+      <c r="L586" s="1"/>
+      <c r="O586" s="1"/>
+      <c r="S586" s="1"/>
+      <c r="W586" s="1"/>
+    </row>
+    <row r="587" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D587" s="1"/>
+      <c r="H587" s="1"/>
+      <c r="L587" s="1"/>
+      <c r="O587" s="1"/>
+      <c r="S587" s="1"/>
+      <c r="W587" s="1"/>
+    </row>
+    <row r="588" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D588" s="1"/>
+      <c r="H588" s="1"/>
+      <c r="L588" s="1"/>
+      <c r="O588" s="1"/>
+      <c r="S588" s="1"/>
+      <c r="W588" s="1"/>
+    </row>
+    <row r="589" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D589" s="1"/>
+      <c r="H589" s="1"/>
+      <c r="L589" s="1"/>
+      <c r="O589" s="1"/>
+      <c r="S589" s="1"/>
+      <c r="W589" s="1"/>
+    </row>
+    <row r="590" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D590" s="1"/>
+      <c r="H590" s="1"/>
+      <c r="L590" s="1"/>
+      <c r="O590" s="1"/>
+      <c r="S590" s="1"/>
+      <c r="W590" s="1"/>
+    </row>
+    <row r="591" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D591" s="1"/>
+      <c r="H591" s="1"/>
+      <c r="L591" s="1"/>
+      <c r="O591" s="1"/>
+      <c r="S591" s="1"/>
+      <c r="W591" s="1"/>
+    </row>
+    <row r="592" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D592" s="1"/>
+      <c r="H592" s="1"/>
+      <c r="L592" s="1"/>
+      <c r="O592" s="1"/>
+      <c r="S592" s="1"/>
+      <c r="W592" s="1"/>
+    </row>
+    <row r="593" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D593" s="1"/>
+      <c r="H593" s="1"/>
+      <c r="L593" s="1"/>
+      <c r="O593" s="1"/>
+      <c r="S593" s="1"/>
+      <c r="W593" s="1"/>
+    </row>
+    <row r="594" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D594" s="1"/>
+      <c r="H594" s="1"/>
+      <c r="L594" s="1"/>
+      <c r="O594" s="1"/>
+      <c r="S594" s="1"/>
+      <c r="W594" s="1"/>
+    </row>
+    <row r="595" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D595" s="1"/>
+      <c r="H595" s="1"/>
+      <c r="L595" s="1"/>
+      <c r="O595" s="1"/>
+      <c r="S595" s="1"/>
+      <c r="W595" s="1"/>
+    </row>
+    <row r="596" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D596" s="1"/>
+      <c r="H596" s="1"/>
+      <c r="L596" s="1"/>
+      <c r="O596" s="1"/>
+      <c r="S596" s="1"/>
+      <c r="W596" s="1"/>
+    </row>
+    <row r="597" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D597" s="1"/>
+      <c r="H597" s="1"/>
+      <c r="L597" s="1"/>
+      <c r="O597" s="1"/>
+      <c r="S597" s="1"/>
+      <c r="W597" s="1"/>
+    </row>
+    <row r="598" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D598" s="1"/>
+      <c r="H598" s="1"/>
+      <c r="L598" s="1"/>
+      <c r="O598" s="1"/>
+      <c r="S598" s="1"/>
+      <c r="W598" s="1"/>
+    </row>
+    <row r="599" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D599" s="1"/>
+      <c r="H599" s="1"/>
+      <c r="L599" s="1"/>
+      <c r="O599" s="1"/>
+      <c r="S599" s="1"/>
+      <c r="W599" s="1"/>
+    </row>
+    <row r="600" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D600" s="1"/>
+      <c r="H600" s="1"/>
+      <c r="L600" s="1"/>
+      <c r="O600" s="1"/>
+      <c r="S600" s="1"/>
+      <c r="W600" s="1"/>
+    </row>
+    <row r="601" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D601" s="1"/>
+      <c r="H601" s="1"/>
+      <c r="L601" s="1"/>
+      <c r="O601" s="1"/>
+      <c r="S601" s="1"/>
+      <c r="W601" s="1"/>
+    </row>
+    <row r="602" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D602" s="1"/>
+      <c r="H602" s="1"/>
+      <c r="L602" s="1"/>
+      <c r="O602" s="1"/>
+      <c r="S602" s="1"/>
+      <c r="W602" s="1"/>
+    </row>
+    <row r="603" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D603" s="1"/>
+      <c r="H603" s="1"/>
+      <c r="L603" s="1"/>
+      <c r="O603" s="1"/>
+      <c r="S603" s="1"/>
+      <c r="W603" s="1"/>
+    </row>
+    <row r="604" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D604" s="1"/>
+      <c r="H604" s="1"/>
+      <c r="L604" s="1"/>
+      <c r="O604" s="1"/>
+      <c r="S604" s="1"/>
+      <c r="W604" s="1"/>
+    </row>
+    <row r="605" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D605" s="1"/>
+      <c r="H605" s="1"/>
+      <c r="L605" s="1"/>
+      <c r="O605" s="1"/>
+      <c r="S605" s="1"/>
+      <c r="W605" s="1"/>
+    </row>
+    <row r="606" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D606" s="1"/>
+      <c r="H606" s="1"/>
+      <c r="L606" s="1"/>
+      <c r="O606" s="1"/>
+      <c r="S606" s="1"/>
+      <c r="W606" s="1"/>
+    </row>
+    <row r="607" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D607" s="1"/>
+      <c r="H607" s="1"/>
+      <c r="L607" s="1"/>
+      <c r="O607" s="1"/>
+      <c r="S607" s="1"/>
+      <c r="W607" s="1"/>
+    </row>
+    <row r="608" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D608" s="1"/>
+      <c r="H608" s="1"/>
+      <c r="L608" s="1"/>
+      <c r="O608" s="1"/>
+      <c r="S608" s="1"/>
+      <c r="W608" s="1"/>
+    </row>
+    <row r="609" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D609" s="1"/>
+      <c r="H609" s="1"/>
+      <c r="L609" s="1"/>
+      <c r="O609" s="1"/>
+      <c r="S609" s="1"/>
+      <c r="W609" s="1"/>
+    </row>
+    <row r="610" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D610" s="1"/>
+      <c r="H610" s="1"/>
+      <c r="L610" s="1"/>
+      <c r="O610" s="1"/>
+      <c r="S610" s="1"/>
+      <c r="W610" s="1"/>
+    </row>
+    <row r="611" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D611" s="1"/>
+      <c r="H611" s="1"/>
+      <c r="L611" s="1"/>
+      <c r="O611" s="1"/>
+      <c r="S611" s="1"/>
+      <c r="W611" s="1"/>
+    </row>
+    <row r="612" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D612" s="1"/>
+      <c r="H612" s="1"/>
+      <c r="L612" s="1"/>
+      <c r="O612" s="1"/>
+      <c r="S612" s="1"/>
+      <c r="W612" s="1"/>
+    </row>
+    <row r="613" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D613" s="1"/>
+      <c r="H613" s="1"/>
+      <c r="L613" s="1"/>
+      <c r="O613" s="1"/>
+      <c r="S613" s="1"/>
+      <c r="W613" s="1"/>
+    </row>
+    <row r="614" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D614" s="1"/>
+      <c r="H614" s="1"/>
+      <c r="L614" s="1"/>
+      <c r="O614" s="1"/>
+      <c r="S614" s="1"/>
+      <c r="W614" s="1"/>
+    </row>
+    <row r="615" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D615" s="1"/>
+      <c r="H615" s="1"/>
+      <c r="L615" s="1"/>
+      <c r="O615" s="1"/>
+      <c r="S615" s="1"/>
+      <c r="W615" s="1"/>
+    </row>
+    <row r="616" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D616" s="1"/>
+      <c r="H616" s="1"/>
+      <c r="L616" s="1"/>
+      <c r="O616" s="1"/>
+      <c r="S616" s="1"/>
+      <c r="W616" s="1"/>
+    </row>
+    <row r="617" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D617" s="1"/>
+      <c r="H617" s="1"/>
+      <c r="L617" s="1"/>
+      <c r="O617" s="1"/>
+      <c r="S617" s="1"/>
+      <c r="W617" s="1"/>
+    </row>
+    <row r="618" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D618" s="1"/>
+      <c r="H618" s="1"/>
+      <c r="L618" s="1"/>
+      <c r="O618" s="1"/>
+      <c r="S618" s="1"/>
+      <c r="W618" s="1"/>
+    </row>
+    <row r="619" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D619" s="1"/>
+      <c r="H619" s="1"/>
+      <c r="L619" s="1"/>
+      <c r="O619" s="1"/>
+      <c r="S619" s="1"/>
+      <c r="W619" s="1"/>
+    </row>
+    <row r="620" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D620" s="1"/>
+      <c r="H620" s="1"/>
+      <c r="L620" s="1"/>
+      <c r="O620" s="1"/>
+      <c r="S620" s="1"/>
+      <c r="W620" s="1"/>
+    </row>
+    <row r="621" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D621" s="1"/>
+      <c r="H621" s="1"/>
+      <c r="L621" s="1"/>
+      <c r="O621" s="1"/>
+      <c r="S621" s="1"/>
+      <c r="W621" s="1"/>
+    </row>
+    <row r="622" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D622" s="1"/>
+      <c r="H622" s="1"/>
+      <c r="L622" s="1"/>
+      <c r="O622" s="1"/>
+      <c r="S622" s="1"/>
+      <c r="W622" s="1"/>
+    </row>
+    <row r="623" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D623" s="1"/>
+      <c r="H623" s="1"/>
+      <c r="L623" s="1"/>
+      <c r="O623" s="1"/>
+      <c r="S623" s="1"/>
+      <c r="W623" s="1"/>
+    </row>
+    <row r="624" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D624" s="1"/>
+      <c r="H624" s="1"/>
+      <c r="L624" s="1"/>
+      <c r="O624" s="1"/>
+      <c r="S624" s="1"/>
+      <c r="W624" s="1"/>
+    </row>
+    <row r="625" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D625" s="1"/>
+      <c r="H625" s="1"/>
+      <c r="L625" s="1"/>
+      <c r="O625" s="1"/>
+      <c r="S625" s="1"/>
+      <c r="W625" s="1"/>
+    </row>
+    <row r="626" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D626" s="1"/>
+      <c r="H626" s="1"/>
+      <c r="L626" s="1"/>
+      <c r="O626" s="1"/>
+      <c r="S626" s="1"/>
+      <c r="W626" s="1"/>
+    </row>
+    <row r="627" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D627" s="1"/>
+      <c r="H627" s="1"/>
+      <c r="L627" s="1"/>
+      <c r="O627" s="1"/>
+      <c r="S627" s="1"/>
+      <c r="W627" s="1"/>
+    </row>
+    <row r="628" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D628" s="1"/>
+      <c r="H628" s="1"/>
+      <c r="L628" s="1"/>
+      <c r="O628" s="1"/>
+      <c r="S628" s="1"/>
+      <c r="W628" s="1"/>
+    </row>
+    <row r="629" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D629" s="1"/>
+      <c r="H629" s="1"/>
+      <c r="L629" s="1"/>
+      <c r="O629" s="1"/>
+      <c r="S629" s="1"/>
+      <c r="W629" s="1"/>
+    </row>
+    <row r="630" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D630" s="1"/>
+      <c r="H630" s="1"/>
+      <c r="L630" s="1"/>
+      <c r="O630" s="1"/>
+      <c r="S630" s="1"/>
+      <c r="W630" s="1"/>
+    </row>
+    <row r="631" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D631" s="1"/>
+      <c r="H631" s="1"/>
+      <c r="L631" s="1"/>
+      <c r="O631" s="1"/>
+      <c r="S631" s="1"/>
+      <c r="W631" s="1"/>
+    </row>
+    <row r="632" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D632" s="1"/>
+      <c r="H632" s="1"/>
+      <c r="L632" s="1"/>
+      <c r="O632" s="1"/>
+      <c r="S632" s="1"/>
+      <c r="W632" s="1"/>
+    </row>
+    <row r="633" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D633" s="1"/>
+      <c r="H633" s="1"/>
+      <c r="L633" s="1"/>
+      <c r="O633" s="1"/>
+      <c r="S633" s="1"/>
+      <c r="W633" s="1"/>
+    </row>
+    <row r="634" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D634" s="1"/>
+      <c r="H634" s="1"/>
+      <c r="L634" s="1"/>
+      <c r="O634" s="1"/>
+      <c r="S634" s="1"/>
+      <c r="W634" s="1"/>
+    </row>
+    <row r="635" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D635" s="1"/>
+      <c r="H635" s="1"/>
+      <c r="L635" s="1"/>
+      <c r="O635" s="1"/>
+      <c r="S635" s="1"/>
+      <c r="W635" s="1"/>
+    </row>
+    <row r="636" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D636" s="1"/>
+      <c r="H636" s="1"/>
+      <c r="L636" s="1"/>
+      <c r="O636" s="1"/>
+      <c r="S636" s="1"/>
+      <c r="W636" s="1"/>
+    </row>
+    <row r="637" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D637" s="1"/>
+      <c r="H637" s="1"/>
+      <c r="L637" s="1"/>
+      <c r="O637" s="1"/>
+      <c r="S637" s="1"/>
+      <c r="W637" s="1"/>
+    </row>
+    <row r="638" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D638" s="1"/>
+      <c r="H638" s="1"/>
+      <c r="L638" s="1"/>
+      <c r="O638" s="1"/>
+      <c r="S638" s="1"/>
+      <c r="W638" s="1"/>
+    </row>
+    <row r="639" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D639" s="1"/>
+      <c r="H639" s="1"/>
+      <c r="L639" s="1"/>
+      <c r="O639" s="1"/>
+      <c r="S639" s="1"/>
+      <c r="W639" s="1"/>
+    </row>
+    <row r="640" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D640" s="1"/>
+      <c r="H640" s="1"/>
+      <c r="L640" s="1"/>
+      <c r="O640" s="1"/>
+      <c r="S640" s="1"/>
+      <c r="W640" s="1"/>
+    </row>
+    <row r="641" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D641" s="1"/>
+      <c r="H641" s="1"/>
+      <c r="L641" s="1"/>
+      <c r="O641" s="1"/>
+      <c r="S641" s="1"/>
+      <c r="W641" s="1"/>
+    </row>
+    <row r="642" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D642" s="1"/>
+      <c r="H642" s="1"/>
+      <c r="L642" s="1"/>
+      <c r="O642" s="1"/>
+      <c r="S642" s="1"/>
+      <c r="W642" s="1"/>
+    </row>
+    <row r="643" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D643" s="1"/>
+      <c r="H643" s="1"/>
+      <c r="L643" s="1"/>
+      <c r="O643" s="1"/>
+      <c r="S643" s="1"/>
+      <c r="W643" s="1"/>
+    </row>
+    <row r="644" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D644" s="1"/>
+      <c r="H644" s="1"/>
+      <c r="L644" s="1"/>
+      <c r="O644" s="1"/>
+      <c r="S644" s="1"/>
+      <c r="W644" s="1"/>
+    </row>
+    <row r="645" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D645" s="1"/>
+      <c r="H645" s="1"/>
+      <c r="L645" s="1"/>
+      <c r="O645" s="1"/>
+      <c r="S645" s="1"/>
+      <c r="W645" s="1"/>
+    </row>
+    <row r="646" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D646" s="1"/>
+      <c r="H646" s="1"/>
+      <c r="L646" s="1"/>
+      <c r="O646" s="1"/>
+      <c r="S646" s="1"/>
+      <c r="W646" s="1"/>
+    </row>
+    <row r="647" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D647" s="1"/>
+      <c r="H647" s="1"/>
+      <c r="L647" s="1"/>
+      <c r="O647" s="1"/>
+      <c r="S647" s="1"/>
+      <c r="W647" s="1"/>
+    </row>
+    <row r="648" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D648" s="1"/>
+      <c r="H648" s="1"/>
+      <c r="L648" s="1"/>
+      <c r="O648" s="1"/>
+      <c r="S648" s="1"/>
+      <c r="W648" s="1"/>
+    </row>
+    <row r="649" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D649" s="1"/>
+      <c r="H649" s="1"/>
+      <c r="L649" s="1"/>
+      <c r="O649" s="1"/>
+      <c r="S649" s="1"/>
+      <c r="W649" s="1"/>
+    </row>
+    <row r="650" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D650" s="1"/>
+      <c r="H650" s="1"/>
+      <c r="L650" s="1"/>
+      <c r="O650" s="1"/>
+      <c r="S650" s="1"/>
+      <c r="W650" s="1"/>
+    </row>
+    <row r="651" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D651" s="1"/>
+      <c r="H651" s="1"/>
+      <c r="L651" s="1"/>
+      <c r="O651" s="1"/>
+      <c r="S651" s="1"/>
+      <c r="W651" s="1"/>
+    </row>
+    <row r="652" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D652" s="1"/>
+      <c r="H652" s="1"/>
+      <c r="L652" s="1"/>
+      <c r="O652" s="1"/>
+      <c r="S652" s="1"/>
+      <c r="W652" s="1"/>
+    </row>
+    <row r="653" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D653" s="1"/>
+      <c r="H653" s="1"/>
+      <c r="L653" s="1"/>
+      <c r="O653" s="1"/>
+      <c r="S653" s="1"/>
+      <c r="W653" s="1"/>
+    </row>
+    <row r="654" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D654" s="1"/>
+      <c r="H654" s="1"/>
+      <c r="L654" s="1"/>
+      <c r="O654" s="1"/>
+      <c r="S654" s="1"/>
+      <c r="W654" s="1"/>
+    </row>
+    <row r="655" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D655" s="1"/>
+      <c r="H655" s="1"/>
+      <c r="L655" s="1"/>
+      <c r="O655" s="1"/>
+      <c r="S655" s="1"/>
+      <c r="W655" s="1"/>
+    </row>
+    <row r="656" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D656" s="1"/>
+      <c r="H656" s="1"/>
+      <c r="L656" s="1"/>
+      <c r="O656" s="1"/>
+      <c r="S656" s="1"/>
+      <c r="W656" s="1"/>
+    </row>
+    <row r="657" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D657" s="1"/>
+      <c r="H657" s="1"/>
+      <c r="L657" s="1"/>
+      <c r="O657" s="1"/>
+      <c r="S657" s="1"/>
+      <c r="W657" s="1"/>
+    </row>
+    <row r="658" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D658" s="1"/>
+      <c r="H658" s="1"/>
+      <c r="L658" s="1"/>
+      <c r="O658" s="1"/>
+      <c r="S658" s="1"/>
+      <c r="W658" s="1"/>
+    </row>
+    <row r="659" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D659" s="1"/>
+      <c r="H659" s="1"/>
+      <c r="L659" s="1"/>
+      <c r="O659" s="1"/>
+      <c r="S659" s="1"/>
+      <c r="W659" s="1"/>
+    </row>
+    <row r="660" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D660" s="1"/>
+      <c r="H660" s="1"/>
+      <c r="L660" s="1"/>
+      <c r="O660" s="1"/>
+      <c r="S660" s="1"/>
+      <c r="W660" s="1"/>
+    </row>
+    <row r="661" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D661" s="1"/>
+      <c r="H661" s="1"/>
+      <c r="L661" s="1"/>
+      <c r="O661" s="1"/>
+      <c r="S661" s="1"/>
+      <c r="W661" s="1"/>
+    </row>
+    <row r="662" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D662" s="1"/>
+      <c r="H662" s="1"/>
+      <c r="L662" s="1"/>
+      <c r="O662" s="1"/>
+      <c r="S662" s="1"/>
+      <c r="W662" s="1"/>
+    </row>
+    <row r="663" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D663" s="1"/>
+      <c r="H663" s="1"/>
+      <c r="L663" s="1"/>
+      <c r="O663" s="1"/>
+      <c r="S663" s="1"/>
+      <c r="W663" s="1"/>
+    </row>
+    <row r="664" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D664" s="1"/>
+      <c r="H664" s="1"/>
+      <c r="L664" s="1"/>
+      <c r="O664" s="1"/>
+      <c r="S664" s="1"/>
+      <c r="W664" s="1"/>
+    </row>
+    <row r="665" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D665" s="1"/>
+      <c r="H665" s="1"/>
+      <c r="L665" s="1"/>
+      <c r="O665" s="1"/>
+      <c r="S665" s="1"/>
+      <c r="W665" s="1"/>
+    </row>
+    <row r="666" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D666" s="1"/>
+      <c r="H666" s="1"/>
+      <c r="L666" s="1"/>
+      <c r="O666" s="1"/>
+      <c r="S666" s="1"/>
+      <c r="W666" s="1"/>
+    </row>
+    <row r="667" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D667" s="1"/>
+      <c r="H667" s="1"/>
+      <c r="L667" s="1"/>
+      <c r="O667" s="1"/>
+      <c r="S667" s="1"/>
+      <c r="W667" s="1"/>
+    </row>
+    <row r="668" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D668" s="1"/>
+      <c r="H668" s="1"/>
+      <c r="L668" s="1"/>
+      <c r="O668" s="1"/>
+      <c r="S668" s="1"/>
+      <c r="W668" s="1"/>
+    </row>
+    <row r="669" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D669" s="1"/>
+      <c r="H669" s="1"/>
+      <c r="L669" s="1"/>
+      <c r="O669" s="1"/>
+      <c r="S669" s="1"/>
+      <c r="W669" s="1"/>
+    </row>
+    <row r="670" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D670" s="1"/>
+      <c r="H670" s="1"/>
+      <c r="L670" s="1"/>
+      <c r="O670" s="1"/>
+      <c r="S670" s="1"/>
+      <c r="W670" s="1"/>
+    </row>
+    <row r="671" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D671" s="1"/>
+      <c r="H671" s="1"/>
+      <c r="L671" s="1"/>
+      <c r="O671" s="1"/>
+      <c r="S671" s="1"/>
+      <c r="W671" s="1"/>
+    </row>
+    <row r="672" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D672" s="1"/>
+      <c r="H672" s="1"/>
+      <c r="L672" s="1"/>
+      <c r="O672" s="1"/>
+      <c r="S672" s="1"/>
+      <c r="W672" s="1"/>
+    </row>
+    <row r="673" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D673" s="1"/>
+      <c r="H673" s="1"/>
+      <c r="L673" s="1"/>
+      <c r="O673" s="1"/>
+      <c r="S673" s="1"/>
+      <c r="W673" s="1"/>
+    </row>
+    <row r="674" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D674" s="1"/>
+      <c r="H674" s="1"/>
+      <c r="L674" s="1"/>
+      <c r="O674" s="1"/>
+      <c r="S674" s="1"/>
+      <c r="W674" s="1"/>
+    </row>
+    <row r="675" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D675" s="1"/>
+      <c r="H675" s="1"/>
+      <c r="L675" s="1"/>
+      <c r="O675" s="1"/>
+      <c r="S675" s="1"/>
+      <c r="W675" s="1"/>
+    </row>
+    <row r="676" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D676" s="1"/>
+      <c r="H676" s="1"/>
+      <c r="L676" s="1"/>
+      <c r="O676" s="1"/>
+      <c r="S676" s="1"/>
+      <c r="W676" s="1"/>
+    </row>
+    <row r="677" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D677" s="1"/>
+      <c r="H677" s="1"/>
+      <c r="L677" s="1"/>
+      <c r="O677" s="1"/>
+      <c r="S677" s="1"/>
+      <c r="W677" s="1"/>
+    </row>
+    <row r="678" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D678" s="1"/>
+      <c r="H678" s="1"/>
+      <c r="L678" s="1"/>
+      <c r="O678" s="1"/>
+      <c r="S678" s="1"/>
+      <c r="W678" s="1"/>
+    </row>
+    <row r="679" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D679" s="1"/>
+      <c r="H679" s="1"/>
+      <c r="L679" s="1"/>
+      <c r="O679" s="1"/>
+      <c r="S679" s="1"/>
+      <c r="W679" s="1"/>
+    </row>
+    <row r="680" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D680" s="1"/>
+      <c r="H680" s="1"/>
+      <c r="L680" s="1"/>
+      <c r="O680" s="1"/>
+      <c r="S680" s="1"/>
+      <c r="W680" s="1"/>
+    </row>
+    <row r="681" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D681" s="1"/>
+      <c r="H681" s="1"/>
+      <c r="L681" s="1"/>
+      <c r="O681" s="1"/>
+      <c r="S681" s="1"/>
+      <c r="W681" s="1"/>
+    </row>
+    <row r="682" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D682" s="1"/>
+      <c r="H682" s="1"/>
+      <c r="L682" s="1"/>
+      <c r="O682" s="1"/>
+      <c r="S682" s="1"/>
+      <c r="W682" s="1"/>
+    </row>
+    <row r="683" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D683" s="1"/>
+      <c r="H683" s="1"/>
+      <c r="L683" s="1"/>
+      <c r="O683" s="1"/>
+      <c r="S683" s="1"/>
+      <c r="W683" s="1"/>
+    </row>
+    <row r="684" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D684" s="1"/>
+      <c r="H684" s="1"/>
+      <c r="L684" s="1"/>
+      <c r="O684" s="1"/>
+      <c r="S684" s="1"/>
+      <c r="W684" s="1"/>
+    </row>
+    <row r="685" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D685" s="1"/>
+      <c r="H685" s="1"/>
+      <c r="L685" s="1"/>
+      <c r="O685" s="1"/>
+      <c r="S685" s="1"/>
+      <c r="W685" s="1"/>
+    </row>
+    <row r="686" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D686" s="1"/>
+      <c r="H686" s="1"/>
+      <c r="L686" s="1"/>
+      <c r="O686" s="1"/>
+      <c r="S686" s="1"/>
+      <c r="W686" s="1"/>
+    </row>
+    <row r="687" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D687" s="1"/>
+      <c r="H687" s="1"/>
+      <c r="L687" s="1"/>
+      <c r="O687" s="1"/>
+      <c r="S687" s="1"/>
+      <c r="W687" s="1"/>
+    </row>
+    <row r="688" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D688" s="1"/>
+      <c r="H688" s="1"/>
+      <c r="L688" s="1"/>
+      <c r="O688" s="1"/>
+      <c r="S688" s="1"/>
+      <c r="W688" s="1"/>
+    </row>
+    <row r="689" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D689" s="1"/>
+      <c r="H689" s="1"/>
+      <c r="L689" s="1"/>
+      <c r="O689" s="1"/>
+      <c r="S689" s="1"/>
+      <c r="W689" s="1"/>
+    </row>
+    <row r="690" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D690" s="1"/>
+      <c r="H690" s="1"/>
+      <c r="L690" s="1"/>
+      <c r="O690" s="1"/>
+      <c r="S690" s="1"/>
+      <c r="W690" s="1"/>
+    </row>
+    <row r="691" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D691" s="1"/>
+      <c r="H691" s="1"/>
+      <c r="L691" s="1"/>
+      <c r="O691" s="1"/>
+      <c r="S691" s="1"/>
+      <c r="W691" s="1"/>
+    </row>
+    <row r="692" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D692" s="1"/>
+      <c r="H692" s="1"/>
+      <c r="L692" s="1"/>
+      <c r="O692" s="1"/>
+      <c r="S692" s="1"/>
+      <c r="W692" s="1"/>
+    </row>
+    <row r="693" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D693" s="1"/>
+      <c r="H693" s="1"/>
+      <c r="L693" s="1"/>
+      <c r="O693" s="1"/>
+      <c r="S693" s="1"/>
+      <c r="W693" s="1"/>
+    </row>
+    <row r="694" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D694" s="1"/>
+      <c r="H694" s="1"/>
+      <c r="L694" s="1"/>
+      <c r="O694" s="1"/>
+      <c r="S694" s="1"/>
+      <c r="W694" s="1"/>
+    </row>
+    <row r="695" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D695" s="1"/>
+      <c r="H695" s="1"/>
+      <c r="L695" s="1"/>
+      <c r="O695" s="1"/>
+      <c r="S695" s="1"/>
+      <c r="W695" s="1"/>
+    </row>
+    <row r="696" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D696" s="1"/>
+      <c r="H696" s="1"/>
+      <c r="L696" s="1"/>
+      <c r="O696" s="1"/>
+      <c r="S696" s="1"/>
+      <c r="W696" s="1"/>
+    </row>
+    <row r="697" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D697" s="1"/>
+      <c r="H697" s="1"/>
+      <c r="L697" s="1"/>
+      <c r="O697" s="1"/>
+      <c r="S697" s="1"/>
+      <c r="W697" s="1"/>
+    </row>
+    <row r="698" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D698" s="1"/>
+      <c r="H698" s="1"/>
+      <c r="L698" s="1"/>
+      <c r="O698" s="1"/>
+      <c r="S698" s="1"/>
+      <c r="W698" s="1"/>
+    </row>
+    <row r="699" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D699" s="1"/>
+      <c r="H699" s="1"/>
+      <c r="L699" s="1"/>
+      <c r="O699" s="1"/>
+      <c r="S699" s="1"/>
+      <c r="W699" s="1"/>
+    </row>
+    <row r="700" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D700" s="1"/>
+      <c r="H700" s="1"/>
+      <c r="L700" s="1"/>
+      <c r="O700" s="1"/>
+      <c r="S700" s="1"/>
+      <c r="W700" s="1"/>
+    </row>
+    <row r="701" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D701" s="1"/>
+      <c r="H701" s="1"/>
+      <c r="L701" s="1"/>
+      <c r="O701" s="1"/>
+      <c r="S701" s="1"/>
+      <c r="W701" s="1"/>
+    </row>
+    <row r="702" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D702" s="1"/>
+      <c r="H702" s="1"/>
+      <c r="L702" s="1"/>
+      <c r="O702" s="1"/>
+      <c r="S702" s="1"/>
+      <c r="W702" s="1"/>
+    </row>
+    <row r="703" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D703" s="1"/>
+      <c r="H703" s="1"/>
+      <c r="L703" s="1"/>
+      <c r="O703" s="1"/>
+      <c r="S703" s="1"/>
+      <c r="W703" s="1"/>
+    </row>
+    <row r="704" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D704" s="1"/>
+      <c r="H704" s="1"/>
+      <c r="L704" s="1"/>
+      <c r="O704" s="1"/>
+      <c r="S704" s="1"/>
+      <c r="W704" s="1"/>
+    </row>
+    <row r="705" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D705" s="1"/>
+      <c r="H705" s="1"/>
+      <c r="L705" s="1"/>
+      <c r="O705" s="1"/>
+      <c r="S705" s="1"/>
+      <c r="W705" s="1"/>
+    </row>
+    <row r="706" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D706" s="1"/>
+      <c r="H706" s="1"/>
+      <c r="L706" s="1"/>
+      <c r="O706" s="1"/>
+      <c r="S706" s="1"/>
+      <c r="W706" s="1"/>
+    </row>
+    <row r="707" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D707" s="1"/>
+      <c r="H707" s="1"/>
+      <c r="L707" s="1"/>
+      <c r="O707" s="1"/>
+      <c r="S707" s="1"/>
+      <c r="W707" s="1"/>
+    </row>
+    <row r="708" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D708" s="1"/>
+      <c r="H708" s="1"/>
+      <c r="L708" s="1"/>
+      <c r="O708" s="1"/>
+      <c r="S708" s="1"/>
+      <c r="W708" s="1"/>
+    </row>
+    <row r="709" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D709" s="1"/>
+      <c r="H709" s="1"/>
+      <c r="L709" s="1"/>
+      <c r="O709" s="1"/>
+      <c r="S709" s="1"/>
+      <c r="W709" s="1"/>
+    </row>
+    <row r="710" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D710" s="1"/>
+      <c r="H710" s="1"/>
+      <c r="L710" s="1"/>
+      <c r="O710" s="1"/>
+      <c r="S710" s="1"/>
+      <c r="W710" s="1"/>
+    </row>
+    <row r="711" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D711" s="1"/>
+      <c r="H711" s="1"/>
+      <c r="L711" s="1"/>
+      <c r="O711" s="1"/>
+      <c r="S711" s="1"/>
+      <c r="W711" s="1"/>
+    </row>
+    <row r="712" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D712" s="1"/>
+      <c r="H712" s="1"/>
+      <c r="L712" s="1"/>
+      <c r="O712" s="1"/>
+      <c r="S712" s="1"/>
+      <c r="W712" s="1"/>
+    </row>
+    <row r="713" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D713" s="1"/>
+      <c r="H713" s="1"/>
+      <c r="L713" s="1"/>
+      <c r="O713" s="1"/>
+      <c r="S713" s="1"/>
+      <c r="W713" s="1"/>
+    </row>
+    <row r="714" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D714" s="1"/>
+      <c r="H714" s="1"/>
+      <c r="L714" s="1"/>
+      <c r="O714" s="1"/>
+      <c r="S714" s="1"/>
+      <c r="W714" s="1"/>
+    </row>
+    <row r="715" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D715" s="1"/>
+      <c r="H715" s="1"/>
+      <c r="L715" s="1"/>
+      <c r="O715" s="1"/>
+      <c r="S715" s="1"/>
+      <c r="W715" s="1"/>
+    </row>
+    <row r="716" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D716" s="1"/>
+      <c r="H716" s="1"/>
+      <c r="L716" s="1"/>
+      <c r="O716" s="1"/>
+      <c r="S716" s="1"/>
+      <c r="W716" s="1"/>
+    </row>
+    <row r="717" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D717" s="1"/>
+      <c r="H717" s="1"/>
+      <c r="L717" s="1"/>
+      <c r="O717" s="1"/>
+      <c r="S717" s="1"/>
+      <c r="W717" s="1"/>
+    </row>
+    <row r="718" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D718" s="1"/>
+      <c r="H718" s="1"/>
+      <c r="L718" s="1"/>
+      <c r="O718" s="1"/>
+      <c r="S718" s="1"/>
+      <c r="W718" s="1"/>
+    </row>
+    <row r="719" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D719" s="1"/>
+      <c r="H719" s="1"/>
+      <c r="L719" s="1"/>
+      <c r="O719" s="1"/>
+      <c r="S719" s="1"/>
+      <c r="W719" s="1"/>
+    </row>
+    <row r="720" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D720" s="1"/>
+      <c r="H720" s="1"/>
+      <c r="L720" s="1"/>
+      <c r="O720" s="1"/>
+      <c r="S720" s="1"/>
+      <c r="W720" s="1"/>
+    </row>
+    <row r="721" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D721" s="1"/>
+      <c r="H721" s="1"/>
+      <c r="L721" s="1"/>
+      <c r="O721" s="1"/>
+      <c r="S721" s="1"/>
+      <c r="W721" s="1"/>
+    </row>
+    <row r="722" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D722" s="1"/>
+      <c r="H722" s="1"/>
+      <c r="L722" s="1"/>
+      <c r="O722" s="1"/>
+      <c r="S722" s="1"/>
+      <c r="W722" s="1"/>
+    </row>
+    <row r="723" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D723" s="1"/>
+      <c r="H723" s="1"/>
+      <c r="L723" s="1"/>
+      <c r="O723" s="1"/>
+      <c r="S723" s="1"/>
+      <c r="W723" s="1"/>
+    </row>
+    <row r="724" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D724" s="1"/>
+      <c r="H724" s="1"/>
+      <c r="L724" s="1"/>
+      <c r="O724" s="1"/>
+      <c r="S724" s="1"/>
+      <c r="W724" s="1"/>
+    </row>
+    <row r="725" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D725" s="1"/>
+      <c r="H725" s="1"/>
+      <c r="L725" s="1"/>
+      <c r="O725" s="1"/>
+      <c r="S725" s="1"/>
+      <c r="W725" s="1"/>
+    </row>
+    <row r="726" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D726" s="1"/>
+      <c r="H726" s="1"/>
+      <c r="L726" s="1"/>
+      <c r="O726" s="1"/>
+      <c r="S726" s="1"/>
+      <c r="W726" s="1"/>
+    </row>
+    <row r="727" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D727" s="1"/>
+      <c r="H727" s="1"/>
+      <c r="L727" s="1"/>
+      <c r="O727" s="1"/>
+      <c r="S727" s="1"/>
+      <c r="W727" s="1"/>
+    </row>
+    <row r="728" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D728" s="1"/>
+      <c r="H728" s="1"/>
+      <c r="L728" s="1"/>
+      <c r="O728" s="1"/>
+      <c r="S728" s="1"/>
+      <c r="W728" s="1"/>
+    </row>
+    <row r="729" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D729" s="1"/>
+      <c r="H729" s="1"/>
+      <c r="L729" s="1"/>
+      <c r="O729" s="1"/>
+      <c r="S729" s="1"/>
+      <c r="W729" s="1"/>
+    </row>
+    <row r="730" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D730" s="1"/>
+      <c r="H730" s="1"/>
+      <c r="L730" s="1"/>
+      <c r="O730" s="1"/>
+      <c r="S730" s="1"/>
+      <c r="W730" s="1"/>
+    </row>
+    <row r="731" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D731" s="1"/>
+      <c r="H731" s="1"/>
+      <c r="L731" s="1"/>
+      <c r="O731" s="1"/>
+      <c r="S731" s="1"/>
+      <c r="W731" s="1"/>
+    </row>
+    <row r="732" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D732" s="1"/>
+      <c r="H732" s="1"/>
+      <c r="L732" s="1"/>
+      <c r="O732" s="1"/>
+      <c r="S732" s="1"/>
+      <c r="W732" s="1"/>
+    </row>
+    <row r="733" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D733" s="1"/>
+      <c r="H733" s="1"/>
+      <c r="L733" s="1"/>
+      <c r="O733" s="1"/>
+      <c r="S733" s="1"/>
+      <c r="W733" s="1"/>
+    </row>
+    <row r="734" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D734" s="1"/>
+      <c r="H734" s="1"/>
+      <c r="L734" s="1"/>
+      <c r="O734" s="1"/>
+      <c r="S734" s="1"/>
+      <c r="W734" s="1"/>
+    </row>
+    <row r="735" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D735" s="1"/>
+      <c r="H735" s="1"/>
+      <c r="L735" s="1"/>
+      <c r="O735" s="1"/>
+      <c r="S735" s="1"/>
+      <c r="W735" s="1"/>
+    </row>
+    <row r="736" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D736" s="1"/>
+      <c r="H736" s="1"/>
+      <c r="L736" s="1"/>
+      <c r="O736" s="1"/>
+      <c r="S736" s="1"/>
+      <c r="W736" s="1"/>
+    </row>
+    <row r="737" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D737" s="1"/>
+      <c r="H737" s="1"/>
+      <c r="L737" s="1"/>
+      <c r="O737" s="1"/>
+      <c r="S737" s="1"/>
+      <c r="W737" s="1"/>
+    </row>
+    <row r="738" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D738" s="1"/>
+      <c r="H738" s="1"/>
+      <c r="L738" s="1"/>
+      <c r="O738" s="1"/>
+      <c r="S738" s="1"/>
+      <c r="W738" s="1"/>
+    </row>
+    <row r="739" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D739" s="1"/>
+      <c r="H739" s="1"/>
+      <c r="L739" s="1"/>
+      <c r="O739" s="1"/>
+      <c r="S739" s="1"/>
+      <c r="W739" s="1"/>
+    </row>
+    <row r="740" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D740" s="1"/>
+      <c r="H740" s="1"/>
+      <c r="L740" s="1"/>
+      <c r="O740" s="1"/>
+      <c r="S740" s="1"/>
+      <c r="W740" s="1"/>
+    </row>
+    <row r="741" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D741" s="1"/>
+      <c r="H741" s="1"/>
+      <c r="L741" s="1"/>
+      <c r="O741" s="1"/>
+      <c r="S741" s="1"/>
+      <c r="W741" s="1"/>
+    </row>
+    <row r="742" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D742" s="1"/>
+      <c r="H742" s="1"/>
+      <c r="L742" s="1"/>
+      <c r="O742" s="1"/>
+      <c r="S742" s="1"/>
+      <c r="W742" s="1"/>
+    </row>
+    <row r="743" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D743" s="1"/>
+      <c r="H743" s="1"/>
+      <c r="L743" s="1"/>
+      <c r="O743" s="1"/>
+      <c r="S743" s="1"/>
+      <c r="W743" s="1"/>
+    </row>
+    <row r="744" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D744" s="1"/>
+      <c r="H744" s="1"/>
+      <c r="L744" s="1"/>
+      <c r="O744" s="1"/>
+      <c r="S744" s="1"/>
+      <c r="W744" s="1"/>
+    </row>
+    <row r="745" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D745" s="1"/>
+      <c r="H745" s="1"/>
+      <c r="L745" s="1"/>
+      <c r="O745" s="1"/>
+      <c r="S745" s="1"/>
+      <c r="W745" s="1"/>
+    </row>
+    <row r="746" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D746" s="1"/>
+      <c r="H746" s="1"/>
+      <c r="L746" s="1"/>
+      <c r="O746" s="1"/>
+      <c r="S746" s="1"/>
+      <c r="W746" s="1"/>
+    </row>
+    <row r="747" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D747" s="1"/>
+      <c r="H747" s="1"/>
+      <c r="L747" s="1"/>
+      <c r="O747" s="1"/>
+      <c r="S747" s="1"/>
+      <c r="W747" s="1"/>
+    </row>
+    <row r="748" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D748" s="1"/>
+      <c r="H748" s="1"/>
+      <c r="L748" s="1"/>
+      <c r="O748" s="1"/>
+      <c r="S748" s="1"/>
+      <c r="W748" s="1"/>
+    </row>
+    <row r="749" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D749" s="1"/>
+      <c r="H749" s="1"/>
+      <c r="L749" s="1"/>
+      <c r="O749" s="1"/>
+      <c r="S749" s="1"/>
+      <c r="W749" s="1"/>
+    </row>
+    <row r="750" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D750" s="1"/>
+      <c r="H750" s="1"/>
+      <c r="L750" s="1"/>
+      <c r="O750" s="1"/>
+      <c r="S750" s="1"/>
+      <c r="W750" s="1"/>
+    </row>
+    <row r="751" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D751" s="1"/>
+      <c r="H751" s="1"/>
+      <c r="L751" s="1"/>
+      <c r="O751" s="1"/>
+      <c r="S751" s="1"/>
+      <c r="W751" s="1"/>
+    </row>
+    <row r="752" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D752" s="1"/>
+      <c r="H752" s="1"/>
+      <c r="L752" s="1"/>
+      <c r="O752" s="1"/>
+      <c r="S752" s="1"/>
+      <c r="W752" s="1"/>
+    </row>
+    <row r="753" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D753" s="1"/>
+      <c r="H753" s="1"/>
+      <c r="L753" s="1"/>
+      <c r="O753" s="1"/>
+      <c r="S753" s="1"/>
+      <c r="W753" s="1"/>
+    </row>
+    <row r="754" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D754" s="1"/>
+      <c r="H754" s="1"/>
+      <c r="L754" s="1"/>
+      <c r="O754" s="1"/>
+      <c r="S754" s="1"/>
+      <c r="W754" s="1"/>
+    </row>
+    <row r="755" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D755" s="1"/>
+      <c r="H755" s="1"/>
+      <c r="L755" s="1"/>
+      <c r="O755" s="1"/>
+      <c r="S755" s="1"/>
+      <c r="W755" s="1"/>
+    </row>
+    <row r="756" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D756" s="1"/>
+      <c r="H756" s="1"/>
+      <c r="L756" s="1"/>
+      <c r="O756" s="1"/>
+      <c r="S756" s="1"/>
+      <c r="W756" s="1"/>
+    </row>
+    <row r="757" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D757" s="1"/>
+      <c r="H757" s="1"/>
+      <c r="L757" s="1"/>
+      <c r="O757" s="1"/>
+      <c r="S757" s="1"/>
+      <c r="W757" s="1"/>
+    </row>
+    <row r="758" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D758" s="1"/>
+      <c r="H758" s="1"/>
+      <c r="L758" s="1"/>
+      <c r="O758" s="1"/>
+      <c r="S758" s="1"/>
+      <c r="W758" s="1"/>
+    </row>
+    <row r="759" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D759" s="1"/>
+      <c r="H759" s="1"/>
+      <c r="L759" s="1"/>
+      <c r="O759" s="1"/>
+      <c r="S759" s="1"/>
+      <c r="W759" s="1"/>
+    </row>
+    <row r="760" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D760" s="1"/>
+      <c r="H760" s="1"/>
+      <c r="L760" s="1"/>
+      <c r="O760" s="1"/>
+      <c r="S760" s="1"/>
+      <c r="W760" s="1"/>
+    </row>
+    <row r="761" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D761" s="1"/>
+      <c r="H761" s="1"/>
+      <c r="L761" s="1"/>
+      <c r="O761" s="1"/>
+      <c r="S761" s="1"/>
+      <c r="W761" s="1"/>
+    </row>
+    <row r="762" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D762" s="1"/>
+      <c r="H762" s="1"/>
+      <c r="L762" s="1"/>
+      <c r="O762" s="1"/>
+      <c r="S762" s="1"/>
+      <c r="W762" s="1"/>
+    </row>
+    <row r="763" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D763" s="1"/>
+      <c r="H763" s="1"/>
+      <c r="L763" s="1"/>
+      <c r="O763" s="1"/>
+      <c r="S763" s="1"/>
+      <c r="W763" s="1"/>
+    </row>
+    <row r="764" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D764" s="1"/>
+      <c r="H764" s="1"/>
+      <c r="L764" s="1"/>
+      <c r="O764" s="1"/>
+      <c r="S764" s="1"/>
+      <c r="W764" s="1"/>
+    </row>
+    <row r="765" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D765" s="1"/>
+      <c r="H765" s="1"/>
+      <c r="L765" s="1"/>
+      <c r="O765" s="1"/>
+      <c r="S765" s="1"/>
+      <c r="W765" s="1"/>
+    </row>
+    <row r="766" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D766" s="1"/>
+      <c r="H766" s="1"/>
+      <c r="L766" s="1"/>
+      <c r="O766" s="1"/>
+      <c r="S766" s="1"/>
+      <c r="W766" s="1"/>
+    </row>
+    <row r="767" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D767" s="1"/>
+      <c r="H767" s="1"/>
+      <c r="L767" s="1"/>
+      <c r="O767" s="1"/>
+      <c r="S767" s="1"/>
+      <c r="W767" s="1"/>
+    </row>
+    <row r="768" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D768" s="1"/>
+      <c r="H768" s="1"/>
+      <c r="L768" s="1"/>
+      <c r="O768" s="1"/>
+      <c r="S768" s="1"/>
+      <c r="W768" s="1"/>
+    </row>
+    <row r="769" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D769" s="1"/>
+      <c r="H769" s="1"/>
+      <c r="L769" s="1"/>
+      <c r="O769" s="1"/>
+      <c r="S769" s="1"/>
+      <c r="W769" s="1"/>
+    </row>
+    <row r="770" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D770" s="1"/>
+      <c r="H770" s="1"/>
+      <c r="L770" s="1"/>
+      <c r="O770" s="1"/>
+      <c r="S770" s="1"/>
+      <c r="W770" s="1"/>
+    </row>
+    <row r="771" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D771" s="1"/>
+      <c r="H771" s="1"/>
+      <c r="L771" s="1"/>
+      <c r="O771" s="1"/>
+      <c r="S771" s="1"/>
+      <c r="W771" s="1"/>
+    </row>
+    <row r="772" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D772" s="1"/>
+      <c r="H772" s="1"/>
+      <c r="L772" s="1"/>
+      <c r="O772" s="1"/>
+      <c r="S772" s="1"/>
+      <c r="W772" s="1"/>
+    </row>
+    <row r="773" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D773" s="1"/>
+      <c r="H773" s="1"/>
+      <c r="L773" s="1"/>
+      <c r="O773" s="1"/>
+      <c r="S773" s="1"/>
+      <c r="W773" s="1"/>
+    </row>
+    <row r="774" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D774" s="1"/>
+      <c r="H774" s="1"/>
+      <c r="L774" s="1"/>
+      <c r="O774" s="1"/>
+      <c r="S774" s="1"/>
+      <c r="W774" s="1"/>
+    </row>
+    <row r="775" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D775" s="1"/>
+      <c r="H775" s="1"/>
+      <c r="L775" s="1"/>
+      <c r="O775" s="1"/>
+      <c r="S775" s="1"/>
+      <c r="W775" s="1"/>
+    </row>
+    <row r="776" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D776" s="1"/>
+      <c r="H776" s="1"/>
+      <c r="L776" s="1"/>
+      <c r="O776" s="1"/>
+      <c r="S776" s="1"/>
+      <c r="W776" s="1"/>
+    </row>
+    <row r="777" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D777" s="1"/>
+      <c r="H777" s="1"/>
+      <c r="L777" s="1"/>
+      <c r="O777" s="1"/>
+      <c r="S777" s="1"/>
+      <c r="W777" s="1"/>
+    </row>
+    <row r="778" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D778" s="1"/>
+      <c r="H778" s="1"/>
+      <c r="L778" s="1"/>
+      <c r="O778" s="1"/>
+      <c r="S778" s="1"/>
+      <c r="W778" s="1"/>
+    </row>
+    <row r="779" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D779" s="1"/>
+      <c r="H779" s="1"/>
+      <c r="L779" s="1"/>
+      <c r="O779" s="1"/>
+      <c r="S779" s="1"/>
+      <c r="W779" s="1"/>
+    </row>
+    <row r="780" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D780" s="1"/>
+      <c r="H780" s="1"/>
+      <c r="L780" s="1"/>
+      <c r="O780" s="1"/>
+      <c r="S780" s="1"/>
+      <c r="W780" s="1"/>
+    </row>
+    <row r="781" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D781" s="1"/>
+      <c r="H781" s="1"/>
+      <c r="L781" s="1"/>
+      <c r="O781" s="1"/>
+      <c r="S781" s="1"/>
+      <c r="W781" s="1"/>
+    </row>
+    <row r="782" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D782" s="1"/>
+      <c r="H782" s="1"/>
+      <c r="L782" s="1"/>
+      <c r="O782" s="1"/>
+      <c r="S782" s="1"/>
+      <c r="W782" s="1"/>
+    </row>
+    <row r="783" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D783" s="1"/>
+      <c r="H783" s="1"/>
+      <c r="L783" s="1"/>
+      <c r="O783" s="1"/>
+      <c r="S783" s="1"/>
+      <c r="W783" s="1"/>
+    </row>
+    <row r="784" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D784" s="1"/>
+      <c r="H784" s="1"/>
+      <c r="L784" s="1"/>
+      <c r="O784" s="1"/>
+      <c r="S784" s="1"/>
+      <c r="W784" s="1"/>
+    </row>
+    <row r="785" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D785" s="1"/>
+      <c r="H785" s="1"/>
+      <c r="L785" s="1"/>
+      <c r="O785" s="1"/>
+      <c r="S785" s="1"/>
+      <c r="W785" s="1"/>
+    </row>
+    <row r="786" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D786" s="1"/>
+      <c r="H786" s="1"/>
+      <c r="L786" s="1"/>
+      <c r="O786" s="1"/>
+      <c r="S786" s="1"/>
+      <c r="W786" s="1"/>
+    </row>
+    <row r="787" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D787" s="1"/>
+      <c r="H787" s="1"/>
+      <c r="L787" s="1"/>
+      <c r="O787" s="1"/>
+      <c r="S787" s="1"/>
+      <c r="W787" s="1"/>
+    </row>
+    <row r="788" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D788" s="1"/>
+      <c r="H788" s="1"/>
+      <c r="L788" s="1"/>
+      <c r="O788" s="1"/>
+      <c r="S788" s="1"/>
+      <c r="W788" s="1"/>
+    </row>
+    <row r="789" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D789" s="1"/>
+      <c r="H789" s="1"/>
+      <c r="L789" s="1"/>
+      <c r="O789" s="1"/>
+      <c r="S789" s="1"/>
+      <c r="W789" s="1"/>
+    </row>
+    <row r="790" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D790" s="1"/>
+      <c r="H790" s="1"/>
+      <c r="L790" s="1"/>
+      <c r="O790" s="1"/>
+      <c r="S790" s="1"/>
+      <c r="W790" s="1"/>
+    </row>
+    <row r="791" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D791" s="1"/>
+      <c r="H791" s="1"/>
+      <c r="L791" s="1"/>
+      <c r="O791" s="1"/>
+      <c r="S791" s="1"/>
+      <c r="W791" s="1"/>
+    </row>
+    <row r="792" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D792" s="1"/>
+      <c r="H792" s="1"/>
+      <c r="L792" s="1"/>
+      <c r="O792" s="1"/>
+      <c r="S792" s="1"/>
+      <c r="W792" s="1"/>
+    </row>
+    <row r="793" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D793" s="1"/>
+      <c r="H793" s="1"/>
+      <c r="L793" s="1"/>
+      <c r="O793" s="1"/>
+      <c r="S793" s="1"/>
+      <c r="W793" s="1"/>
+    </row>
+    <row r="794" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D794" s="1"/>
+      <c r="H794" s="1"/>
+      <c r="L794" s="1"/>
+      <c r="O794" s="1"/>
+      <c r="S794" s="1"/>
+      <c r="W794" s="1"/>
+    </row>
+    <row r="795" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D795" s="1"/>
+      <c r="H795" s="1"/>
+      <c r="L795" s="1"/>
+      <c r="O795" s="1"/>
+      <c r="S795" s="1"/>
+      <c r="W795" s="1"/>
+    </row>
+    <row r="796" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D796" s="1"/>
+      <c r="H796" s="1"/>
+      <c r="L796" s="1"/>
+      <c r="O796" s="1"/>
+      <c r="S796" s="1"/>
+      <c r="W796" s="1"/>
+    </row>
+    <row r="797" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D797" s="1"/>
+      <c r="H797" s="1"/>
+      <c r="L797" s="1"/>
+      <c r="O797" s="1"/>
+      <c r="S797" s="1"/>
+      <c r="W797" s="1"/>
+    </row>
+    <row r="798" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D798" s="1"/>
+      <c r="H798" s="1"/>
+      <c r="L798" s="1"/>
+      <c r="O798" s="1"/>
+      <c r="S798" s="1"/>
+      <c r="W798" s="1"/>
+    </row>
+    <row r="799" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D799" s="1"/>
+      <c r="H799" s="1"/>
+      <c r="L799" s="1"/>
+      <c r="O799" s="1"/>
+      <c r="S799" s="1"/>
+      <c r="W799" s="1"/>
+    </row>
+    <row r="800" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D800" s="1"/>
+      <c r="H800" s="1"/>
+      <c r="L800" s="1"/>
+      <c r="O800" s="1"/>
+      <c r="S800" s="1"/>
+      <c r="W800" s="1"/>
+    </row>
+    <row r="801" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D801" s="1"/>
+      <c r="H801" s="1"/>
+      <c r="L801" s="1"/>
+      <c r="O801" s="1"/>
+      <c r="S801" s="1"/>
+      <c r="W801" s="1"/>
+    </row>
+    <row r="802" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D802" s="1"/>
+      <c r="H802" s="1"/>
+      <c r="L802" s="1"/>
+      <c r="O802" s="1"/>
+      <c r="S802" s="1"/>
+      <c r="W802" s="1"/>
+    </row>
+    <row r="803" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D803" s="1"/>
+      <c r="H803" s="1"/>
+      <c r="L803" s="1"/>
+      <c r="O803" s="1"/>
+      <c r="S803" s="1"/>
+      <c r="W803" s="1"/>
+    </row>
+    <row r="804" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D804" s="1"/>
+      <c r="H804" s="1"/>
+      <c r="L804" s="1"/>
+      <c r="O804" s="1"/>
+      <c r="S804" s="1"/>
+      <c r="W804" s="1"/>
+    </row>
+    <row r="805" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D805" s="1"/>
+      <c r="H805" s="1"/>
+      <c r="L805" s="1"/>
+      <c r="O805" s="1"/>
+      <c r="S805" s="1"/>
+      <c r="W805" s="1"/>
+    </row>
+    <row r="806" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D806" s="1"/>
+      <c r="H806" s="1"/>
+      <c r="L806" s="1"/>
+      <c r="O806" s="1"/>
+      <c r="S806" s="1"/>
+      <c r="W806" s="1"/>
+    </row>
+    <row r="807" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D807" s="1"/>
+      <c r="H807" s="1"/>
+      <c r="L807" s="1"/>
+      <c r="O807" s="1"/>
+      <c r="S807" s="1"/>
+      <c r="W807" s="1"/>
+    </row>
+    <row r="808" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D808" s="1"/>
+      <c r="H808" s="1"/>
+      <c r="L808" s="1"/>
+      <c r="O808" s="1"/>
+      <c r="S808" s="1"/>
+      <c r="W808" s="1"/>
+    </row>
+    <row r="809" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D809" s="1"/>
+      <c r="H809" s="1"/>
+      <c r="L809" s="1"/>
+      <c r="O809" s="1"/>
+      <c r="S809" s="1"/>
+      <c r="W809" s="1"/>
+    </row>
+    <row r="810" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D810" s="1"/>
+      <c r="H810" s="1"/>
+      <c r="L810" s="1"/>
+      <c r="O810" s="1"/>
+      <c r="S810" s="1"/>
+      <c r="W810" s="1"/>
+    </row>
+    <row r="811" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D811" s="1"/>
+      <c r="H811" s="1"/>
+      <c r="L811" s="1"/>
+      <c r="O811" s="1"/>
+      <c r="S811" s="1"/>
+      <c r="W811" s="1"/>
+    </row>
+    <row r="812" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D812" s="1"/>
+      <c r="H812" s="1"/>
+      <c r="L812" s="1"/>
+      <c r="O812" s="1"/>
+      <c r="S812" s="1"/>
+      <c r="W812" s="1"/>
+    </row>
+    <row r="813" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D813" s="1"/>
+      <c r="H813" s="1"/>
+      <c r="L813" s="1"/>
+      <c r="O813" s="1"/>
+      <c r="S813" s="1"/>
+      <c r="W813" s="1"/>
+    </row>
+    <row r="814" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D814" s="1"/>
+      <c r="H814" s="1"/>
+      <c r="L814" s="1"/>
+      <c r="O814" s="1"/>
+      <c r="S814" s="1"/>
+      <c r="W814" s="1"/>
+    </row>
+    <row r="815" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D815" s="1"/>
+      <c r="H815" s="1"/>
+      <c r="L815" s="1"/>
+      <c r="O815" s="1"/>
+      <c r="S815" s="1"/>
+      <c r="W815" s="1"/>
+    </row>
+    <row r="816" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D816" s="1"/>
+      <c r="H816" s="1"/>
+      <c r="L816" s="1"/>
+      <c r="O816" s="1"/>
+      <c r="S816" s="1"/>
+      <c r="W816" s="1"/>
+    </row>
+    <row r="817" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D817" s="1"/>
+      <c r="H817" s="1"/>
+      <c r="L817" s="1"/>
+      <c r="O817" s="1"/>
+      <c r="S817" s="1"/>
+      <c r="W817" s="1"/>
+    </row>
+    <row r="818" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D818" s="1"/>
+      <c r="H818" s="1"/>
+      <c r="L818" s="1"/>
+      <c r="O818" s="1"/>
+      <c r="S818" s="1"/>
+      <c r="W818" s="1"/>
+    </row>
+    <row r="819" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D819" s="1"/>
+      <c r="H819" s="1"/>
+      <c r="L819" s="1"/>
+      <c r="O819" s="1"/>
+      <c r="S819" s="1"/>
+      <c r="W819" s="1"/>
+    </row>
+    <row r="820" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D820" s="1"/>
+      <c r="H820" s="1"/>
+      <c r="L820" s="1"/>
+      <c r="O820" s="1"/>
+      <c r="S820" s="1"/>
+      <c r="W820" s="1"/>
+    </row>
+    <row r="821" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D821" s="1"/>
+      <c r="H821" s="1"/>
+      <c r="L821" s="1"/>
+      <c r="O821" s="1"/>
+      <c r="S821" s="1"/>
+      <c r="W821" s="1"/>
+    </row>
+    <row r="822" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D822" s="1"/>
+      <c r="H822" s="1"/>
+      <c r="L822" s="1"/>
+      <c r="O822" s="1"/>
+      <c r="S822" s="1"/>
+      <c r="W822" s="1"/>
+    </row>
+    <row r="823" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D823" s="1"/>
+      <c r="H823" s="1"/>
+      <c r="L823" s="1"/>
+      <c r="O823" s="1"/>
+      <c r="S823" s="1"/>
+      <c r="W823" s="1"/>
+    </row>
+    <row r="824" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D824" s="1"/>
+      <c r="H824" s="1"/>
+      <c r="L824" s="1"/>
+      <c r="O824" s="1"/>
+      <c r="S824" s="1"/>
+      <c r="W824" s="1"/>
+    </row>
+    <row r="825" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D825" s="1"/>
+      <c r="H825" s="1"/>
+      <c r="L825" s="1"/>
+      <c r="O825" s="1"/>
+      <c r="S825" s="1"/>
+      <c r="W825" s="1"/>
+    </row>
+    <row r="826" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D826" s="1"/>
+      <c r="H826" s="1"/>
+      <c r="L826" s="1"/>
+      <c r="O826" s="1"/>
+      <c r="S826" s="1"/>
+      <c r="W826" s="1"/>
+    </row>
+    <row r="827" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D827" s="1"/>
+      <c r="H827" s="1"/>
+      <c r="L827" s="1"/>
+      <c r="O827" s="1"/>
+      <c r="S827" s="1"/>
+      <c r="W827" s="1"/>
+    </row>
+    <row r="828" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D828" s="1"/>
+      <c r="H828" s="1"/>
+      <c r="L828" s="1"/>
+      <c r="O828" s="1"/>
+      <c r="S828" s="1"/>
+      <c r="W828" s="1"/>
+    </row>
+    <row r="829" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D829" s="1"/>
+      <c r="H829" s="1"/>
+      <c r="L829" s="1"/>
+      <c r="O829" s="1"/>
+      <c r="S829" s="1"/>
+      <c r="W829" s="1"/>
+    </row>
+    <row r="830" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D830" s="1"/>
+      <c r="H830" s="1"/>
+      <c r="L830" s="1"/>
+      <c r="O830" s="1"/>
+      <c r="S830" s="1"/>
+      <c r="W830" s="1"/>
+    </row>
+    <row r="831" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D831" s="1"/>
+      <c r="H831" s="1"/>
+      <c r="L831" s="1"/>
+      <c r="O831" s="1"/>
+      <c r="S831" s="1"/>
+      <c r="W831" s="1"/>
+    </row>
+    <row r="832" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D832" s="1"/>
+      <c r="H832" s="1"/>
+      <c r="L832" s="1"/>
+      <c r="O832" s="1"/>
+      <c r="S832" s="1"/>
+      <c r="W832" s="1"/>
+    </row>
+    <row r="833" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D833" s="1"/>
+      <c r="H833" s="1"/>
+      <c r="L833" s="1"/>
+      <c r="O833" s="1"/>
+      <c r="S833" s="1"/>
+      <c r="W833" s="1"/>
+    </row>
+    <row r="834" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D834" s="1"/>
+      <c r="H834" s="1"/>
+      <c r="L834" s="1"/>
+      <c r="O834" s="1"/>
+      <c r="S834" s="1"/>
+      <c r="W834" s="1"/>
+    </row>
+    <row r="835" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D835" s="1"/>
+      <c r="H835" s="1"/>
+      <c r="L835" s="1"/>
+      <c r="O835" s="1"/>
+      <c r="S835" s="1"/>
+      <c r="W835" s="1"/>
+    </row>
+    <row r="836" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D836" s="1"/>
+      <c r="H836" s="1"/>
+      <c r="L836" s="1"/>
+      <c r="O836" s="1"/>
+      <c r="S836" s="1"/>
+      <c r="W836" s="1"/>
+    </row>
+    <row r="837" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D837" s="1"/>
+      <c r="H837" s="1"/>
+      <c r="L837" s="1"/>
+      <c r="O837" s="1"/>
+      <c r="S837" s="1"/>
+      <c r="W837" s="1"/>
+    </row>
+    <row r="838" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D838" s="1"/>
+      <c r="H838" s="1"/>
+      <c r="L838" s="1"/>
+      <c r="O838" s="1"/>
+      <c r="S838" s="1"/>
+      <c r="W838" s="1"/>
+    </row>
+    <row r="839" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D839" s="1"/>
+      <c r="H839" s="1"/>
+      <c r="L839" s="1"/>
+      <c r="O839" s="1"/>
+      <c r="S839" s="1"/>
+      <c r="W839" s="1"/>
+    </row>
+    <row r="840" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D840" s="1"/>
+      <c r="H840" s="1"/>
+      <c r="L840" s="1"/>
+      <c r="O840" s="1"/>
+      <c r="S840" s="1"/>
+      <c r="W840" s="1"/>
+    </row>
+    <row r="841" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D841" s="1"/>
+      <c r="H841" s="1"/>
+      <c r="L841" s="1"/>
+      <c r="O841" s="1"/>
+      <c r="S841" s="1"/>
+      <c r="W841" s="1"/>
+    </row>
+    <row r="842" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D842" s="1"/>
+      <c r="H842" s="1"/>
+      <c r="L842" s="1"/>
+      <c r="O842" s="1"/>
+      <c r="S842" s="1"/>
+      <c r="W842" s="1"/>
+    </row>
+    <row r="843" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D843" s="1"/>
+      <c r="H843" s="1"/>
+      <c r="L843" s="1"/>
+      <c r="O843" s="1"/>
+      <c r="S843" s="1"/>
+      <c r="W843" s="1"/>
+    </row>
+    <row r="844" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D844" s="1"/>
+      <c r="H844" s="1"/>
+      <c r="L844" s="1"/>
+      <c r="O844" s="1"/>
+      <c r="S844" s="1"/>
+      <c r="W844" s="1"/>
+    </row>
+    <row r="845" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D845" s="1"/>
+      <c r="H845" s="1"/>
+      <c r="L845" s="1"/>
+      <c r="O845" s="1"/>
+      <c r="S845" s="1"/>
+      <c r="W845" s="1"/>
+    </row>
+    <row r="846" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D846" s="1"/>
+      <c r="H846" s="1"/>
+      <c r="L846" s="1"/>
+      <c r="O846" s="1"/>
+      <c r="S846" s="1"/>
+      <c r="W846" s="1"/>
+    </row>
+    <row r="847" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D847" s="1"/>
+      <c r="H847" s="1"/>
+      <c r="L847" s="1"/>
+      <c r="O847" s="1"/>
+      <c r="S847" s="1"/>
+      <c r="W847" s="1"/>
+    </row>
+    <row r="848" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D848" s="1"/>
+      <c r="H848" s="1"/>
+      <c r="L848" s="1"/>
+      <c r="O848" s="1"/>
+      <c r="S848" s="1"/>
+      <c r="W848" s="1"/>
+    </row>
+    <row r="849" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D849" s="1"/>
+      <c r="H849" s="1"/>
+      <c r="L849" s="1"/>
+      <c r="O849" s="1"/>
+      <c r="S849" s="1"/>
+      <c r="W849" s="1"/>
+    </row>
+    <row r="850" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D850" s="1"/>
+      <c r="H850" s="1"/>
+      <c r="L850" s="1"/>
+      <c r="O850" s="1"/>
+      <c r="S850" s="1"/>
+      <c r="W850" s="1"/>
+    </row>
+    <row r="851" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D851" s="1"/>
+      <c r="H851" s="1"/>
+      <c r="L851" s="1"/>
+      <c r="O851" s="1"/>
+      <c r="S851" s="1"/>
+      <c r="W851" s="1"/>
+    </row>
+    <row r="852" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D852" s="1"/>
+      <c r="H852" s="1"/>
+      <c r="L852" s="1"/>
+      <c r="O852" s="1"/>
+      <c r="S852" s="1"/>
+      <c r="W852" s="1"/>
+    </row>
+    <row r="853" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D853" s="1"/>
+      <c r="H853" s="1"/>
+      <c r="L853" s="1"/>
+      <c r="O853" s="1"/>
+      <c r="S853" s="1"/>
+      <c r="W853" s="1"/>
+    </row>
+    <row r="854" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D854" s="1"/>
+      <c r="H854" s="1"/>
+      <c r="L854" s="1"/>
+      <c r="O854" s="1"/>
+      <c r="S854" s="1"/>
+      <c r="W854" s="1"/>
+    </row>
+    <row r="855" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D855" s="1"/>
+      <c r="H855" s="1"/>
+      <c r="L855" s="1"/>
+      <c r="O855" s="1"/>
+      <c r="S855" s="1"/>
+      <c r="W855" s="1"/>
+    </row>
+    <row r="856" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D856" s="1"/>
+      <c r="H856" s="1"/>
+      <c r="L856" s="1"/>
+      <c r="O856" s="1"/>
+      <c r="S856" s="1"/>
+      <c r="W856" s="1"/>
+    </row>
+    <row r="857" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D857" s="1"/>
+      <c r="H857" s="1"/>
+      <c r="L857" s="1"/>
+      <c r="O857" s="1"/>
+      <c r="S857" s="1"/>
+      <c r="W857" s="1"/>
+    </row>
+    <row r="858" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D858" s="1"/>
+      <c r="H858" s="1"/>
+      <c r="L858" s="1"/>
+      <c r="O858" s="1"/>
+      <c r="S858" s="1"/>
+      <c r="W858" s="1"/>
+    </row>
+    <row r="859" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D859" s="1"/>
+      <c r="H859" s="1"/>
+      <c r="L859" s="1"/>
+      <c r="O859" s="1"/>
+      <c r="S859" s="1"/>
+      <c r="W859" s="1"/>
+    </row>
+    <row r="860" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D860" s="1"/>
+      <c r="H860" s="1"/>
+      <c r="L860" s="1"/>
+      <c r="O860" s="1"/>
+      <c r="S860" s="1"/>
+      <c r="W860" s="1"/>
+    </row>
+    <row r="861" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D861" s="1"/>
+      <c r="H861" s="1"/>
+      <c r="L861" s="1"/>
+      <c r="O861" s="1"/>
+      <c r="S861" s="1"/>
+      <c r="W861" s="1"/>
+    </row>
+    <row r="862" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D862" s="1"/>
+      <c r="H862" s="1"/>
+      <c r="L862" s="1"/>
+      <c r="O862" s="1"/>
+      <c r="S862" s="1"/>
+      <c r="W862" s="1"/>
+    </row>
+    <row r="863" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D863" s="1"/>
+      <c r="H863" s="1"/>
+      <c r="L863" s="1"/>
+      <c r="O863" s="1"/>
+      <c r="S863" s="1"/>
+      <c r="W863" s="1"/>
+    </row>
+    <row r="864" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D864" s="1"/>
+      <c r="H864" s="1"/>
+      <c r="L864" s="1"/>
+      <c r="O864" s="1"/>
+      <c r="S864" s="1"/>
+      <c r="W864" s="1"/>
+    </row>
+    <row r="865" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D865" s="1"/>
+      <c r="H865" s="1"/>
+      <c r="L865" s="1"/>
+      <c r="O865" s="1"/>
+      <c r="S865" s="1"/>
+      <c r="W865" s="1"/>
+    </row>
+    <row r="866" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D866" s="1"/>
+      <c r="H866" s="1"/>
+      <c r="L866" s="1"/>
+      <c r="O866" s="1"/>
+      <c r="S866" s="1"/>
+      <c r="W866" s="1"/>
+    </row>
+    <row r="867" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D867" s="1"/>
+      <c r="H867" s="1"/>
+      <c r="L867" s="1"/>
+      <c r="O867" s="1"/>
+      <c r="S867" s="1"/>
+      <c r="W867" s="1"/>
+    </row>
+    <row r="868" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D868" s="1"/>
+      <c r="H868" s="1"/>
+      <c r="L868" s="1"/>
+      <c r="O868" s="1"/>
+      <c r="S868" s="1"/>
+      <c r="W868" s="1"/>
+    </row>
+    <row r="869" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D869" s="1"/>
+      <c r="H869" s="1"/>
+      <c r="L869" s="1"/>
+      <c r="O869" s="1"/>
+      <c r="S869" s="1"/>
+      <c r="W869" s="1"/>
+    </row>
+    <row r="870" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D870" s="1"/>
+      <c r="H870" s="1"/>
+      <c r="L870" s="1"/>
+      <c r="O870" s="1"/>
+      <c r="S870" s="1"/>
+      <c r="W870" s="1"/>
+    </row>
+    <row r="871" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D871" s="1"/>
+      <c r="H871" s="1"/>
+      <c r="L871" s="1"/>
+      <c r="O871" s="1"/>
+      <c r="S871" s="1"/>
+      <c r="W871" s="1"/>
+    </row>
+    <row r="872" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D872" s="1"/>
+      <c r="H872" s="1"/>
+      <c r="L872" s="1"/>
+      <c r="O872" s="1"/>
+      <c r="S872" s="1"/>
+      <c r="W872" s="1"/>
+    </row>
+    <row r="873" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D873" s="1"/>
+      <c r="H873" s="1"/>
+      <c r="L873" s="1"/>
+      <c r="O873" s="1"/>
+      <c r="S873" s="1"/>
+      <c r="W873" s="1"/>
+    </row>
+    <row r="874" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D874" s="1"/>
+      <c r="H874" s="1"/>
+      <c r="L874" s="1"/>
+      <c r="O874" s="1"/>
+      <c r="S874" s="1"/>
+      <c r="W874" s="1"/>
+    </row>
+    <row r="875" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D875" s="1"/>
+      <c r="H875" s="1"/>
+      <c r="L875" s="1"/>
+      <c r="O875" s="1"/>
+      <c r="S875" s="1"/>
+      <c r="W875" s="1"/>
+    </row>
+    <row r="876" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D876" s="1"/>
+      <c r="H876" s="1"/>
+      <c r="L876" s="1"/>
+      <c r="O876" s="1"/>
+      <c r="S876" s="1"/>
+      <c r="W876" s="1"/>
+    </row>
+    <row r="877" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D877" s="1"/>
+      <c r="H877" s="1"/>
+      <c r="L877" s="1"/>
+      <c r="O877" s="1"/>
+      <c r="S877" s="1"/>
+      <c r="W877" s="1"/>
+    </row>
+    <row r="878" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D878" s="1"/>
+      <c r="H878" s="1"/>
+      <c r="L878" s="1"/>
+      <c r="O878" s="1"/>
+      <c r="S878" s="1"/>
+      <c r="W878" s="1"/>
+    </row>
+    <row r="879" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D879" s="1"/>
+      <c r="H879" s="1"/>
+      <c r="L879" s="1"/>
+      <c r="O879" s="1"/>
+      <c r="S879" s="1"/>
+      <c r="W879" s="1"/>
+    </row>
+    <row r="880" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D880" s="1"/>
+      <c r="H880" s="1"/>
+      <c r="L880" s="1"/>
+      <c r="O880" s="1"/>
+      <c r="S880" s="1"/>
+      <c r="W880" s="1"/>
+    </row>
+    <row r="881" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D881" s="1"/>
+      <c r="H881" s="1"/>
+      <c r="L881" s="1"/>
+      <c r="O881" s="1"/>
+      <c r="S881" s="1"/>
+      <c r="W881" s="1"/>
+    </row>
+    <row r="882" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D882" s="1"/>
+      <c r="H882" s="1"/>
+      <c r="L882" s="1"/>
+      <c r="O882" s="1"/>
+      <c r="S882" s="1"/>
+      <c r="W882" s="1"/>
+    </row>
+    <row r="883" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D883" s="1"/>
+      <c r="H883" s="1"/>
+      <c r="L883" s="1"/>
+      <c r="O883" s="1"/>
+      <c r="S883" s="1"/>
+      <c r="W883" s="1"/>
+    </row>
+    <row r="884" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D884" s="1"/>
+      <c r="H884" s="1"/>
+      <c r="L884" s="1"/>
+      <c r="O884" s="1"/>
+      <c r="S884" s="1"/>
+      <c r="W884" s="1"/>
+    </row>
+    <row r="885" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D885" s="1"/>
+      <c r="H885" s="1"/>
+      <c r="L885" s="1"/>
+      <c r="O885" s="1"/>
+      <c r="S885" s="1"/>
+      <c r="W885" s="1"/>
+    </row>
+    <row r="886" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D886" s="1"/>
+      <c r="H886" s="1"/>
+      <c r="L886" s="1"/>
+      <c r="O886" s="1"/>
+      <c r="S886" s="1"/>
+      <c r="W886" s="1"/>
+    </row>
+    <row r="887" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D887" s="1"/>
+      <c r="H887" s="1"/>
+      <c r="L887" s="1"/>
+      <c r="O887" s="1"/>
+      <c r="S887" s="1"/>
+      <c r="W887" s="1"/>
+    </row>
+    <row r="888" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D888" s="1"/>
+      <c r="H888" s="1"/>
+      <c r="L888" s="1"/>
+      <c r="O888" s="1"/>
+      <c r="S888" s="1"/>
+      <c r="W888" s="1"/>
+    </row>
+    <row r="889" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D889" s="1"/>
+      <c r="H889" s="1"/>
+      <c r="L889" s="1"/>
+      <c r="O889" s="1"/>
+      <c r="S889" s="1"/>
+      <c r="W889" s="1"/>
+    </row>
+    <row r="890" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D890" s="1"/>
+      <c r="H890" s="1"/>
+      <c r="L890" s="1"/>
+      <c r="O890" s="1"/>
+      <c r="S890" s="1"/>
+      <c r="W890" s="1"/>
+    </row>
+    <row r="891" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D891" s="1"/>
+      <c r="H891" s="1"/>
+      <c r="L891" s="1"/>
+      <c r="O891" s="1"/>
+      <c r="S891" s="1"/>
+      <c r="W891" s="1"/>
+    </row>
+    <row r="892" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D892" s="1"/>
+      <c r="H892" s="1"/>
+      <c r="L892" s="1"/>
+      <c r="O892" s="1"/>
+      <c r="S892" s="1"/>
+      <c r="W892" s="1"/>
+    </row>
+    <row r="893" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D893" s="1"/>
+      <c r="H893" s="1"/>
+      <c r="L893" s="1"/>
+      <c r="O893" s="1"/>
+      <c r="S893" s="1"/>
+      <c r="W893" s="1"/>
+    </row>
+    <row r="894" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D894" s="1"/>
+      <c r="H894" s="1"/>
+      <c r="L894" s="1"/>
+      <c r="O894" s="1"/>
+      <c r="S894" s="1"/>
+      <c r="W894" s="1"/>
+    </row>
+    <row r="895" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D895" s="1"/>
+      <c r="H895" s="1"/>
+      <c r="L895" s="1"/>
+      <c r="O895" s="1"/>
+      <c r="S895" s="1"/>
+      <c r="W895" s="1"/>
+    </row>
+    <row r="896" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D896" s="1"/>
+      <c r="H896" s="1"/>
+      <c r="L896" s="1"/>
+      <c r="O896" s="1"/>
+      <c r="S896" s="1"/>
+      <c r="W896" s="1"/>
+    </row>
+    <row r="897" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D897" s="1"/>
+      <c r="H897" s="1"/>
+      <c r="L897" s="1"/>
+      <c r="O897" s="1"/>
+      <c r="S897" s="1"/>
+      <c r="W897" s="1"/>
+    </row>
+    <row r="898" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D898" s="1"/>
+      <c r="H898" s="1"/>
+      <c r="L898" s="1"/>
+      <c r="O898" s="1"/>
+      <c r="S898" s="1"/>
+      <c r="W898" s="1"/>
+    </row>
+    <row r="899" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D899" s="1"/>
+      <c r="H899" s="1"/>
+      <c r="L899" s="1"/>
+      <c r="O899" s="1"/>
+      <c r="S899" s="1"/>
+      <c r="W899" s="1"/>
+    </row>
+    <row r="900" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D900" s="1"/>
+      <c r="H900" s="1"/>
+      <c r="L900" s="1"/>
+      <c r="O900" s="1"/>
+      <c r="S900" s="1"/>
+      <c r="W900" s="1"/>
+    </row>
+    <row r="901" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D901" s="1"/>
+      <c r="H901" s="1"/>
+      <c r="L901" s="1"/>
+      <c r="O901" s="1"/>
+      <c r="S901" s="1"/>
+      <c r="W901" s="1"/>
+    </row>
+    <row r="902" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D902" s="1"/>
+      <c r="H902" s="1"/>
+      <c r="L902" s="1"/>
+      <c r="O902" s="1"/>
+      <c r="S902" s="1"/>
+      <c r="W902" s="1"/>
+    </row>
+    <row r="903" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D903" s="1"/>
+      <c r="H903" s="1"/>
+      <c r="L903" s="1"/>
+      <c r="O903" s="1"/>
+      <c r="S903" s="1"/>
+      <c r="W903" s="1"/>
+    </row>
+    <row r="904" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D904" s="1"/>
+      <c r="H904" s="1"/>
+      <c r="L904" s="1"/>
+      <c r="O904" s="1"/>
+      <c r="S904" s="1"/>
+      <c r="W904" s="1"/>
+    </row>
+    <row r="905" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D905" s="1"/>
+      <c r="H905" s="1"/>
+      <c r="L905" s="1"/>
+      <c r="O905" s="1"/>
+      <c r="S905" s="1"/>
+      <c r="W905" s="1"/>
+    </row>
+    <row r="906" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D906" s="1"/>
+      <c r="H906" s="1"/>
+      <c r="L906" s="1"/>
+      <c r="O906" s="1"/>
+      <c r="S906" s="1"/>
+      <c r="W906" s="1"/>
+    </row>
+    <row r="907" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D907" s="1"/>
+      <c r="H907" s="1"/>
+      <c r="L907" s="1"/>
+      <c r="O907" s="1"/>
+      <c r="S907" s="1"/>
+      <c r="W907" s="1"/>
+    </row>
+    <row r="908" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D908" s="1"/>
+      <c r="H908" s="1"/>
+      <c r="L908" s="1"/>
+      <c r="O908" s="1"/>
+      <c r="S908" s="1"/>
+      <c r="W908" s="1"/>
+    </row>
+    <row r="909" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D909" s="1"/>
+      <c r="H909" s="1"/>
+      <c r="L909" s="1"/>
+      <c r="O909" s="1"/>
+      <c r="S909" s="1"/>
+      <c r="W909" s="1"/>
+    </row>
+    <row r="910" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D910" s="1"/>
+      <c r="H910" s="1"/>
+      <c r="L910" s="1"/>
+      <c r="O910" s="1"/>
+      <c r="S910" s="1"/>
+      <c r="W910" s="1"/>
+    </row>
+    <row r="911" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D911" s="1"/>
+      <c r="H911" s="1"/>
+      <c r="L911" s="1"/>
+      <c r="O911" s="1"/>
+      <c r="S911" s="1"/>
+      <c r="W911" s="1"/>
+    </row>
+    <row r="912" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D912" s="1"/>
+      <c r="H912" s="1"/>
+      <c r="L912" s="1"/>
+      <c r="O912" s="1"/>
+      <c r="S912" s="1"/>
+      <c r="W912" s="1"/>
+    </row>
+    <row r="913" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D913" s="1"/>
+      <c r="H913" s="1"/>
+      <c r="L913" s="1"/>
+      <c r="O913" s="1"/>
+      <c r="S913" s="1"/>
+      <c r="W913" s="1"/>
+    </row>
+    <row r="914" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D914" s="1"/>
+      <c r="H914" s="1"/>
+      <c r="L914" s="1"/>
+      <c r="O914" s="1"/>
+      <c r="S914" s="1"/>
+      <c r="W914" s="1"/>
+    </row>
+    <row r="915" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D915" s="1"/>
+      <c r="H915" s="1"/>
+      <c r="L915" s="1"/>
+      <c r="O915" s="1"/>
+      <c r="S915" s="1"/>
+      <c r="W915" s="1"/>
+    </row>
+    <row r="916" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D916" s="1"/>
+      <c r="H916" s="1"/>
+      <c r="L916" s="1"/>
+      <c r="O916" s="1"/>
+      <c r="S916" s="1"/>
+      <c r="W916" s="1"/>
+    </row>
+    <row r="917" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D917" s="1"/>
+      <c r="H917" s="1"/>
+      <c r="L917" s="1"/>
+      <c r="O917" s="1"/>
+      <c r="S917" s="1"/>
+      <c r="W917" s="1"/>
+    </row>
+    <row r="918" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D918" s="1"/>
+      <c r="H918" s="1"/>
+      <c r="L918" s="1"/>
+      <c r="O918" s="1"/>
+      <c r="S918" s="1"/>
+      <c r="W918" s="1"/>
+    </row>
+    <row r="919" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D919" s="1"/>
+      <c r="H919" s="1"/>
+      <c r="L919" s="1"/>
+      <c r="O919" s="1"/>
+      <c r="S919" s="1"/>
+      <c r="W919" s="1"/>
+    </row>
+    <row r="920" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D920" s="1"/>
+      <c r="H920" s="1"/>
+      <c r="L920" s="1"/>
+      <c r="O920" s="1"/>
+      <c r="S920" s="1"/>
+      <c r="W920" s="1"/>
+    </row>
+    <row r="921" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D921" s="1"/>
+      <c r="H921" s="1"/>
+      <c r="L921" s="1"/>
+      <c r="O921" s="1"/>
+      <c r="S921" s="1"/>
+      <c r="W921" s="1"/>
+    </row>
+    <row r="922" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D922" s="1"/>
+      <c r="H922" s="1"/>
+      <c r="L922" s="1"/>
+      <c r="O922" s="1"/>
+      <c r="S922" s="1"/>
+      <c r="W922" s="1"/>
+    </row>
+    <row r="923" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D923" s="1"/>
+      <c r="H923" s="1"/>
+      <c r="L923" s="1"/>
+      <c r="O923" s="1"/>
+      <c r="S923" s="1"/>
+      <c r="W923" s="1"/>
+    </row>
+    <row r="924" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D924" s="1"/>
+      <c r="H924" s="1"/>
+      <c r="L924" s="1"/>
+      <c r="O924" s="1"/>
+      <c r="S924" s="1"/>
+      <c r="W924" s="1"/>
+    </row>
+    <row r="925" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D925" s="1"/>
+      <c r="H925" s="1"/>
+      <c r="L925" s="1"/>
+      <c r="O925" s="1"/>
+      <c r="S925" s="1"/>
+      <c r="W925" s="1"/>
+    </row>
+    <row r="926" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D926" s="1"/>
+      <c r="H926" s="1"/>
+      <c r="L926" s="1"/>
+      <c r="O926" s="1"/>
+      <c r="S926" s="1"/>
+      <c r="W926" s="1"/>
+    </row>
+    <row r="927" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D927" s="1"/>
+      <c r="H927" s="1"/>
+      <c r="L927" s="1"/>
+      <c r="O927" s="1"/>
+      <c r="S927" s="1"/>
+      <c r="W927" s="1"/>
+    </row>
+    <row r="928" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D928" s="1"/>
+      <c r="H928" s="1"/>
+      <c r="L928" s="1"/>
+      <c r="O928" s="1"/>
+      <c r="S928" s="1"/>
+      <c r="W928" s="1"/>
+    </row>
+    <row r="929" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D929" s="1"/>
+      <c r="H929" s="1"/>
+      <c r="L929" s="1"/>
+      <c r="O929" s="1"/>
+      <c r="S929" s="1"/>
+      <c r="W929" s="1"/>
+    </row>
+    <row r="930" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D930" s="1"/>
+      <c r="H930" s="1"/>
+      <c r="L930" s="1"/>
+      <c r="O930" s="1"/>
+      <c r="S930" s="1"/>
+      <c r="W930" s="1"/>
+    </row>
+    <row r="931" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D931" s="1"/>
+      <c r="H931" s="1"/>
+      <c r="L931" s="1"/>
+      <c r="O931" s="1"/>
+      <c r="S931" s="1"/>
+      <c r="W931" s="1"/>
+    </row>
+    <row r="932" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D932" s="1"/>
+      <c r="H932" s="1"/>
+      <c r="L932" s="1"/>
+      <c r="O932" s="1"/>
+      <c r="S932" s="1"/>
+      <c r="W932" s="1"/>
+    </row>
+    <row r="933" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D933" s="1"/>
+      <c r="H933" s="1"/>
+      <c r="L933" s="1"/>
+      <c r="O933" s="1"/>
+      <c r="S933" s="1"/>
+      <c r="W933" s="1"/>
+    </row>
+    <row r="934" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D934" s="1"/>
+      <c r="H934" s="1"/>
+      <c r="L934" s="1"/>
+      <c r="O934" s="1"/>
+      <c r="S934" s="1"/>
+      <c r="W934" s="1"/>
+    </row>
+    <row r="935" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D935" s="1"/>
+      <c r="H935" s="1"/>
+      <c r="L935" s="1"/>
+      <c r="O935" s="1"/>
+      <c r="S935" s="1"/>
+      <c r="W935" s="1"/>
+    </row>
+    <row r="936" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D936" s="1"/>
+      <c r="H936" s="1"/>
+      <c r="L936" s="1"/>
+      <c r="O936" s="1"/>
+      <c r="S936" s="1"/>
+      <c r="W936" s="1"/>
+    </row>
+    <row r="937" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D937" s="1"/>
+      <c r="H937" s="1"/>
+      <c r="L937" s="1"/>
+      <c r="O937" s="1"/>
+      <c r="S937" s="1"/>
+      <c r="W937" s="1"/>
+    </row>
+    <row r="938" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D938" s="1"/>
+      <c r="H938" s="1"/>
+      <c r="L938" s="1"/>
+      <c r="O938" s="1"/>
+      <c r="S938" s="1"/>
+      <c r="W938" s="1"/>
+    </row>
+    <row r="939" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D939" s="1"/>
+      <c r="H939" s="1"/>
+      <c r="L939" s="1"/>
+      <c r="O939" s="1"/>
+      <c r="S939" s="1"/>
+      <c r="W939" s="1"/>
+    </row>
+    <row r="940" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D940" s="1"/>
+      <c r="H940" s="1"/>
+      <c r="L940" s="1"/>
+      <c r="O940" s="1"/>
+      <c r="S940" s="1"/>
+      <c r="W940" s="1"/>
+    </row>
+    <row r="941" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D941" s="1"/>
+      <c r="H941" s="1"/>
+      <c r="L941" s="1"/>
+      <c r="O941" s="1"/>
+      <c r="S941" s="1"/>
+      <c r="W941" s="1"/>
+    </row>
+    <row r="942" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D942" s="1"/>
+      <c r="H942" s="1"/>
+      <c r="L942" s="1"/>
+      <c r="O942" s="1"/>
+      <c r="S942" s="1"/>
+      <c r="W942" s="1"/>
+    </row>
+    <row r="943" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D943" s="1"/>
+      <c r="H943" s="1"/>
+      <c r="L943" s="1"/>
+      <c r="O943" s="1"/>
+      <c r="S943" s="1"/>
+      <c r="W943" s="1"/>
+    </row>
+    <row r="944" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D944" s="1"/>
+      <c r="H944" s="1"/>
+      <c r="L944" s="1"/>
+      <c r="O944" s="1"/>
+      <c r="S944" s="1"/>
+      <c r="W944" s="1"/>
+    </row>
+    <row r="945" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D945" s="1"/>
+      <c r="H945" s="1"/>
+      <c r="L945" s="1"/>
+      <c r="O945" s="1"/>
+      <c r="S945" s="1"/>
+      <c r="W945" s="1"/>
+    </row>
+    <row r="946" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D946" s="1"/>
+      <c r="H946" s="1"/>
+      <c r="L946" s="1"/>
+      <c r="O946" s="1"/>
+      <c r="S946" s="1"/>
+      <c r="W946" s="1"/>
+    </row>
+    <row r="947" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D947" s="1"/>
+      <c r="H947" s="1"/>
+      <c r="L947" s="1"/>
+      <c r="O947" s="1"/>
+      <c r="S947" s="1"/>
+      <c r="W947" s="1"/>
+    </row>
+    <row r="948" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D948" s="1"/>
+      <c r="H948" s="1"/>
+      <c r="L948" s="1"/>
+      <c r="O948" s="1"/>
+      <c r="S948" s="1"/>
+      <c r="W948" s="1"/>
+    </row>
+    <row r="949" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D949" s="1"/>
+      <c r="H949" s="1"/>
+      <c r="L949" s="1"/>
+      <c r="O949" s="1"/>
+      <c r="S949" s="1"/>
+      <c r="W949" s="1"/>
+    </row>
+    <row r="950" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D950" s="1"/>
+      <c r="H950" s="1"/>
+      <c r="L950" s="1"/>
+      <c r="O950" s="1"/>
+      <c r="S950" s="1"/>
+      <c r="W950" s="1"/>
+    </row>
+    <row r="951" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D951" s="1"/>
+      <c r="H951" s="1"/>
+      <c r="L951" s="1"/>
+      <c r="O951" s="1"/>
+      <c r="S951" s="1"/>
+      <c r="W951" s="1"/>
+    </row>
+    <row r="952" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D952" s="1"/>
+      <c r="H952" s="1"/>
+      <c r="L952" s="1"/>
+      <c r="O952" s="1"/>
+      <c r="S952" s="1"/>
+      <c r="W952" s="1"/>
+    </row>
+    <row r="953" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D953" s="1"/>
+      <c r="H953" s="1"/>
+      <c r="L953" s="1"/>
+      <c r="O953" s="1"/>
+      <c r="S953" s="1"/>
+      <c r="W953" s="1"/>
+    </row>
+    <row r="954" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D954" s="1"/>
+      <c r="H954" s="1"/>
+      <c r="L954" s="1"/>
+      <c r="O954" s="1"/>
+      <c r="S954" s="1"/>
+      <c r="W954" s="1"/>
+    </row>
+    <row r="955" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D955" s="1"/>
+      <c r="H955" s="1"/>
+      <c r="L955" s="1"/>
+      <c r="O955" s="1"/>
+      <c r="S955" s="1"/>
+      <c r="W955" s="1"/>
+    </row>
+    <row r="956" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D956" s="1"/>
+      <c r="H956" s="1"/>
+      <c r="L956" s="1"/>
+      <c r="O956" s="1"/>
+      <c r="S956" s="1"/>
+      <c r="W956" s="1"/>
+    </row>
+    <row r="957" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D957" s="1"/>
+      <c r="H957" s="1"/>
+      <c r="L957" s="1"/>
+      <c r="O957" s="1"/>
+      <c r="S957" s="1"/>
+      <c r="W957" s="1"/>
+    </row>
+    <row r="958" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D958" s="1"/>
+      <c r="H958" s="1"/>
+      <c r="L958" s="1"/>
+      <c r="O958" s="1"/>
+      <c r="S958" s="1"/>
+      <c r="W958" s="1"/>
+    </row>
+    <row r="959" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D959" s="1"/>
+      <c r="H959" s="1"/>
+      <c r="L959" s="1"/>
+      <c r="O959" s="1"/>
+      <c r="S959" s="1"/>
+      <c r="W959" s="1"/>
+    </row>
+    <row r="960" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D960" s="1"/>
+      <c r="H960" s="1"/>
+      <c r="L960" s="1"/>
+      <c r="O960" s="1"/>
+      <c r="S960" s="1"/>
+      <c r="W960" s="1"/>
+    </row>
+    <row r="961" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D961" s="1"/>
+      <c r="H961" s="1"/>
+      <c r="L961" s="1"/>
+      <c r="O961" s="1"/>
+      <c r="S961" s="1"/>
+      <c r="W961" s="1"/>
+    </row>
+    <row r="962" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D962" s="1"/>
+      <c r="H962" s="1"/>
+      <c r="L962" s="1"/>
+      <c r="O962" s="1"/>
+      <c r="S962" s="1"/>
+      <c r="W962" s="1"/>
+    </row>
+    <row r="963" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D963" s="1"/>
+      <c r="H963" s="1"/>
+      <c r="L963" s="1"/>
+      <c r="O963" s="1"/>
+      <c r="S963" s="1"/>
+      <c r="W963" s="1"/>
+    </row>
+    <row r="964" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D964" s="1"/>
+      <c r="H964" s="1"/>
+      <c r="L964" s="1"/>
+      <c r="O964" s="1"/>
+      <c r="S964" s="1"/>
+      <c r="W964" s="1"/>
+    </row>
+    <row r="965" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D965" s="1"/>
+      <c r="H965" s="1"/>
+      <c r="L965" s="1"/>
+      <c r="O965" s="1"/>
+      <c r="S965" s="1"/>
+      <c r="W965" s="1"/>
+    </row>
+    <row r="966" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D966" s="1"/>
+      <c r="H966" s="1"/>
+      <c r="L966" s="1"/>
+      <c r="O966" s="1"/>
+      <c r="S966" s="1"/>
+      <c r="W966" s="1"/>
+    </row>
+    <row r="967" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D967" s="1"/>
+      <c r="H967" s="1"/>
+      <c r="L967" s="1"/>
+      <c r="O967" s="1"/>
+      <c r="S967" s="1"/>
+      <c r="W967" s="1"/>
+    </row>
+    <row r="968" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D968" s="1"/>
+      <c r="H968" s="1"/>
+      <c r="L968" s="1"/>
+      <c r="O968" s="1"/>
+      <c r="S968" s="1"/>
+      <c r="W968" s="1"/>
+    </row>
+    <row r="969" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D969" s="1"/>
+      <c r="H969" s="1"/>
+      <c r="L969" s="1"/>
+      <c r="O969" s="1"/>
+      <c r="S969" s="1"/>
+      <c r="W969" s="1"/>
+    </row>
+    <row r="970" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D970" s="1"/>
+      <c r="H970" s="1"/>
+      <c r="L970" s="1"/>
+      <c r="O970" s="1"/>
+      <c r="S970" s="1"/>
+      <c r="W970" s="1"/>
+    </row>
+    <row r="971" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D971" s="1"/>
+      <c r="H971" s="1"/>
+      <c r="L971" s="1"/>
+      <c r="O971" s="1"/>
+      <c r="S971" s="1"/>
+      <c r="W971" s="1"/>
+    </row>
+    <row r="972" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D972" s="1"/>
+      <c r="H972" s="1"/>
+      <c r="L972" s="1"/>
+      <c r="O972" s="1"/>
+      <c r="S972" s="1"/>
+      <c r="W972" s="1"/>
+    </row>
+    <row r="973" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D973" s="1"/>
+      <c r="H973" s="1"/>
+      <c r="L973" s="1"/>
+      <c r="O973" s="1"/>
+      <c r="S973" s="1"/>
+      <c r="W973" s="1"/>
+    </row>
+    <row r="974" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D974" s="1"/>
+      <c r="H974" s="1"/>
+      <c r="L974" s="1"/>
+      <c r="O974" s="1"/>
+      <c r="S974" s="1"/>
+      <c r="W974" s="1"/>
+    </row>
+    <row r="975" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D975" s="1"/>
+      <c r="H975" s="1"/>
+      <c r="L975" s="1"/>
+      <c r="O975" s="1"/>
+      <c r="S975" s="1"/>
+      <c r="W975" s="1"/>
+    </row>
+    <row r="976" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D976" s="1"/>
+      <c r="H976" s="1"/>
+      <c r="L976" s="1"/>
+      <c r="O976" s="1"/>
+      <c r="S976" s="1"/>
+      <c r="W976" s="1"/>
+    </row>
+    <row r="977" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D977" s="1"/>
+      <c r="H977" s="1"/>
+      <c r="L977" s="1"/>
+      <c r="O977" s="1"/>
+      <c r="S977" s="1"/>
+      <c r="W977" s="1"/>
+    </row>
+    <row r="978" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D978" s="1"/>
+      <c r="H978" s="1"/>
+      <c r="L978" s="1"/>
+      <c r="O978" s="1"/>
+      <c r="S978" s="1"/>
+      <c r="W978" s="1"/>
+    </row>
+    <row r="979" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D979" s="1"/>
+      <c r="H979" s="1"/>
+      <c r="L979" s="1"/>
+      <c r="O979" s="1"/>
+      <c r="S979" s="1"/>
+      <c r="W979" s="1"/>
+    </row>
+    <row r="980" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D980" s="1"/>
+      <c r="H980" s="1"/>
+      <c r="L980" s="1"/>
+      <c r="O980" s="1"/>
+      <c r="S980" s="1"/>
+      <c r="W980" s="1"/>
+    </row>
+    <row r="981" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D981" s="1"/>
+      <c r="H981" s="1"/>
+      <c r="L981" s="1"/>
+      <c r="O981" s="1"/>
+      <c r="S981" s="1"/>
+      <c r="W981" s="1"/>
+    </row>
+    <row r="982" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D982" s="1"/>
+      <c r="H982" s="1"/>
+      <c r="L982" s="1"/>
+      <c r="O982" s="1"/>
+      <c r="S982" s="1"/>
+      <c r="W982" s="1"/>
+    </row>
+    <row r="983" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D983" s="1"/>
+      <c r="H983" s="1"/>
+      <c r="L983" s="1"/>
+      <c r="O983" s="1"/>
+      <c r="S983" s="1"/>
+      <c r="W983" s="1"/>
+    </row>
+    <row r="984" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D984" s="1"/>
+      <c r="H984" s="1"/>
+      <c r="L984" s="1"/>
+      <c r="O984" s="1"/>
+      <c r="S984" s="1"/>
+      <c r="W984" s="1"/>
+    </row>
+    <row r="985" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D985" s="1"/>
+      <c r="H985" s="1"/>
+      <c r="L985" s="1"/>
+      <c r="O985" s="1"/>
+      <c r="S985" s="1"/>
+      <c r="W985" s="1"/>
+    </row>
+    <row r="986" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D986" s="1"/>
+      <c r="H986" s="1"/>
+      <c r="L986" s="1"/>
+      <c r="O986" s="1"/>
+      <c r="S986" s="1"/>
+      <c r="W986" s="1"/>
+    </row>
+    <row r="987" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D987" s="1"/>
+      <c r="H987" s="1"/>
+      <c r="L987" s="1"/>
+      <c r="O987" s="1"/>
+      <c r="S987" s="1"/>
+      <c r="W987" s="1"/>
+    </row>
+    <row r="988" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D988" s="1"/>
+      <c r="H988" s="1"/>
+      <c r="L988" s="1"/>
+      <c r="O988" s="1"/>
+      <c r="S988" s="1"/>
+      <c r="W988" s="1"/>
+    </row>
+    <row r="989" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D989" s="1"/>
+      <c r="H989" s="1"/>
+      <c r="L989" s="1"/>
+      <c r="O989" s="1"/>
+      <c r="S989" s="1"/>
+      <c r="W989" s="1"/>
+    </row>
+    <row r="990" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D990" s="1"/>
+      <c r="H990" s="1"/>
+      <c r="L990" s="1"/>
+      <c r="O990" s="1"/>
+      <c r="S990" s="1"/>
+      <c r="W990" s="1"/>
+    </row>
+    <row r="991" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D991" s="1"/>
+      <c r="H991" s="1"/>
+      <c r="L991" s="1"/>
+      <c r="O991" s="1"/>
+      <c r="S991" s="1"/>
+      <c r="W991" s="1"/>
+    </row>
+    <row r="992" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D992" s="1"/>
+      <c r="H992" s="1"/>
+      <c r="L992" s="1"/>
+      <c r="O992" s="1"/>
+      <c r="S992" s="1"/>
+      <c r="W992" s="1"/>
+    </row>
+    <row r="993" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D993" s="1"/>
+      <c r="H993" s="1"/>
+      <c r="L993" s="1"/>
+      <c r="O993" s="1"/>
+      <c r="S993" s="1"/>
+      <c r="W993" s="1"/>
+    </row>
+    <row r="994" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D994" s="1"/>
+      <c r="H994" s="1"/>
+      <c r="L994" s="1"/>
+      <c r="O994" s="1"/>
+      <c r="S994" s="1"/>
+      <c r="W994" s="1"/>
+    </row>
+    <row r="995" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D995" s="1"/>
+      <c r="H995" s="1"/>
+      <c r="L995" s="1"/>
+      <c r="O995" s="1"/>
+      <c r="S995" s="1"/>
+      <c r="W995" s="1"/>
+    </row>
+    <row r="996" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D996" s="1"/>
+      <c r="H996" s="1"/>
+      <c r="L996" s="1"/>
+      <c r="O996" s="1"/>
+      <c r="S996" s="1"/>
+      <c r="W996" s="1"/>
+    </row>
+    <row r="997" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D997" s="1"/>
+      <c r="H997" s="1"/>
+      <c r="L997" s="1"/>
+      <c r="O997" s="1"/>
+      <c r="S997" s="1"/>
+      <c r="W997" s="1"/>
+    </row>
+    <row r="998" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D998" s="1"/>
+      <c r="H998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="O998" s="1"/>
+      <c r="S998" s="1"/>
+      <c r="W998" s="1"/>
+    </row>
+    <row r="999" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D999" s="1"/>
+      <c r="H999" s="1"/>
+      <c r="L999" s="1"/>
+      <c r="O999" s="1"/>
+      <c r="S999" s="1"/>
+      <c r="W999" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13363,6 +21844,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AC14:AD14"/>
@@ -13370,17 +21861,7 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="AN1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818F1679-E938-44E1-999D-86EB259CA3A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039C1D98-5055-47E7-AEBD-5816AA6BFF66}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
   <si>
     <t>SD</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>LED 3</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>VERMELHO</t>
+  </si>
+  <si>
+    <t>AZUL</t>
   </si>
 </sst>
 </file>
@@ -827,7 +836,7 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -856,7 +865,7 @@
     <col min="23" max="23" width="3.85546875" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" customWidth="1"/>
     <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -971,7 +980,9 @@
       <c r="Y2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="17"/>
+      <c r="Z2" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="AA2" s="2">
         <v>32</v>
       </c>
@@ -981,14 +992,14 @@
       <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>51</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
+      <c r="A3" s="7">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="21">
@@ -1044,16 +1055,19 @@
       <c r="Y3" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="Z3" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>50</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
+      <c r="A4" s="8">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="11"/>
       <c r="H4" s="11"/>
@@ -1094,12 +1108,6 @@
         <v>26</v>
       </c>
       <c r="W4" s="11"/>
-      <c r="X4" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -1126,10 +1134,17 @@
       <c r="O5" s="11"/>
       <c r="S5" s="11"/>
       <c r="W5" s="11"/>
+      <c r="X5" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
       <c r="D6" s="11"/>
       <c r="F6" s="15"/>
       <c r="H6" s="11"/>
@@ -1151,6 +1166,7 @@
       <c r="S6" s="11"/>
       <c r="W6" s="11"/>
       <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
@@ -1183,6 +1199,7 @@
       <c r="S8" s="1"/>
       <c r="W8" s="1"/>
       <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1200,6 +1217,7 @@
       <c r="S9" s="1"/>
       <c r="W9" s="1"/>
       <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
       <c r="AB9" s="15"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1219,6 +1237,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="15"/>
     </row>
@@ -9271,19 +9290,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="T1:V1"/>
     <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9294,8 +9313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV999"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="V5" sqref="A5:V5"/>
+    <sheetView topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21844,16 +21863,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AC14:AD14"/>
@@ -21862,6 +21871,16 @@
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AN1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/PINAGEM.xlsx
+++ b/Docs/PINAGEM.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039C1D98-5055-47E7-AEBD-5816AA6BFF66}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31E47EB9-6E4C-4003-B8B7-E1F6C1E345DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pinagem na placa" sheetId="2" r:id="rId1"/>
-    <sheet name="pinagem" sheetId="1" r:id="rId2"/>
+    <sheet name="testado" sheetId="3" r:id="rId2"/>
+    <sheet name="pinagem old" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
   <si>
     <t>SD</t>
   </si>
@@ -214,12 +215,36 @@
   <si>
     <t>AZUL</t>
   </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>buzzer</t>
+  </si>
+  <si>
+    <t>rele</t>
+  </si>
+  <si>
+    <t>flowmeter</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>rfid</t>
+  </si>
+  <si>
+    <t>tela</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -260,8 +285,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +376,12 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -405,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -517,6 +555,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -835,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE53F2EC-05CA-4592-ABCB-D5AF7D078413}">
   <dimension ref="A1:AC999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -865,7 +910,7 @@
     <col min="23" max="23" width="3.85546875" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
     <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -9295,13 +9340,13 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9310,6 +9355,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FA6BCB-C63B-4C95-8BA5-5CD002C5059D}">
+  <dimension ref="B1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV999"/>
   <sheetViews>
